--- a/Data/OurData.xlsx
+++ b/Data/OurData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA9D9ED-6EE0-DE4A-9C5A-40AA9A0123A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7FC64-55A7-024F-AF74-D8B1CC921F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="4" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Arcs" sheetId="1" r:id="rId10"/>
     <sheet name="Traders" sheetId="3" r:id="rId11"/>
     <sheet name="Commodities" sheetId="4" r:id="rId12"/>
+    <sheet name="Probabilities" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="277">
   <si>
     <t>ID</t>
   </si>
@@ -866,6 +867,18 @@
   <si>
     <t>Temp</t>
   </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Dummy pipe 1</t>
+  </si>
+  <si>
+    <t>Dummy pipe 2</t>
+  </si>
 </sst>
 </file>
 
@@ -1032,7 +1045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1127,6 +1140,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1134,7 +1158,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -1186,6 +1210,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1210,7 +1239,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,13 +1248,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1608,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A27" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J50" si="0">IF(I3=100,"Capacity unknown","")</f>
+        <f t="shared" ref="J3:J52" si="0">IF(I3=100,"Capacity unknown","")</f>
         <v/>
       </c>
       <c r="K3" s="1">
@@ -3944,6 +3968,60 @@
         <v>1</v>
       </c>
       <c r="N50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="32">
+        <v>50</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="35">
+        <v>100</v>
+      </c>
+      <c r="J51" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>Capacity unknown</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="32">
+        <v>51</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" s="35">
+        <v>100</v>
+      </c>
+      <c r="J52" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>Capacity unknown</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+      <c r="N52" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4421,6 +4499,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FD9D31-8EFB-9D43-A52A-8F2DB4E9DCA7}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>C2/SUM($C$2:$C$5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">C3/SUM($C$2:$C$5)</f>
+        <v>0.125</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCC4DE0-7BAC-1F4D-92A3-44AE62829735}">
   <dimension ref="A1:C10"/>
@@ -4547,7 +4699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -4590,39 +4742,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -9311,14 +9463,14 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44">
+      <c r="C47" s="1"/>
+      <c r="D47" s="31">
         <v>3.23</v>
       </c>
-      <c r="E47" s="44">
+      <c r="E47" s="31">
         <v>56.55</v>
       </c>
       <c r="F47" s="1"/>
@@ -9415,14 +9567,14 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="45">
+      <c r="C48" s="1"/>
+      <c r="D48" s="23">
         <v>3.330503000000022</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="23">
         <v>56.490369000000037</v>
       </c>
       <c r="F48" s="1"/>
@@ -11196,10 +11348,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8235E03E-FBB7-334A-A23D-60160D8DDD28}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="A4" sqref="A4:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11208,195 +11360,235 @@
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="B1" s="38">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="33">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="B2" s="38">
+        <v>1</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="36"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B4" s="5" t="str">
         <f>'Demand Stage 2'!B4</f>
         <v>ST.FERGUS</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C4" s="5" t="str">
         <f>'Demand Stage 2'!C4</f>
         <v>EASINGTON</v>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D4" s="5" t="str">
         <f>'Demand Stage 2'!D4</f>
         <v>TEESSIDE</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E4" s="5" t="str">
         <f>'Demand Stage 2'!E4</f>
         <v>EMDEN</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F4" s="5" t="str">
         <f>'Demand Stage 2'!F4</f>
         <v>EMDEN 2</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G4" s="5" t="str">
         <f>'Demand Stage 2'!G4</f>
         <v>ZEEBRUGGE</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H4" s="5" t="str">
         <f>'Demand Stage 2'!H4</f>
         <v>DUNKERQUE</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I4" s="5" t="str">
         <f>'Demand Stage 2'!I4</f>
         <v>POLAND</v>
       </c>
-      <c r="J5" s="6" t="str">
+      <c r="J4" s="6" t="str">
         <f>'Demand Stage 2'!J4</f>
         <v>ST.FERGUS</v>
       </c>
-      <c r="K5" s="6" t="str">
+      <c r="K4" s="6" t="str">
         <f>'Demand Stage 2'!K4</f>
         <v>EASINGTON</v>
       </c>
-      <c r="L5" s="6" t="str">
+      <c r="L4" s="6" t="str">
         <f>'Demand Stage 2'!L4</f>
         <v>TEESSIDE</v>
       </c>
-      <c r="M5" s="6" t="str">
+      <c r="M4" s="6" t="str">
         <f>'Demand Stage 2'!M4</f>
         <v>EMDEN</v>
       </c>
-      <c r="N5" s="6" t="str">
+      <c r="N4" s="6" t="str">
         <f>'Demand Stage 2'!N4</f>
         <v>EMDEN 2</v>
       </c>
-      <c r="O5" s="6" t="str">
+      <c r="O4" s="6" t="str">
         <f>'Demand Stage 2'!O4</f>
         <v>ZEEBRUGGE</v>
       </c>
-      <c r="P5" s="6" t="str">
+      <c r="P4" s="6" t="str">
         <f>'Demand Stage 2'!P4</f>
         <v>DUNKERQUE</v>
       </c>
-      <c r="Q5" s="6" t="str">
+      <c r="Q4" s="6" t="str">
         <f>'Demand Stage 2'!Q4</f>
         <v>POLAND</v>
       </c>
     </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'Demand Stage 2'!B43</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'Demand Stage 2'!C43</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'Demand Stage 2'!D43</f>
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'Demand Stage 2'!E43</f>
+        <v>40</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'Demand Stage 2'!F43</f>
+        <v>40</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'Demand Stage 2'!G43</f>
+        <v>40</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'Demand Stage 2'!H43</f>
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'Demand Stage 2'!I43</f>
+        <v>20</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
-        <f>'Demand Stage 2'!B43</f>
+        <f>'Demand Stage 2'!B44</f>
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <f>'Demand Stage 2'!C43</f>
+        <f>'Demand Stage 2'!C44</f>
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <f>'Demand Stage 2'!D43</f>
+        <f>'Demand Stage 2'!D44</f>
         <v>10</v>
       </c>
       <c r="E6" s="2">
-        <f>'Demand Stage 2'!E43</f>
+        <f>'Demand Stage 2'!E44</f>
+        <v>45</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'Demand Stage 2'!F44</f>
+        <v>45</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'Demand Stage 2'!G44</f>
         <v>40</v>
       </c>
-      <c r="F6" s="2">
-        <f>'Demand Stage 2'!F43</f>
-        <v>40</v>
-      </c>
-      <c r="G6" s="2">
-        <f>'Demand Stage 2'!G43</f>
-        <v>40</v>
-      </c>
       <c r="H6" s="2">
-        <f>'Demand Stage 2'!H43</f>
-        <v>40</v>
+        <f>'Demand Stage 2'!H44</f>
+        <v>45</v>
       </c>
       <c r="I6" s="2">
-        <f>'Demand Stage 2'!I43</f>
+        <f>'Demand Stage 2'!I44</f>
         <v>20</v>
       </c>
       <c r="J6" s="3">
@@ -11426,38 +11618,38 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <f>'Demand Stage 2'!B44</f>
+        <f>'Demand Stage 2'!B45</f>
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <f>'Demand Stage 2'!C44</f>
+        <f>'Demand Stage 2'!C45</f>
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <f>'Demand Stage 2'!D44</f>
+        <f>'Demand Stage 2'!D45</f>
         <v>10</v>
       </c>
       <c r="E7" s="2">
-        <f>'Demand Stage 2'!E44</f>
-        <v>45</v>
+        <f>'Demand Stage 2'!E45</f>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
-        <f>'Demand Stage 2'!F44</f>
-        <v>45</v>
+        <f>'Demand Stage 2'!F45</f>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
-        <f>'Demand Stage 2'!G44</f>
+        <f>'Demand Stage 2'!G45</f>
         <v>40</v>
       </c>
       <c r="H7" s="2">
-        <f>'Demand Stage 2'!H44</f>
-        <v>45</v>
+        <f>'Demand Stage 2'!H45</f>
+        <v>35</v>
       </c>
       <c r="I7" s="2">
-        <f>'Demand Stage 2'!I44</f>
+        <f>'Demand Stage 2'!I45</f>
         <v>20</v>
       </c>
       <c r="J7" s="3">
@@ -11487,38 +11679,38 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
-        <f>'Demand Stage 2'!B45</f>
+        <f>'Demand Stage 2'!B46</f>
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <f>'Demand Stage 2'!C45</f>
+        <f>'Demand Stage 2'!C46</f>
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <f>'Demand Stage 2'!D45</f>
+        <f>'Demand Stage 2'!D46</f>
         <v>10</v>
       </c>
       <c r="E8" s="2">
-        <f>'Demand Stage 2'!E45</f>
+        <f>'Demand Stage 2'!E46</f>
+        <v>45</v>
+      </c>
+      <c r="F8" s="2">
+        <f>'Demand Stage 2'!F46</f>
+        <v>45</v>
+      </c>
+      <c r="G8" s="2">
+        <f>'Demand Stage 2'!G46</f>
         <v>40</v>
       </c>
-      <c r="F8" s="2">
-        <f>'Demand Stage 2'!F45</f>
+      <c r="H8" s="2">
+        <f>'Demand Stage 2'!H46</f>
         <v>40</v>
       </c>
-      <c r="G8" s="2">
-        <f>'Demand Stage 2'!G45</f>
-        <v>40</v>
-      </c>
-      <c r="H8" s="2">
-        <f>'Demand Stage 2'!H45</f>
-        <v>35</v>
-      </c>
       <c r="I8" s="2">
-        <f>'Demand Stage 2'!I45</f>
+        <f>'Demand Stage 2'!I46</f>
         <v>20</v>
       </c>
       <c r="J8" s="3">
@@ -11548,68 +11740,28 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <f>'Demand Stage 2'!B46</f>
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <f>'Demand Stage 2'!C46</f>
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <f>'Demand Stage 2'!D46</f>
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <f>'Demand Stage 2'!E46</f>
-        <v>45</v>
-      </c>
-      <c r="F9" s="2">
-        <f>'Demand Stage 2'!F46</f>
-        <v>45</v>
-      </c>
-      <c r="G9" s="2">
-        <f>'Demand Stage 2'!G46</f>
-        <v>40</v>
-      </c>
-      <c r="H9" s="2">
-        <f>'Demand Stage 2'!H46</f>
-        <v>40</v>
-      </c>
-      <c r="I9" s="2">
-        <f>'Demand Stage 2'!I46</f>
-        <v>20</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -11630,7 +11782,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11651,7 +11803,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -11672,7 +11824,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -11693,7 +11845,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11714,7 +11866,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -11735,7 +11887,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11756,7 +11908,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -11777,7 +11929,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -11798,7 +11950,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11819,7 +11971,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -11840,7 +11992,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11861,7 +12013,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11882,7 +12034,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11903,7 +12055,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -11924,7 +12076,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -11945,7 +12097,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -11966,7 +12118,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11987,7 +12139,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -12006,34 +12158,12 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12043,8 +12173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19292E87-5CF7-794D-A1AA-7C1926221C7B}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12072,244 +12202,244 @@
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33">
-        <v>2</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33">
+      <c r="B1" s="38">
+        <v>5</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38">
         <f>B1+Parameters!$B$5</f>
-        <v>6</v>
-      </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33">
+        <v>9</v>
+      </c>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38">
         <f>R1+Parameters!$B$5</f>
-        <v>10</v>
-      </c>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33">
+        <v>13</v>
+      </c>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38">
         <f>AH1+Parameters!$B$5</f>
-        <v>14</v>
-      </c>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="38">
         <v>0.25</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33">
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33">
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="33"/>
-      <c r="BM2" s="33"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="37" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38" t="s">
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="37" t="s">
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="38" t="s">
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="37" t="s">
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="38" t="s">
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="38"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -15482,6 +15612,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AH1:AW1"/>
+    <mergeCell ref="AH2:AW2"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="AX1:BM1"/>
+    <mergeCell ref="AX2:BM2"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="BF3:BM3"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="B1:Q1"/>
@@ -15490,14 +15628,6 @@
     <mergeCell ref="R2:AG2"/>
     <mergeCell ref="R3:Y3"/>
     <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH1:AW1"/>
-    <mergeCell ref="AH2:AW2"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="AX1:BM1"/>
-    <mergeCell ref="AX2:BM2"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="BF3:BM3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15507,8 +15637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7506CF-850A-ED42-956F-025E5A994524}">
   <dimension ref="A1:IW33"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="IH1" sqref="IH1:IW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15522,1234 +15652,1234 @@
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33">
-        <v>18</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33">
+      <c r="B1" s="38">
+        <v>21</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38">
         <f>B1+Parameters!$B$5</f>
-        <v>22</v>
-      </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33">
+        <v>25</v>
+      </c>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38">
         <f>R1+Parameters!$B$5</f>
-        <v>26</v>
-      </c>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38">
         <f>AH1+Parameters!$B$5</f>
-        <v>30</v>
-      </c>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33">
+        <v>33</v>
+      </c>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38">
         <f>AX1+Parameters!$B$5</f>
-        <v>34</v>
-      </c>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="33"/>
-      <c r="BV1" s="33"/>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="33"/>
-      <c r="BY1" s="33"/>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="33"/>
-      <c r="CB1" s="33"/>
-      <c r="CC1" s="33"/>
-      <c r="CD1" s="33">
+        <v>37</v>
+      </c>
+      <c r="BO1" s="38"/>
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="38"/>
+      <c r="BU1" s="38"/>
+      <c r="BV1" s="38"/>
+      <c r="BW1" s="38"/>
+      <c r="BX1" s="38"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="38"/>
+      <c r="CD1" s="38">
         <f>BN1+Parameters!$B$5</f>
-        <v>38</v>
-      </c>
-      <c r="CE1" s="33"/>
-      <c r="CF1" s="33"/>
-      <c r="CG1" s="33"/>
-      <c r="CH1" s="33"/>
-      <c r="CI1" s="33"/>
-      <c r="CJ1" s="33"/>
-      <c r="CK1" s="33"/>
-      <c r="CL1" s="33"/>
-      <c r="CM1" s="33"/>
-      <c r="CN1" s="33"/>
-      <c r="CO1" s="33"/>
-      <c r="CP1" s="33"/>
-      <c r="CQ1" s="33"/>
-      <c r="CR1" s="33"/>
-      <c r="CS1" s="33"/>
-      <c r="CT1" s="33">
+        <v>41</v>
+      </c>
+      <c r="CE1" s="38"/>
+      <c r="CF1" s="38"/>
+      <c r="CG1" s="38"/>
+      <c r="CH1" s="38"/>
+      <c r="CI1" s="38"/>
+      <c r="CJ1" s="38"/>
+      <c r="CK1" s="38"/>
+      <c r="CL1" s="38"/>
+      <c r="CM1" s="38"/>
+      <c r="CN1" s="38"/>
+      <c r="CO1" s="38"/>
+      <c r="CP1" s="38"/>
+      <c r="CQ1" s="38"/>
+      <c r="CR1" s="38"/>
+      <c r="CS1" s="38"/>
+      <c r="CT1" s="38">
         <f>CD1+Parameters!$B$5</f>
-        <v>42</v>
-      </c>
-      <c r="CU1" s="33"/>
-      <c r="CV1" s="33"/>
-      <c r="CW1" s="33"/>
-      <c r="CX1" s="33"/>
-      <c r="CY1" s="33"/>
-      <c r="CZ1" s="33"/>
-      <c r="DA1" s="33"/>
-      <c r="DB1" s="33"/>
-      <c r="DC1" s="33"/>
-      <c r="DD1" s="33"/>
-      <c r="DE1" s="33"/>
-      <c r="DF1" s="33"/>
-      <c r="DG1" s="33"/>
-      <c r="DH1" s="33"/>
-      <c r="DI1" s="33"/>
-      <c r="DJ1" s="33">
+        <v>45</v>
+      </c>
+      <c r="CU1" s="38"/>
+      <c r="CV1" s="38"/>
+      <c r="CW1" s="38"/>
+      <c r="CX1" s="38"/>
+      <c r="CY1" s="38"/>
+      <c r="CZ1" s="38"/>
+      <c r="DA1" s="38"/>
+      <c r="DB1" s="38"/>
+      <c r="DC1" s="38"/>
+      <c r="DD1" s="38"/>
+      <c r="DE1" s="38"/>
+      <c r="DF1" s="38"/>
+      <c r="DG1" s="38"/>
+      <c r="DH1" s="38"/>
+      <c r="DI1" s="38"/>
+      <c r="DJ1" s="38">
         <f>CT1+Parameters!$B$5</f>
-        <v>46</v>
-      </c>
-      <c r="DK1" s="33"/>
-      <c r="DL1" s="33"/>
-      <c r="DM1" s="33"/>
-      <c r="DN1" s="33"/>
-      <c r="DO1" s="33"/>
-      <c r="DP1" s="33"/>
-      <c r="DQ1" s="33"/>
-      <c r="DR1" s="33"/>
-      <c r="DS1" s="33"/>
-      <c r="DT1" s="33"/>
-      <c r="DU1" s="33"/>
-      <c r="DV1" s="33"/>
-      <c r="DW1" s="33"/>
-      <c r="DX1" s="33"/>
-      <c r="DY1" s="33"/>
-      <c r="DZ1" s="33">
+        <v>49</v>
+      </c>
+      <c r="DK1" s="38"/>
+      <c r="DL1" s="38"/>
+      <c r="DM1" s="38"/>
+      <c r="DN1" s="38"/>
+      <c r="DO1" s="38"/>
+      <c r="DP1" s="38"/>
+      <c r="DQ1" s="38"/>
+      <c r="DR1" s="38"/>
+      <c r="DS1" s="38"/>
+      <c r="DT1" s="38"/>
+      <c r="DU1" s="38"/>
+      <c r="DV1" s="38"/>
+      <c r="DW1" s="38"/>
+      <c r="DX1" s="38"/>
+      <c r="DY1" s="38"/>
+      <c r="DZ1" s="38">
         <f>DJ1+Parameters!$B$5</f>
-        <v>50</v>
-      </c>
-      <c r="EA1" s="33"/>
-      <c r="EB1" s="33"/>
-      <c r="EC1" s="33"/>
-      <c r="ED1" s="33"/>
-      <c r="EE1" s="33"/>
-      <c r="EF1" s="33"/>
-      <c r="EG1" s="33"/>
-      <c r="EH1" s="33"/>
-      <c r="EI1" s="33"/>
-      <c r="EJ1" s="33"/>
-      <c r="EK1" s="33"/>
-      <c r="EL1" s="33"/>
-      <c r="EM1" s="33"/>
-      <c r="EN1" s="33"/>
-      <c r="EO1" s="33"/>
-      <c r="EP1" s="33">
+        <v>53</v>
+      </c>
+      <c r="EA1" s="38"/>
+      <c r="EB1" s="38"/>
+      <c r="EC1" s="38"/>
+      <c r="ED1" s="38"/>
+      <c r="EE1" s="38"/>
+      <c r="EF1" s="38"/>
+      <c r="EG1" s="38"/>
+      <c r="EH1" s="38"/>
+      <c r="EI1" s="38"/>
+      <c r="EJ1" s="38"/>
+      <c r="EK1" s="38"/>
+      <c r="EL1" s="38"/>
+      <c r="EM1" s="38"/>
+      <c r="EN1" s="38"/>
+      <c r="EO1" s="38"/>
+      <c r="EP1" s="38">
         <f>DZ1+Parameters!$B$5</f>
-        <v>54</v>
-      </c>
-      <c r="EQ1" s="33"/>
-      <c r="ER1" s="33"/>
-      <c r="ES1" s="33"/>
-      <c r="ET1" s="33"/>
-      <c r="EU1" s="33"/>
-      <c r="EV1" s="33"/>
-      <c r="EW1" s="33"/>
-      <c r="EX1" s="33"/>
-      <c r="EY1" s="33"/>
-      <c r="EZ1" s="33"/>
-      <c r="FA1" s="33"/>
-      <c r="FB1" s="33"/>
-      <c r="FC1" s="33"/>
-      <c r="FD1" s="33"/>
-      <c r="FE1" s="33"/>
-      <c r="FF1" s="33">
+        <v>57</v>
+      </c>
+      <c r="EQ1" s="38"/>
+      <c r="ER1" s="38"/>
+      <c r="ES1" s="38"/>
+      <c r="ET1" s="38"/>
+      <c r="EU1" s="38"/>
+      <c r="EV1" s="38"/>
+      <c r="EW1" s="38"/>
+      <c r="EX1" s="38"/>
+      <c r="EY1" s="38"/>
+      <c r="EZ1" s="38"/>
+      <c r="FA1" s="38"/>
+      <c r="FB1" s="38"/>
+      <c r="FC1" s="38"/>
+      <c r="FD1" s="38"/>
+      <c r="FE1" s="38"/>
+      <c r="FF1" s="38">
         <f>EP1+Parameters!$B$5</f>
-        <v>58</v>
-      </c>
-      <c r="FG1" s="33"/>
-      <c r="FH1" s="33"/>
-      <c r="FI1" s="33"/>
-      <c r="FJ1" s="33"/>
-      <c r="FK1" s="33"/>
-      <c r="FL1" s="33"/>
-      <c r="FM1" s="33"/>
-      <c r="FN1" s="33"/>
-      <c r="FO1" s="33"/>
-      <c r="FP1" s="33"/>
-      <c r="FQ1" s="33"/>
-      <c r="FR1" s="33"/>
-      <c r="FS1" s="33"/>
-      <c r="FT1" s="33"/>
-      <c r="FU1" s="33"/>
-      <c r="FV1" s="33">
+        <v>61</v>
+      </c>
+      <c r="FG1" s="38"/>
+      <c r="FH1" s="38"/>
+      <c r="FI1" s="38"/>
+      <c r="FJ1" s="38"/>
+      <c r="FK1" s="38"/>
+      <c r="FL1" s="38"/>
+      <c r="FM1" s="38"/>
+      <c r="FN1" s="38"/>
+      <c r="FO1" s="38"/>
+      <c r="FP1" s="38"/>
+      <c r="FQ1" s="38"/>
+      <c r="FR1" s="38"/>
+      <c r="FS1" s="38"/>
+      <c r="FT1" s="38"/>
+      <c r="FU1" s="38"/>
+      <c r="FV1" s="38">
         <f>FF1+Parameters!$B$5</f>
-        <v>62</v>
-      </c>
-      <c r="FW1" s="33"/>
-      <c r="FX1" s="33"/>
-      <c r="FY1" s="33"/>
-      <c r="FZ1" s="33"/>
-      <c r="GA1" s="33"/>
-      <c r="GB1" s="33"/>
-      <c r="GC1" s="33"/>
-      <c r="GD1" s="33"/>
-      <c r="GE1" s="33"/>
-      <c r="GF1" s="33"/>
-      <c r="GG1" s="33"/>
-      <c r="GH1" s="33"/>
-      <c r="GI1" s="33"/>
-      <c r="GJ1" s="33"/>
-      <c r="GK1" s="33"/>
-      <c r="GL1" s="33">
+        <v>65</v>
+      </c>
+      <c r="FW1" s="38"/>
+      <c r="FX1" s="38"/>
+      <c r="FY1" s="38"/>
+      <c r="FZ1" s="38"/>
+      <c r="GA1" s="38"/>
+      <c r="GB1" s="38"/>
+      <c r="GC1" s="38"/>
+      <c r="GD1" s="38"/>
+      <c r="GE1" s="38"/>
+      <c r="GF1" s="38"/>
+      <c r="GG1" s="38"/>
+      <c r="GH1" s="38"/>
+      <c r="GI1" s="38"/>
+      <c r="GJ1" s="38"/>
+      <c r="GK1" s="38"/>
+      <c r="GL1" s="38">
         <f>FV1+Parameters!$B$5</f>
-        <v>66</v>
-      </c>
-      <c r="GM1" s="33"/>
-      <c r="GN1" s="33"/>
-      <c r="GO1" s="33"/>
-      <c r="GP1" s="33"/>
-      <c r="GQ1" s="33"/>
-      <c r="GR1" s="33"/>
-      <c r="GS1" s="33"/>
-      <c r="GT1" s="33"/>
-      <c r="GU1" s="33"/>
-      <c r="GV1" s="33"/>
-      <c r="GW1" s="33"/>
-      <c r="GX1" s="33"/>
-      <c r="GY1" s="33"/>
-      <c r="GZ1" s="33"/>
-      <c r="HA1" s="33"/>
-      <c r="HB1" s="33">
+        <v>69</v>
+      </c>
+      <c r="GM1" s="38"/>
+      <c r="GN1" s="38"/>
+      <c r="GO1" s="38"/>
+      <c r="GP1" s="38"/>
+      <c r="GQ1" s="38"/>
+      <c r="GR1" s="38"/>
+      <c r="GS1" s="38"/>
+      <c r="GT1" s="38"/>
+      <c r="GU1" s="38"/>
+      <c r="GV1" s="38"/>
+      <c r="GW1" s="38"/>
+      <c r="GX1" s="38"/>
+      <c r="GY1" s="38"/>
+      <c r="GZ1" s="38"/>
+      <c r="HA1" s="38"/>
+      <c r="HB1" s="38">
         <f>GL1+Parameters!$B$5</f>
-        <v>70</v>
-      </c>
-      <c r="HC1" s="33"/>
-      <c r="HD1" s="33"/>
-      <c r="HE1" s="33"/>
-      <c r="HF1" s="33"/>
-      <c r="HG1" s="33"/>
-      <c r="HH1" s="33"/>
-      <c r="HI1" s="33"/>
-      <c r="HJ1" s="33"/>
-      <c r="HK1" s="33"/>
-      <c r="HL1" s="33"/>
-      <c r="HM1" s="33"/>
-      <c r="HN1" s="33"/>
-      <c r="HO1" s="33"/>
-      <c r="HP1" s="33"/>
-      <c r="HQ1" s="33"/>
-      <c r="HR1" s="33">
+        <v>73</v>
+      </c>
+      <c r="HC1" s="38"/>
+      <c r="HD1" s="38"/>
+      <c r="HE1" s="38"/>
+      <c r="HF1" s="38"/>
+      <c r="HG1" s="38"/>
+      <c r="HH1" s="38"/>
+      <c r="HI1" s="38"/>
+      <c r="HJ1" s="38"/>
+      <c r="HK1" s="38"/>
+      <c r="HL1" s="38"/>
+      <c r="HM1" s="38"/>
+      <c r="HN1" s="38"/>
+      <c r="HO1" s="38"/>
+      <c r="HP1" s="38"/>
+      <c r="HQ1" s="38"/>
+      <c r="HR1" s="38">
         <f>HB1+Parameters!$B$5</f>
-        <v>74</v>
-      </c>
-      <c r="HS1" s="33"/>
-      <c r="HT1" s="33"/>
-      <c r="HU1" s="33"/>
-      <c r="HV1" s="33"/>
-      <c r="HW1" s="33"/>
-      <c r="HX1" s="33"/>
-      <c r="HY1" s="33"/>
-      <c r="HZ1" s="33"/>
-      <c r="IA1" s="33"/>
-      <c r="IB1" s="33"/>
-      <c r="IC1" s="33"/>
-      <c r="ID1" s="33"/>
-      <c r="IE1" s="33"/>
-      <c r="IF1" s="33"/>
-      <c r="IG1" s="33"/>
-      <c r="IH1" s="33">
+        <v>77</v>
+      </c>
+      <c r="HS1" s="38"/>
+      <c r="HT1" s="38"/>
+      <c r="HU1" s="38"/>
+      <c r="HV1" s="38"/>
+      <c r="HW1" s="38"/>
+      <c r="HX1" s="38"/>
+      <c r="HY1" s="38"/>
+      <c r="HZ1" s="38"/>
+      <c r="IA1" s="38"/>
+      <c r="IB1" s="38"/>
+      <c r="IC1" s="38"/>
+      <c r="ID1" s="38"/>
+      <c r="IE1" s="38"/>
+      <c r="IF1" s="38"/>
+      <c r="IG1" s="38"/>
+      <c r="IH1" s="38">
         <f>HR1+Parameters!$B$5</f>
-        <v>78</v>
-      </c>
-      <c r="II1" s="33"/>
-      <c r="IJ1" s="33"/>
-      <c r="IK1" s="33"/>
-      <c r="IL1" s="33"/>
-      <c r="IM1" s="33"/>
-      <c r="IN1" s="33"/>
-      <c r="IO1" s="33"/>
-      <c r="IP1" s="33"/>
-      <c r="IQ1" s="33"/>
-      <c r="IR1" s="33"/>
-      <c r="IS1" s="33"/>
-      <c r="IT1" s="33"/>
-      <c r="IU1" s="33"/>
-      <c r="IV1" s="33"/>
-      <c r="IW1" s="33"/>
+        <v>81</v>
+      </c>
+      <c r="II1" s="38"/>
+      <c r="IJ1" s="38"/>
+      <c r="IK1" s="38"/>
+      <c r="IL1" s="38"/>
+      <c r="IM1" s="38"/>
+      <c r="IN1" s="38"/>
+      <c r="IO1" s="38"/>
+      <c r="IP1" s="38"/>
+      <c r="IQ1" s="38"/>
+      <c r="IR1" s="38"/>
+      <c r="IS1" s="38"/>
+      <c r="IT1" s="38"/>
+      <c r="IU1" s="38"/>
+      <c r="IV1" s="38"/>
+      <c r="IW1" s="38"/>
     </row>
     <row r="2" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="38">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38">
         <f>B2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33">
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38">
         <f t="shared" ref="AH2" si="0">R2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33">
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38">
         <f t="shared" ref="AX2" si="1">AH2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="33"/>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33">
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38">
         <f t="shared" ref="BN2" si="2">AX2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="33"/>
-      <c r="BQ2" s="33"/>
-      <c r="BR2" s="33"/>
-      <c r="BS2" s="33"/>
-      <c r="BT2" s="33"/>
-      <c r="BU2" s="33"/>
-      <c r="BV2" s="33"/>
-      <c r="BW2" s="33"/>
-      <c r="BX2" s="33"/>
-      <c r="BY2" s="33"/>
-      <c r="BZ2" s="33"/>
-      <c r="CA2" s="33"/>
-      <c r="CB2" s="33"/>
-      <c r="CC2" s="33"/>
-      <c r="CD2" s="33">
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="38"/>
+      <c r="BS2" s="38"/>
+      <c r="BT2" s="38"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="38"/>
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="38"/>
+      <c r="CB2" s="38"/>
+      <c r="CC2" s="38"/>
+      <c r="CD2" s="38">
         <f t="shared" ref="CD2" si="3">BN2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CE2" s="33"/>
-      <c r="CF2" s="33"/>
-      <c r="CG2" s="33"/>
-      <c r="CH2" s="33"/>
-      <c r="CI2" s="33"/>
-      <c r="CJ2" s="33"/>
-      <c r="CK2" s="33"/>
-      <c r="CL2" s="33"/>
-      <c r="CM2" s="33"/>
-      <c r="CN2" s="33"/>
-      <c r="CO2" s="33"/>
-      <c r="CP2" s="33"/>
-      <c r="CQ2" s="33"/>
-      <c r="CR2" s="33"/>
-      <c r="CS2" s="33"/>
-      <c r="CT2" s="33">
+      <c r="CE2" s="38"/>
+      <c r="CF2" s="38"/>
+      <c r="CG2" s="38"/>
+      <c r="CH2" s="38"/>
+      <c r="CI2" s="38"/>
+      <c r="CJ2" s="38"/>
+      <c r="CK2" s="38"/>
+      <c r="CL2" s="38"/>
+      <c r="CM2" s="38"/>
+      <c r="CN2" s="38"/>
+      <c r="CO2" s="38"/>
+      <c r="CP2" s="38"/>
+      <c r="CQ2" s="38"/>
+      <c r="CR2" s="38"/>
+      <c r="CS2" s="38"/>
+      <c r="CT2" s="38">
         <f t="shared" ref="CT2" si="4">CD2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CU2" s="33"/>
-      <c r="CV2" s="33"/>
-      <c r="CW2" s="33"/>
-      <c r="CX2" s="33"/>
-      <c r="CY2" s="33"/>
-      <c r="CZ2" s="33"/>
-      <c r="DA2" s="33"/>
-      <c r="DB2" s="33"/>
-      <c r="DC2" s="33"/>
-      <c r="DD2" s="33"/>
-      <c r="DE2" s="33"/>
-      <c r="DF2" s="33"/>
-      <c r="DG2" s="33"/>
-      <c r="DH2" s="33"/>
-      <c r="DI2" s="33"/>
-      <c r="DJ2" s="33">
+      <c r="CU2" s="38"/>
+      <c r="CV2" s="38"/>
+      <c r="CW2" s="38"/>
+      <c r="CX2" s="38"/>
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="38"/>
+      <c r="DB2" s="38"/>
+      <c r="DC2" s="38"/>
+      <c r="DD2" s="38"/>
+      <c r="DE2" s="38"/>
+      <c r="DF2" s="38"/>
+      <c r="DG2" s="38"/>
+      <c r="DH2" s="38"/>
+      <c r="DI2" s="38"/>
+      <c r="DJ2" s="38">
         <f t="shared" ref="DJ2" si="5">CT2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="DK2" s="33"/>
-      <c r="DL2" s="33"/>
-      <c r="DM2" s="33"/>
-      <c r="DN2" s="33"/>
-      <c r="DO2" s="33"/>
-      <c r="DP2" s="33"/>
-      <c r="DQ2" s="33"/>
-      <c r="DR2" s="33"/>
-      <c r="DS2" s="33"/>
-      <c r="DT2" s="33"/>
-      <c r="DU2" s="33"/>
-      <c r="DV2" s="33"/>
-      <c r="DW2" s="33"/>
-      <c r="DX2" s="33"/>
-      <c r="DY2" s="33"/>
-      <c r="DZ2" s="33">
+      <c r="DK2" s="38"/>
+      <c r="DL2" s="38"/>
+      <c r="DM2" s="38"/>
+      <c r="DN2" s="38"/>
+      <c r="DO2" s="38"/>
+      <c r="DP2" s="38"/>
+      <c r="DQ2" s="38"/>
+      <c r="DR2" s="38"/>
+      <c r="DS2" s="38"/>
+      <c r="DT2" s="38"/>
+      <c r="DU2" s="38"/>
+      <c r="DV2" s="38"/>
+      <c r="DW2" s="38"/>
+      <c r="DX2" s="38"/>
+      <c r="DY2" s="38"/>
+      <c r="DZ2" s="38">
         <f t="shared" ref="DZ2" si="6">DJ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EA2" s="33"/>
-      <c r="EB2" s="33"/>
-      <c r="EC2" s="33"/>
-      <c r="ED2" s="33"/>
-      <c r="EE2" s="33"/>
-      <c r="EF2" s="33"/>
-      <c r="EG2" s="33"/>
-      <c r="EH2" s="33"/>
-      <c r="EI2" s="33"/>
-      <c r="EJ2" s="33"/>
-      <c r="EK2" s="33"/>
-      <c r="EL2" s="33"/>
-      <c r="EM2" s="33"/>
-      <c r="EN2" s="33"/>
-      <c r="EO2" s="33"/>
-      <c r="EP2" s="33">
+      <c r="EA2" s="38"/>
+      <c r="EB2" s="38"/>
+      <c r="EC2" s="38"/>
+      <c r="ED2" s="38"/>
+      <c r="EE2" s="38"/>
+      <c r="EF2" s="38"/>
+      <c r="EG2" s="38"/>
+      <c r="EH2" s="38"/>
+      <c r="EI2" s="38"/>
+      <c r="EJ2" s="38"/>
+      <c r="EK2" s="38"/>
+      <c r="EL2" s="38"/>
+      <c r="EM2" s="38"/>
+      <c r="EN2" s="38"/>
+      <c r="EO2" s="38"/>
+      <c r="EP2" s="38">
         <f t="shared" ref="EP2" si="7">DZ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EQ2" s="33"/>
-      <c r="ER2" s="33"/>
-      <c r="ES2" s="33"/>
-      <c r="ET2" s="33"/>
-      <c r="EU2" s="33"/>
-      <c r="EV2" s="33"/>
-      <c r="EW2" s="33"/>
-      <c r="EX2" s="33"/>
-      <c r="EY2" s="33"/>
-      <c r="EZ2" s="33"/>
-      <c r="FA2" s="33"/>
-      <c r="FB2" s="33"/>
-      <c r="FC2" s="33"/>
-      <c r="FD2" s="33"/>
-      <c r="FE2" s="33"/>
-      <c r="FF2" s="33">
+      <c r="EQ2" s="38"/>
+      <c r="ER2" s="38"/>
+      <c r="ES2" s="38"/>
+      <c r="ET2" s="38"/>
+      <c r="EU2" s="38"/>
+      <c r="EV2" s="38"/>
+      <c r="EW2" s="38"/>
+      <c r="EX2" s="38"/>
+      <c r="EY2" s="38"/>
+      <c r="EZ2" s="38"/>
+      <c r="FA2" s="38"/>
+      <c r="FB2" s="38"/>
+      <c r="FC2" s="38"/>
+      <c r="FD2" s="38"/>
+      <c r="FE2" s="38"/>
+      <c r="FF2" s="38">
         <f t="shared" ref="FF2" si="8">EP2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FG2" s="33"/>
-      <c r="FH2" s="33"/>
-      <c r="FI2" s="33"/>
-      <c r="FJ2" s="33"/>
-      <c r="FK2" s="33"/>
-      <c r="FL2" s="33"/>
-      <c r="FM2" s="33"/>
-      <c r="FN2" s="33"/>
-      <c r="FO2" s="33"/>
-      <c r="FP2" s="33"/>
-      <c r="FQ2" s="33"/>
-      <c r="FR2" s="33"/>
-      <c r="FS2" s="33"/>
-      <c r="FT2" s="33"/>
-      <c r="FU2" s="33"/>
-      <c r="FV2" s="33">
+      <c r="FG2" s="38"/>
+      <c r="FH2" s="38"/>
+      <c r="FI2" s="38"/>
+      <c r="FJ2" s="38"/>
+      <c r="FK2" s="38"/>
+      <c r="FL2" s="38"/>
+      <c r="FM2" s="38"/>
+      <c r="FN2" s="38"/>
+      <c r="FO2" s="38"/>
+      <c r="FP2" s="38"/>
+      <c r="FQ2" s="38"/>
+      <c r="FR2" s="38"/>
+      <c r="FS2" s="38"/>
+      <c r="FT2" s="38"/>
+      <c r="FU2" s="38"/>
+      <c r="FV2" s="38">
         <f t="shared" ref="FV2" si="9">FF2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FW2" s="33"/>
-      <c r="FX2" s="33"/>
-      <c r="FY2" s="33"/>
-      <c r="FZ2" s="33"/>
-      <c r="GA2" s="33"/>
-      <c r="GB2" s="33"/>
-      <c r="GC2" s="33"/>
-      <c r="GD2" s="33"/>
-      <c r="GE2" s="33"/>
-      <c r="GF2" s="33"/>
-      <c r="GG2" s="33"/>
-      <c r="GH2" s="33"/>
-      <c r="GI2" s="33"/>
-      <c r="GJ2" s="33"/>
-      <c r="GK2" s="33"/>
-      <c r="GL2" s="33">
+      <c r="FW2" s="38"/>
+      <c r="FX2" s="38"/>
+      <c r="FY2" s="38"/>
+      <c r="FZ2" s="38"/>
+      <c r="GA2" s="38"/>
+      <c r="GB2" s="38"/>
+      <c r="GC2" s="38"/>
+      <c r="GD2" s="38"/>
+      <c r="GE2" s="38"/>
+      <c r="GF2" s="38"/>
+      <c r="GG2" s="38"/>
+      <c r="GH2" s="38"/>
+      <c r="GI2" s="38"/>
+      <c r="GJ2" s="38"/>
+      <c r="GK2" s="38"/>
+      <c r="GL2" s="38">
         <f t="shared" ref="GL2" si="10">FV2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="GM2" s="33"/>
-      <c r="GN2" s="33"/>
-      <c r="GO2" s="33"/>
-      <c r="GP2" s="33"/>
-      <c r="GQ2" s="33"/>
-      <c r="GR2" s="33"/>
-      <c r="GS2" s="33"/>
-      <c r="GT2" s="33"/>
-      <c r="GU2" s="33"/>
-      <c r="GV2" s="33"/>
-      <c r="GW2" s="33"/>
-      <c r="GX2" s="33"/>
-      <c r="GY2" s="33"/>
-      <c r="GZ2" s="33"/>
-      <c r="HA2" s="33"/>
-      <c r="HB2" s="33">
+      <c r="GM2" s="38"/>
+      <c r="GN2" s="38"/>
+      <c r="GO2" s="38"/>
+      <c r="GP2" s="38"/>
+      <c r="GQ2" s="38"/>
+      <c r="GR2" s="38"/>
+      <c r="GS2" s="38"/>
+      <c r="GT2" s="38"/>
+      <c r="GU2" s="38"/>
+      <c r="GV2" s="38"/>
+      <c r="GW2" s="38"/>
+      <c r="GX2" s="38"/>
+      <c r="GY2" s="38"/>
+      <c r="GZ2" s="38"/>
+      <c r="HA2" s="38"/>
+      <c r="HB2" s="38">
         <f t="shared" ref="HB2" si="11">GL2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HC2" s="33"/>
-      <c r="HD2" s="33"/>
-      <c r="HE2" s="33"/>
-      <c r="HF2" s="33"/>
-      <c r="HG2" s="33"/>
-      <c r="HH2" s="33"/>
-      <c r="HI2" s="33"/>
-      <c r="HJ2" s="33"/>
-      <c r="HK2" s="33"/>
-      <c r="HL2" s="33"/>
-      <c r="HM2" s="33"/>
-      <c r="HN2" s="33"/>
-      <c r="HO2" s="33"/>
-      <c r="HP2" s="33"/>
-      <c r="HQ2" s="33"/>
-      <c r="HR2" s="33">
+      <c r="HC2" s="38"/>
+      <c r="HD2" s="38"/>
+      <c r="HE2" s="38"/>
+      <c r="HF2" s="38"/>
+      <c r="HG2" s="38"/>
+      <c r="HH2" s="38"/>
+      <c r="HI2" s="38"/>
+      <c r="HJ2" s="38"/>
+      <c r="HK2" s="38"/>
+      <c r="HL2" s="38"/>
+      <c r="HM2" s="38"/>
+      <c r="HN2" s="38"/>
+      <c r="HO2" s="38"/>
+      <c r="HP2" s="38"/>
+      <c r="HQ2" s="38"/>
+      <c r="HR2" s="38">
         <f t="shared" ref="HR2" si="12">HB2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HS2" s="33"/>
-      <c r="HT2" s="33"/>
-      <c r="HU2" s="33"/>
-      <c r="HV2" s="33"/>
-      <c r="HW2" s="33"/>
-      <c r="HX2" s="33"/>
-      <c r="HY2" s="33"/>
-      <c r="HZ2" s="33"/>
-      <c r="IA2" s="33"/>
-      <c r="IB2" s="33"/>
-      <c r="IC2" s="33"/>
-      <c r="ID2" s="33"/>
-      <c r="IE2" s="33"/>
-      <c r="IF2" s="33"/>
-      <c r="IG2" s="33"/>
-      <c r="IH2" s="33">
+      <c r="HS2" s="38"/>
+      <c r="HT2" s="38"/>
+      <c r="HU2" s="38"/>
+      <c r="HV2" s="38"/>
+      <c r="HW2" s="38"/>
+      <c r="HX2" s="38"/>
+      <c r="HY2" s="38"/>
+      <c r="HZ2" s="38"/>
+      <c r="IA2" s="38"/>
+      <c r="IB2" s="38"/>
+      <c r="IC2" s="38"/>
+      <c r="ID2" s="38"/>
+      <c r="IE2" s="38"/>
+      <c r="IF2" s="38"/>
+      <c r="IG2" s="38"/>
+      <c r="IH2" s="38">
         <f t="shared" ref="IH2" si="13">HR2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="II2" s="33"/>
-      <c r="IJ2" s="33"/>
-      <c r="IK2" s="33"/>
-      <c r="IL2" s="33"/>
-      <c r="IM2" s="33"/>
-      <c r="IN2" s="33"/>
-      <c r="IO2" s="33"/>
-      <c r="IP2" s="33"/>
-      <c r="IQ2" s="33"/>
-      <c r="IR2" s="33"/>
-      <c r="IS2" s="33"/>
-      <c r="IT2" s="33"/>
-      <c r="IU2" s="33"/>
-      <c r="IV2" s="33"/>
-      <c r="IW2" s="33"/>
+      <c r="II2" s="38"/>
+      <c r="IJ2" s="38"/>
+      <c r="IK2" s="38"/>
+      <c r="IL2" s="38"/>
+      <c r="IM2" s="38"/>
+      <c r="IN2" s="38"/>
+      <c r="IO2" s="38"/>
+      <c r="IP2" s="38"/>
+      <c r="IQ2" s="38"/>
+      <c r="IR2" s="38"/>
+      <c r="IS2" s="38"/>
+      <c r="IT2" s="38"/>
+      <c r="IU2" s="38"/>
+      <c r="IV2" s="38"/>
+      <c r="IW2" s="38"/>
     </row>
     <row r="3" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="34">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="34">
-        <v>2</v>
-      </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="34">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="34">
-        <v>2</v>
-      </c>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35"/>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="35"/>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35"/>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="35"/>
-      <c r="BK3" s="35"/>
-      <c r="BL3" s="35"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="34">
-        <v>6</v>
-      </c>
-      <c r="BO3" s="35"/>
-      <c r="BP3" s="35"/>
-      <c r="BQ3" s="35"/>
-      <c r="BR3" s="35"/>
-      <c r="BS3" s="35"/>
-      <c r="BT3" s="35"/>
-      <c r="BU3" s="35"/>
-      <c r="BV3" s="35"/>
-      <c r="BW3" s="35"/>
-      <c r="BX3" s="35"/>
-      <c r="BY3" s="35"/>
-      <c r="BZ3" s="35"/>
-      <c r="CA3" s="35"/>
-      <c r="CB3" s="35"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="34">
-        <v>6</v>
-      </c>
-      <c r="CE3" s="35"/>
-      <c r="CF3" s="35"/>
-      <c r="CG3" s="35"/>
-      <c r="CH3" s="35"/>
-      <c r="CI3" s="35"/>
-      <c r="CJ3" s="35"/>
-      <c r="CK3" s="35"/>
-      <c r="CL3" s="35"/>
-      <c r="CM3" s="35"/>
-      <c r="CN3" s="35"/>
-      <c r="CO3" s="35"/>
-      <c r="CP3" s="35"/>
-      <c r="CQ3" s="35"/>
-      <c r="CR3" s="35"/>
-      <c r="CS3" s="36"/>
-      <c r="CT3" s="34">
-        <v>6</v>
-      </c>
-      <c r="CU3" s="35"/>
-      <c r="CV3" s="35"/>
-      <c r="CW3" s="35"/>
-      <c r="CX3" s="35"/>
-      <c r="CY3" s="35"/>
-      <c r="CZ3" s="35"/>
-      <c r="DA3" s="35"/>
-      <c r="DB3" s="35"/>
-      <c r="DC3" s="35"/>
-      <c r="DD3" s="35"/>
-      <c r="DE3" s="35"/>
-      <c r="DF3" s="35"/>
-      <c r="DG3" s="35"/>
-      <c r="DH3" s="35"/>
-      <c r="DI3" s="36"/>
-      <c r="DJ3" s="34">
-        <v>6</v>
-      </c>
-      <c r="DK3" s="35"/>
-      <c r="DL3" s="35"/>
-      <c r="DM3" s="35"/>
-      <c r="DN3" s="35"/>
-      <c r="DO3" s="35"/>
-      <c r="DP3" s="35"/>
-      <c r="DQ3" s="35"/>
-      <c r="DR3" s="35"/>
-      <c r="DS3" s="35"/>
-      <c r="DT3" s="35"/>
-      <c r="DU3" s="35"/>
-      <c r="DV3" s="35"/>
-      <c r="DW3" s="35"/>
-      <c r="DX3" s="35"/>
-      <c r="DY3" s="36"/>
-      <c r="DZ3" s="42">
-        <v>10</v>
-      </c>
-      <c r="EA3" s="40"/>
-      <c r="EB3" s="40"/>
-      <c r="EC3" s="40"/>
-      <c r="ED3" s="40"/>
-      <c r="EE3" s="40"/>
-      <c r="EF3" s="40"/>
-      <c r="EG3" s="40"/>
-      <c r="EH3" s="40"/>
-      <c r="EI3" s="40"/>
-      <c r="EJ3" s="40"/>
-      <c r="EK3" s="40"/>
-      <c r="EL3" s="40"/>
-      <c r="EM3" s="40"/>
-      <c r="EN3" s="40"/>
-      <c r="EO3" s="41"/>
-      <c r="EP3" s="39">
-        <v>10</v>
-      </c>
-      <c r="EQ3" s="40"/>
-      <c r="ER3" s="40"/>
-      <c r="ES3" s="40"/>
-      <c r="ET3" s="40"/>
-      <c r="EU3" s="40"/>
-      <c r="EV3" s="40"/>
-      <c r="EW3" s="40"/>
-      <c r="EX3" s="40"/>
-      <c r="EY3" s="40"/>
-      <c r="EZ3" s="40"/>
-      <c r="FA3" s="40"/>
-      <c r="FB3" s="40"/>
-      <c r="FC3" s="40"/>
-      <c r="FD3" s="40"/>
-      <c r="FE3" s="41"/>
-      <c r="FF3" s="39">
-        <v>10</v>
-      </c>
-      <c r="FG3" s="40"/>
-      <c r="FH3" s="40"/>
-      <c r="FI3" s="40"/>
-      <c r="FJ3" s="40"/>
-      <c r="FK3" s="40"/>
-      <c r="FL3" s="40"/>
-      <c r="FM3" s="40"/>
-      <c r="FN3" s="40"/>
-      <c r="FO3" s="40"/>
-      <c r="FP3" s="40"/>
-      <c r="FQ3" s="40"/>
-      <c r="FR3" s="40"/>
-      <c r="FS3" s="40"/>
-      <c r="FT3" s="40"/>
-      <c r="FU3" s="41"/>
-      <c r="FV3" s="39">
-        <v>10</v>
-      </c>
-      <c r="FW3" s="40"/>
-      <c r="FX3" s="40"/>
-      <c r="FY3" s="40"/>
-      <c r="FZ3" s="40"/>
-      <c r="GA3" s="40"/>
-      <c r="GB3" s="40"/>
-      <c r="GC3" s="40"/>
-      <c r="GD3" s="40"/>
-      <c r="GE3" s="40"/>
-      <c r="GF3" s="40"/>
-      <c r="GG3" s="40"/>
-      <c r="GH3" s="40"/>
-      <c r="GI3" s="40"/>
-      <c r="GJ3" s="40"/>
-      <c r="GK3" s="41"/>
-      <c r="GL3" s="39">
-        <v>14</v>
-      </c>
-      <c r="GM3" s="40"/>
-      <c r="GN3" s="40"/>
-      <c r="GO3" s="40"/>
-      <c r="GP3" s="40"/>
-      <c r="GQ3" s="40"/>
-      <c r="GR3" s="40"/>
-      <c r="GS3" s="40"/>
-      <c r="GT3" s="40"/>
-      <c r="GU3" s="40"/>
-      <c r="GV3" s="40"/>
-      <c r="GW3" s="40"/>
-      <c r="GX3" s="40"/>
-      <c r="GY3" s="40"/>
-      <c r="GZ3" s="40"/>
-      <c r="HA3" s="41"/>
-      <c r="HB3" s="39">
-        <v>14</v>
-      </c>
-      <c r="HC3" s="40"/>
-      <c r="HD3" s="40"/>
-      <c r="HE3" s="40"/>
-      <c r="HF3" s="40"/>
-      <c r="HG3" s="40"/>
-      <c r="HH3" s="40"/>
-      <c r="HI3" s="40"/>
-      <c r="HJ3" s="40"/>
-      <c r="HK3" s="40"/>
-      <c r="HL3" s="40"/>
-      <c r="HM3" s="40"/>
-      <c r="HN3" s="40"/>
-      <c r="HO3" s="40"/>
-      <c r="HP3" s="40"/>
-      <c r="HQ3" s="41"/>
-      <c r="HR3" s="39">
-        <v>14</v>
-      </c>
-      <c r="HS3" s="40"/>
-      <c r="HT3" s="40"/>
-      <c r="HU3" s="40"/>
-      <c r="HV3" s="40"/>
-      <c r="HW3" s="40"/>
-      <c r="HX3" s="40"/>
-      <c r="HY3" s="40"/>
-      <c r="HZ3" s="40"/>
-      <c r="IA3" s="40"/>
-      <c r="IB3" s="40"/>
-      <c r="IC3" s="40"/>
-      <c r="ID3" s="40"/>
-      <c r="IE3" s="40"/>
-      <c r="IF3" s="40"/>
-      <c r="IG3" s="41"/>
-      <c r="IH3" s="39">
-        <v>14</v>
-      </c>
-      <c r="II3" s="40"/>
-      <c r="IJ3" s="40"/>
-      <c r="IK3" s="40"/>
-      <c r="IL3" s="40"/>
-      <c r="IM3" s="40"/>
-      <c r="IN3" s="40"/>
-      <c r="IO3" s="40"/>
-      <c r="IP3" s="40"/>
-      <c r="IQ3" s="40"/>
-      <c r="IR3" s="40"/>
-      <c r="IS3" s="40"/>
-      <c r="IT3" s="40"/>
-      <c r="IU3" s="40"/>
-      <c r="IV3" s="40"/>
-      <c r="IW3" s="41"/>
+      <c r="B3" s="39">
+        <v>5</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="39">
+        <v>5</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="39">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="39">
+        <v>5</v>
+      </c>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40"/>
+      <c r="BE3" s="40"/>
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="40"/>
+      <c r="BL3" s="40"/>
+      <c r="BM3" s="41"/>
+      <c r="BN3" s="39">
+        <v>9</v>
+      </c>
+      <c r="BO3" s="40"/>
+      <c r="BP3" s="40"/>
+      <c r="BQ3" s="40"/>
+      <c r="BR3" s="40"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="40"/>
+      <c r="BU3" s="40"/>
+      <c r="BV3" s="40"/>
+      <c r="BW3" s="40"/>
+      <c r="BX3" s="40"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="40"/>
+      <c r="CB3" s="40"/>
+      <c r="CC3" s="41"/>
+      <c r="CD3" s="39">
+        <v>9</v>
+      </c>
+      <c r="CE3" s="40"/>
+      <c r="CF3" s="40"/>
+      <c r="CG3" s="40"/>
+      <c r="CH3" s="40"/>
+      <c r="CI3" s="40"/>
+      <c r="CJ3" s="40"/>
+      <c r="CK3" s="40"/>
+      <c r="CL3" s="40"/>
+      <c r="CM3" s="40"/>
+      <c r="CN3" s="40"/>
+      <c r="CO3" s="40"/>
+      <c r="CP3" s="40"/>
+      <c r="CQ3" s="40"/>
+      <c r="CR3" s="40"/>
+      <c r="CS3" s="41"/>
+      <c r="CT3" s="39">
+        <v>9</v>
+      </c>
+      <c r="CU3" s="40"/>
+      <c r="CV3" s="40"/>
+      <c r="CW3" s="40"/>
+      <c r="CX3" s="40"/>
+      <c r="CY3" s="40"/>
+      <c r="CZ3" s="40"/>
+      <c r="DA3" s="40"/>
+      <c r="DB3" s="40"/>
+      <c r="DC3" s="40"/>
+      <c r="DD3" s="40"/>
+      <c r="DE3" s="40"/>
+      <c r="DF3" s="40"/>
+      <c r="DG3" s="40"/>
+      <c r="DH3" s="40"/>
+      <c r="DI3" s="41"/>
+      <c r="DJ3" s="39">
+        <v>9</v>
+      </c>
+      <c r="DK3" s="40"/>
+      <c r="DL3" s="40"/>
+      <c r="DM3" s="40"/>
+      <c r="DN3" s="40"/>
+      <c r="DO3" s="40"/>
+      <c r="DP3" s="40"/>
+      <c r="DQ3" s="40"/>
+      <c r="DR3" s="40"/>
+      <c r="DS3" s="40"/>
+      <c r="DT3" s="40"/>
+      <c r="DU3" s="40"/>
+      <c r="DV3" s="40"/>
+      <c r="DW3" s="40"/>
+      <c r="DX3" s="40"/>
+      <c r="DY3" s="41"/>
+      <c r="DZ3" s="44">
+        <v>13</v>
+      </c>
+      <c r="EA3" s="45"/>
+      <c r="EB3" s="45"/>
+      <c r="EC3" s="45"/>
+      <c r="ED3" s="45"/>
+      <c r="EE3" s="45"/>
+      <c r="EF3" s="45"/>
+      <c r="EG3" s="45"/>
+      <c r="EH3" s="45"/>
+      <c r="EI3" s="45"/>
+      <c r="EJ3" s="45"/>
+      <c r="EK3" s="45"/>
+      <c r="EL3" s="45"/>
+      <c r="EM3" s="45"/>
+      <c r="EN3" s="45"/>
+      <c r="EO3" s="46"/>
+      <c r="EP3" s="47">
+        <v>13</v>
+      </c>
+      <c r="EQ3" s="45"/>
+      <c r="ER3" s="45"/>
+      <c r="ES3" s="45"/>
+      <c r="ET3" s="45"/>
+      <c r="EU3" s="45"/>
+      <c r="EV3" s="45"/>
+      <c r="EW3" s="45"/>
+      <c r="EX3" s="45"/>
+      <c r="EY3" s="45"/>
+      <c r="EZ3" s="45"/>
+      <c r="FA3" s="45"/>
+      <c r="FB3" s="45"/>
+      <c r="FC3" s="45"/>
+      <c r="FD3" s="45"/>
+      <c r="FE3" s="46"/>
+      <c r="FF3" s="47">
+        <v>13</v>
+      </c>
+      <c r="FG3" s="45"/>
+      <c r="FH3" s="45"/>
+      <c r="FI3" s="45"/>
+      <c r="FJ3" s="45"/>
+      <c r="FK3" s="45"/>
+      <c r="FL3" s="45"/>
+      <c r="FM3" s="45"/>
+      <c r="FN3" s="45"/>
+      <c r="FO3" s="45"/>
+      <c r="FP3" s="45"/>
+      <c r="FQ3" s="45"/>
+      <c r="FR3" s="45"/>
+      <c r="FS3" s="45"/>
+      <c r="FT3" s="45"/>
+      <c r="FU3" s="46"/>
+      <c r="FV3" s="47">
+        <v>13</v>
+      </c>
+      <c r="FW3" s="45"/>
+      <c r="FX3" s="45"/>
+      <c r="FY3" s="45"/>
+      <c r="FZ3" s="45"/>
+      <c r="GA3" s="45"/>
+      <c r="GB3" s="45"/>
+      <c r="GC3" s="45"/>
+      <c r="GD3" s="45"/>
+      <c r="GE3" s="45"/>
+      <c r="GF3" s="45"/>
+      <c r="GG3" s="45"/>
+      <c r="GH3" s="45"/>
+      <c r="GI3" s="45"/>
+      <c r="GJ3" s="45"/>
+      <c r="GK3" s="46"/>
+      <c r="GL3" s="47">
+        <v>17</v>
+      </c>
+      <c r="GM3" s="45"/>
+      <c r="GN3" s="45"/>
+      <c r="GO3" s="45"/>
+      <c r="GP3" s="45"/>
+      <c r="GQ3" s="45"/>
+      <c r="GR3" s="45"/>
+      <c r="GS3" s="45"/>
+      <c r="GT3" s="45"/>
+      <c r="GU3" s="45"/>
+      <c r="GV3" s="45"/>
+      <c r="GW3" s="45"/>
+      <c r="GX3" s="45"/>
+      <c r="GY3" s="45"/>
+      <c r="GZ3" s="45"/>
+      <c r="HA3" s="46"/>
+      <c r="HB3" s="47">
+        <v>17</v>
+      </c>
+      <c r="HC3" s="45"/>
+      <c r="HD3" s="45"/>
+      <c r="HE3" s="45"/>
+      <c r="HF3" s="45"/>
+      <c r="HG3" s="45"/>
+      <c r="HH3" s="45"/>
+      <c r="HI3" s="45"/>
+      <c r="HJ3" s="45"/>
+      <c r="HK3" s="45"/>
+      <c r="HL3" s="45"/>
+      <c r="HM3" s="45"/>
+      <c r="HN3" s="45"/>
+      <c r="HO3" s="45"/>
+      <c r="HP3" s="45"/>
+      <c r="HQ3" s="46"/>
+      <c r="HR3" s="47">
+        <v>17</v>
+      </c>
+      <c r="HS3" s="45"/>
+      <c r="HT3" s="45"/>
+      <c r="HU3" s="45"/>
+      <c r="HV3" s="45"/>
+      <c r="HW3" s="45"/>
+      <c r="HX3" s="45"/>
+      <c r="HY3" s="45"/>
+      <c r="HZ3" s="45"/>
+      <c r="IA3" s="45"/>
+      <c r="IB3" s="45"/>
+      <c r="IC3" s="45"/>
+      <c r="ID3" s="45"/>
+      <c r="IE3" s="45"/>
+      <c r="IF3" s="45"/>
+      <c r="IG3" s="46"/>
+      <c r="IH3" s="47">
+        <v>17</v>
+      </c>
+      <c r="II3" s="45"/>
+      <c r="IJ3" s="45"/>
+      <c r="IK3" s="45"/>
+      <c r="IL3" s="45"/>
+      <c r="IM3" s="45"/>
+      <c r="IN3" s="45"/>
+      <c r="IO3" s="45"/>
+      <c r="IP3" s="45"/>
+      <c r="IQ3" s="45"/>
+      <c r="IR3" s="45"/>
+      <c r="IS3" s="45"/>
+      <c r="IT3" s="45"/>
+      <c r="IU3" s="45"/>
+      <c r="IV3" s="45"/>
+      <c r="IW3" s="46"/>
     </row>
     <row r="4" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="37" t="s">
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="38" t="s">
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="37" t="s">
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="38" t="s">
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="37" t="s">
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="38" t="s">
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="37" t="s">
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="43"/>
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="38" t="s">
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="BW4" s="38"/>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="37" t="s">
+      <c r="BW4" s="43"/>
+      <c r="BX4" s="43"/>
+      <c r="BY4" s="43"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="43"/>
+      <c r="CB4" s="43"/>
+      <c r="CC4" s="43"/>
+      <c r="CD4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="CE4" s="37"/>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37"/>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="37"/>
-      <c r="CL4" s="38" t="s">
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="42"/>
+      <c r="CL4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="37" t="s">
+      <c r="CM4" s="43"/>
+      <c r="CN4" s="43"/>
+      <c r="CO4" s="43"/>
+      <c r="CP4" s="43"/>
+      <c r="CQ4" s="43"/>
+      <c r="CR4" s="43"/>
+      <c r="CS4" s="43"/>
+      <c r="CT4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="CU4" s="37"/>
-      <c r="CV4" s="37"/>
-      <c r="CW4" s="37"/>
-      <c r="CX4" s="37"/>
-      <c r="CY4" s="37"/>
-      <c r="CZ4" s="37"/>
-      <c r="DA4" s="37"/>
-      <c r="DB4" s="38" t="s">
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
+      <c r="DA4" s="42"/>
+      <c r="DB4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38"/>
-      <c r="DG4" s="38"/>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="37" t="s">
+      <c r="DC4" s="43"/>
+      <c r="DD4" s="43"/>
+      <c r="DE4" s="43"/>
+      <c r="DF4" s="43"/>
+      <c r="DG4" s="43"/>
+      <c r="DH4" s="43"/>
+      <c r="DI4" s="43"/>
+      <c r="DJ4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="DK4" s="37"/>
-      <c r="DL4" s="37"/>
-      <c r="DM4" s="37"/>
-      <c r="DN4" s="37"/>
-      <c r="DO4" s="37"/>
-      <c r="DP4" s="37"/>
-      <c r="DQ4" s="37"/>
-      <c r="DR4" s="38" t="s">
+      <c r="DK4" s="42"/>
+      <c r="DL4" s="42"/>
+      <c r="DM4" s="42"/>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="42"/>
+      <c r="DP4" s="42"/>
+      <c r="DQ4" s="42"/>
+      <c r="DR4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="DS4" s="38"/>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="37" t="s">
+      <c r="DS4" s="43"/>
+      <c r="DT4" s="43"/>
+      <c r="DU4" s="43"/>
+      <c r="DV4" s="43"/>
+      <c r="DW4" s="43"/>
+      <c r="DX4" s="43"/>
+      <c r="DY4" s="43"/>
+      <c r="DZ4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="EA4" s="37"/>
-      <c r="EB4" s="37"/>
-      <c r="EC4" s="37"/>
-      <c r="ED4" s="37"/>
-      <c r="EE4" s="37"/>
-      <c r="EF4" s="37"/>
-      <c r="EG4" s="37"/>
-      <c r="EH4" s="38" t="s">
+      <c r="EA4" s="42"/>
+      <c r="EB4" s="42"/>
+      <c r="EC4" s="42"/>
+      <c r="ED4" s="42"/>
+      <c r="EE4" s="42"/>
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="42"/>
+      <c r="EH4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="37" t="s">
+      <c r="EI4" s="43"/>
+      <c r="EJ4" s="43"/>
+      <c r="EK4" s="43"/>
+      <c r="EL4" s="43"/>
+      <c r="EM4" s="43"/>
+      <c r="EN4" s="43"/>
+      <c r="EO4" s="43"/>
+      <c r="EP4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="EQ4" s="37"/>
-      <c r="ER4" s="37"/>
-      <c r="ES4" s="37"/>
-      <c r="ET4" s="37"/>
-      <c r="EU4" s="37"/>
-      <c r="EV4" s="37"/>
-      <c r="EW4" s="37"/>
-      <c r="EX4" s="38" t="s">
+      <c r="EQ4" s="42"/>
+      <c r="ER4" s="42"/>
+      <c r="ES4" s="42"/>
+      <c r="ET4" s="42"/>
+      <c r="EU4" s="42"/>
+      <c r="EV4" s="42"/>
+      <c r="EW4" s="42"/>
+      <c r="EX4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38"/>
-      <c r="FC4" s="38"/>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="37" t="s">
+      <c r="EY4" s="43"/>
+      <c r="EZ4" s="43"/>
+      <c r="FA4" s="43"/>
+      <c r="FB4" s="43"/>
+      <c r="FC4" s="43"/>
+      <c r="FD4" s="43"/>
+      <c r="FE4" s="43"/>
+      <c r="FF4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="FG4" s="37"/>
-      <c r="FH4" s="37"/>
-      <c r="FI4" s="37"/>
-      <c r="FJ4" s="37"/>
-      <c r="FK4" s="37"/>
-      <c r="FL4" s="37"/>
-      <c r="FM4" s="37"/>
-      <c r="FN4" s="38" t="s">
+      <c r="FG4" s="42"/>
+      <c r="FH4" s="42"/>
+      <c r="FI4" s="42"/>
+      <c r="FJ4" s="42"/>
+      <c r="FK4" s="42"/>
+      <c r="FL4" s="42"/>
+      <c r="FM4" s="42"/>
+      <c r="FN4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="FO4" s="38"/>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="37" t="s">
+      <c r="FO4" s="43"/>
+      <c r="FP4" s="43"/>
+      <c r="FQ4" s="43"/>
+      <c r="FR4" s="43"/>
+      <c r="FS4" s="43"/>
+      <c r="FT4" s="43"/>
+      <c r="FU4" s="43"/>
+      <c r="FV4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="FW4" s="37"/>
-      <c r="FX4" s="37"/>
-      <c r="FY4" s="37"/>
-      <c r="FZ4" s="37"/>
-      <c r="GA4" s="37"/>
-      <c r="GB4" s="37"/>
-      <c r="GC4" s="37"/>
-      <c r="GD4" s="38" t="s">
+      <c r="FW4" s="42"/>
+      <c r="FX4" s="42"/>
+      <c r="FY4" s="42"/>
+      <c r="FZ4" s="42"/>
+      <c r="GA4" s="42"/>
+      <c r="GB4" s="42"/>
+      <c r="GC4" s="42"/>
+      <c r="GD4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="37" t="s">
+      <c r="GE4" s="43"/>
+      <c r="GF4" s="43"/>
+      <c r="GG4" s="43"/>
+      <c r="GH4" s="43"/>
+      <c r="GI4" s="43"/>
+      <c r="GJ4" s="43"/>
+      <c r="GK4" s="43"/>
+      <c r="GL4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="GM4" s="37"/>
-      <c r="GN4" s="37"/>
-      <c r="GO4" s="37"/>
-      <c r="GP4" s="37"/>
-      <c r="GQ4" s="37"/>
-      <c r="GR4" s="37"/>
-      <c r="GS4" s="37"/>
-      <c r="GT4" s="38" t="s">
+      <c r="GM4" s="42"/>
+      <c r="GN4" s="42"/>
+      <c r="GO4" s="42"/>
+      <c r="GP4" s="42"/>
+      <c r="GQ4" s="42"/>
+      <c r="GR4" s="42"/>
+      <c r="GS4" s="42"/>
+      <c r="GT4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38"/>
-      <c r="GY4" s="38"/>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="37" t="s">
+      <c r="GU4" s="43"/>
+      <c r="GV4" s="43"/>
+      <c r="GW4" s="43"/>
+      <c r="GX4" s="43"/>
+      <c r="GY4" s="43"/>
+      <c r="GZ4" s="43"/>
+      <c r="HA4" s="43"/>
+      <c r="HB4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="HC4" s="37"/>
-      <c r="HD4" s="37"/>
-      <c r="HE4" s="37"/>
-      <c r="HF4" s="37"/>
-      <c r="HG4" s="37"/>
-      <c r="HH4" s="37"/>
-      <c r="HI4" s="37"/>
-      <c r="HJ4" s="38" t="s">
+      <c r="HC4" s="42"/>
+      <c r="HD4" s="42"/>
+      <c r="HE4" s="42"/>
+      <c r="HF4" s="42"/>
+      <c r="HG4" s="42"/>
+      <c r="HH4" s="42"/>
+      <c r="HI4" s="42"/>
+      <c r="HJ4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="HK4" s="38"/>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="37" t="s">
+      <c r="HK4" s="43"/>
+      <c r="HL4" s="43"/>
+      <c r="HM4" s="43"/>
+      <c r="HN4" s="43"/>
+      <c r="HO4" s="43"/>
+      <c r="HP4" s="43"/>
+      <c r="HQ4" s="43"/>
+      <c r="HR4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="HS4" s="37"/>
-      <c r="HT4" s="37"/>
-      <c r="HU4" s="37"/>
-      <c r="HV4" s="37"/>
-      <c r="HW4" s="37"/>
-      <c r="HX4" s="37"/>
-      <c r="HY4" s="37"/>
-      <c r="HZ4" s="38" t="s">
+      <c r="HS4" s="42"/>
+      <c r="HT4" s="42"/>
+      <c r="HU4" s="42"/>
+      <c r="HV4" s="42"/>
+      <c r="HW4" s="42"/>
+      <c r="HX4" s="42"/>
+      <c r="HY4" s="42"/>
+      <c r="HZ4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
-      <c r="IH4" s="37" t="s">
+      <c r="IA4" s="43"/>
+      <c r="IB4" s="43"/>
+      <c r="IC4" s="43"/>
+      <c r="ID4" s="43"/>
+      <c r="IE4" s="43"/>
+      <c r="IF4" s="43"/>
+      <c r="IG4" s="43"/>
+      <c r="IH4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="II4" s="37"/>
-      <c r="IJ4" s="37"/>
-      <c r="IK4" s="37"/>
-      <c r="IL4" s="37"/>
-      <c r="IM4" s="37"/>
-      <c r="IN4" s="37"/>
-      <c r="IO4" s="37"/>
-      <c r="IP4" s="38" t="s">
+      <c r="II4" s="42"/>
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="IQ4" s="38"/>
-      <c r="IR4" s="38"/>
-      <c r="IS4" s="38"/>
-      <c r="IT4" s="38"/>
-      <c r="IU4" s="38"/>
-      <c r="IV4" s="38"/>
-      <c r="IW4" s="38"/>
+      <c r="IQ4" s="43"/>
+      <c r="IR4" s="43"/>
+      <c r="IS4" s="43"/>
+      <c r="IT4" s="43"/>
+      <c r="IU4" s="43"/>
+      <c r="IV4" s="43"/>
+      <c r="IW4" s="43"/>
     </row>
     <row r="5" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -27127,41 +27257,35 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="R1:AG1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="R2:AG2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="R4:Y4"/>
-    <mergeCell ref="Z4:AG4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AP4:AW4"/>
-    <mergeCell ref="AX4:BE4"/>
-    <mergeCell ref="BF4:BM4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="CL4:CS4"/>
-    <mergeCell ref="CT4:DA4"/>
-    <mergeCell ref="DB4:DI4"/>
-    <mergeCell ref="DJ4:DQ4"/>
-    <mergeCell ref="DR4:DY4"/>
-    <mergeCell ref="DZ4:EG4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="FV4:GC4"/>
-    <mergeCell ref="GD4:GK4"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="HJ4:HQ4"/>
-    <mergeCell ref="HR4:HY4"/>
+    <mergeCell ref="HB2:HQ2"/>
+    <mergeCell ref="HR2:IG2"/>
+    <mergeCell ref="IH2:IW2"/>
+    <mergeCell ref="DZ2:EO2"/>
+    <mergeCell ref="EP2:FE2"/>
+    <mergeCell ref="FF2:FU2"/>
+    <mergeCell ref="FV2:GK2"/>
+    <mergeCell ref="GL2:HA2"/>
+    <mergeCell ref="AX2:BM2"/>
+    <mergeCell ref="BN2:CC2"/>
+    <mergeCell ref="CD2:CS2"/>
+    <mergeCell ref="CT2:DI2"/>
+    <mergeCell ref="DJ2:DY2"/>
+    <mergeCell ref="IH3:IW3"/>
+    <mergeCell ref="AH1:AW1"/>
+    <mergeCell ref="AX1:BM1"/>
+    <mergeCell ref="BN1:CC1"/>
+    <mergeCell ref="CD1:CS1"/>
+    <mergeCell ref="CT1:DI1"/>
+    <mergeCell ref="DJ1:DY1"/>
+    <mergeCell ref="DZ1:EO1"/>
+    <mergeCell ref="EP1:FE1"/>
+    <mergeCell ref="FF1:FU1"/>
+    <mergeCell ref="FV1:GK1"/>
+    <mergeCell ref="GL1:HA1"/>
+    <mergeCell ref="HB1:HQ1"/>
+    <mergeCell ref="HR1:IG1"/>
+    <mergeCell ref="IH1:IW1"/>
+    <mergeCell ref="AH2:AW2"/>
     <mergeCell ref="HZ4:IG4"/>
     <mergeCell ref="IH4:IO4"/>
     <mergeCell ref="IP4:IW4"/>
@@ -27178,35 +27302,41 @@
     <mergeCell ref="GL3:HA3"/>
     <mergeCell ref="HB3:HQ3"/>
     <mergeCell ref="HR3:IG3"/>
-    <mergeCell ref="IH3:IW3"/>
-    <mergeCell ref="AH1:AW1"/>
-    <mergeCell ref="AX1:BM1"/>
-    <mergeCell ref="BN1:CC1"/>
-    <mergeCell ref="CD1:CS1"/>
-    <mergeCell ref="CT1:DI1"/>
-    <mergeCell ref="DJ1:DY1"/>
-    <mergeCell ref="DZ1:EO1"/>
-    <mergeCell ref="EP1:FE1"/>
-    <mergeCell ref="FF1:FU1"/>
-    <mergeCell ref="FV1:GK1"/>
-    <mergeCell ref="GL1:HA1"/>
-    <mergeCell ref="HB1:HQ1"/>
-    <mergeCell ref="HR1:IG1"/>
-    <mergeCell ref="IH1:IW1"/>
-    <mergeCell ref="AH2:AW2"/>
-    <mergeCell ref="AX2:BM2"/>
-    <mergeCell ref="BN2:CC2"/>
-    <mergeCell ref="CD2:CS2"/>
-    <mergeCell ref="CT2:DI2"/>
-    <mergeCell ref="DJ2:DY2"/>
-    <mergeCell ref="HB2:HQ2"/>
-    <mergeCell ref="HR2:IG2"/>
-    <mergeCell ref="IH2:IW2"/>
-    <mergeCell ref="DZ2:EO2"/>
-    <mergeCell ref="EP2:FE2"/>
-    <mergeCell ref="FF2:FU2"/>
-    <mergeCell ref="FV2:GK2"/>
-    <mergeCell ref="GL2:HA2"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="HJ4:HQ4"/>
+    <mergeCell ref="HR4:HY4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="FV4:GC4"/>
+    <mergeCell ref="GD4:GK4"/>
+    <mergeCell ref="DJ4:DQ4"/>
+    <mergeCell ref="DR4:DY4"/>
+    <mergeCell ref="DZ4:EG4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="CL4:CS4"/>
+    <mergeCell ref="CT4:DA4"/>
+    <mergeCell ref="DB4:DI4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="AP4:AW4"/>
+    <mergeCell ref="AX4:BE4"/>
+    <mergeCell ref="BF4:BM4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="R2:AG2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="R3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/OurData.xlsx
+++ b/Data/OurData.xlsx
@@ -8,32 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2F4D76-AB32-274D-9C0D-5C3CA9577F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61B20A8-11A9-9C4E-91A2-9FAC90A5F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="10" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="6" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
     <sheet name="Units" sheetId="6" r:id="rId2"/>
     <sheet name="Nodes" sheetId="2" r:id="rId3"/>
-    <sheet name="ProductionCapacities" sheetId="15" r:id="rId4"/>
-    <sheet name="Demand Stage 1" sheetId="13" r:id="rId5"/>
-    <sheet name="Demand Stage 2" sheetId="5" r:id="rId6"/>
-    <sheet name="Demand Stage 3" sheetId="9" r:id="rId7"/>
-    <sheet name="SalesPriceGasMix" sheetId="11" r:id="rId8"/>
-    <sheet name="SalesPricePureHydrogen" sheetId="12" r:id="rId9"/>
-    <sheet name="Parameters" sheetId="8" r:id="rId10"/>
-    <sheet name="Arcs" sheetId="1" r:id="rId11"/>
-    <sheet name="Traders" sheetId="3" r:id="rId12"/>
-    <sheet name="TraderPercentages" sheetId="16" r:id="rId13"/>
-    <sheet name="Commodities" sheetId="4" r:id="rId14"/>
-    <sheet name="Probabilities" sheetId="14" r:id="rId15"/>
+    <sheet name="Demand Stage 1" sheetId="13" r:id="rId4"/>
+    <sheet name="Demand Stage 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Demand Stage 3" sheetId="9" r:id="rId6"/>
+    <sheet name="SalesPriceGasMix" sheetId="11" r:id="rId7"/>
+    <sheet name="SalesPricePureHydrogen" sheetId="12" r:id="rId8"/>
+    <sheet name="Parameters" sheetId="8" r:id="rId9"/>
+    <sheet name="Arcs" sheetId="1" r:id="rId10"/>
+    <sheet name="Traders" sheetId="3" r:id="rId11"/>
+    <sheet name="TraderPercentages" sheetId="16" r:id="rId12"/>
+    <sheet name="Commodities" sheetId="4" r:id="rId13"/>
+    <sheet name="Probabilities" sheetId="14" r:id="rId14"/>
+    <sheet name="ProductionCapacities" sheetId="15" r:id="rId15"/>
     <sheet name="Extra" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Arcs!$A$1:$N$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Arcs!$A$1:$N$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Nodes!$A$2:$AI$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ProductionCapacities!$A$1:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">ProductionCapacities!$A$1:$H$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1438,7 +1438,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -1498,6 +1498,10 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,11 +1537,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1920,100 +1919,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D89E28-915C-F54C-B37A-2FAB20B0DB56}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="13">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2102,7 +2011,7 @@
       <c r="H2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="1">
         <v>48.1</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -2149,7 +2058,7 @@
       <c r="H3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="1">
         <v>5</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -2196,7 +2105,7 @@
       <c r="H4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="1">
         <v>70</v>
       </c>
       <c r="J4" s="1" t="str">
@@ -2243,7 +2152,7 @@
       <c r="H5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="1">
         <v>46</v>
       </c>
       <c r="J5" s="1" t="str">
@@ -2290,7 +2199,7 @@
       <c r="H6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="1">
         <v>46</v>
       </c>
       <c r="J6" s="1" t="str">
@@ -2337,7 +2246,7 @@
       <c r="H7" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="1">
         <v>71</v>
       </c>
       <c r="J7" s="1" t="str">
@@ -2384,7 +2293,7 @@
       <c r="H8" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="1">
         <v>71</v>
       </c>
       <c r="J8" s="1" t="str">
@@ -2431,7 +2340,7 @@
       <c r="H9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="1">
         <v>55</v>
       </c>
       <c r="J9" s="1" t="str">
@@ -2478,7 +2387,7 @@
       <c r="H10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="1">
         <v>27</v>
       </c>
       <c r="J10" s="1" t="str">
@@ -2525,7 +2434,7 @@
       <c r="H11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="1">
         <v>75</v>
       </c>
       <c r="J11" s="1" t="str">
@@ -2572,7 +2481,7 @@
       <c r="H12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="1">
         <v>72</v>
       </c>
       <c r="J12" s="1" t="str">
@@ -2619,7 +2528,7 @@
       <c r="H13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="1">
         <v>7</v>
       </c>
       <c r="J13" s="1" t="str">
@@ -2666,7 +2575,7 @@
       <c r="H14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="1">
         <v>32</v>
       </c>
       <c r="J14" s="1" t="str">
@@ -2713,7 +2622,7 @@
       <c r="H15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="1">
         <v>32</v>
       </c>
       <c r="J15" s="1" t="str">
@@ -2760,7 +2669,7 @@
       <c r="H16" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="1">
         <v>32</v>
       </c>
       <c r="J16" s="1" t="str">
@@ -2807,7 +2716,7 @@
       <c r="H17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="1">
         <v>32</v>
       </c>
       <c r="J17" s="1" t="str">
@@ -2854,7 +2763,7 @@
       <c r="H18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="1">
         <v>35</v>
       </c>
       <c r="J18" s="1" t="str">
@@ -2901,7 +2810,7 @@
       <c r="H19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="1">
         <v>25</v>
       </c>
       <c r="J19" s="1" t="str">
@@ -2948,7 +2857,7 @@
       <c r="H20" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1" t="str">
@@ -2995,7 +2904,7 @@
       <c r="H21" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="1">
         <v>21</v>
       </c>
       <c r="J21" s="1" t="str">
@@ -3042,7 +2951,7 @@
       <c r="H22" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="1">
         <v>30</v>
       </c>
       <c r="J22" s="1" t="str">
@@ -3089,7 +2998,7 @@
       <c r="H23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="1">
         <v>25</v>
       </c>
       <c r="J23" s="1" t="str">
@@ -3136,7 +3045,7 @@
       <c r="H24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="1">
         <v>13.5</v>
       </c>
       <c r="J24" s="1" t="str">
@@ -3183,7 +3092,7 @@
       <c r="H25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="1">
         <v>39</v>
       </c>
       <c r="J25" s="1" t="str">
@@ -3230,7 +3139,7 @@
       <c r="H26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="1">
         <v>55</v>
       </c>
       <c r="J26" s="1" t="str">
@@ -3277,7 +3186,7 @@
       <c r="H27" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="1">
         <v>42</v>
       </c>
       <c r="J27" s="1" t="str">
@@ -3324,7 +3233,7 @@
       <c r="H28" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="1">
         <v>74</v>
       </c>
       <c r="J28" s="1" t="str">
@@ -3371,7 +3280,7 @@
       <c r="H29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="1">
         <v>73</v>
       </c>
       <c r="J29" s="1" t="str">
@@ -3418,7 +3327,7 @@
       <c r="H30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="1">
         <v>17</v>
       </c>
       <c r="J30" s="1" t="str">
@@ -3465,7 +3374,7 @@
       <c r="H31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1" t="str">
@@ -3512,7 +3421,7 @@
       <c r="H32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="1">
         <v>291.7</v>
       </c>
       <c r="J32" s="1" t="str">
@@ -3559,7 +3468,7 @@
       <c r="H33" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="1">
         <v>5</v>
       </c>
       <c r="J33" s="1" t="str">
@@ -3606,7 +3515,7 @@
       <c r="H34" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="1">
         <v>11</v>
       </c>
       <c r="J34" s="1" t="str">
@@ -3653,7 +3562,7 @@
       <c r="H35" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="1">
         <v>5</v>
       </c>
       <c r="J35" s="1" t="str">
@@ -3700,7 +3609,7 @@
       <c r="H36" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I36" s="51">
+      <c r="I36" s="1">
         <v>48.1</v>
       </c>
       <c r="J36" s="1" t="str">
@@ -3747,7 +3656,7 @@
       <c r="H37" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I37" s="51">
+      <c r="I37" s="1">
         <v>61</v>
       </c>
       <c r="J37" s="1" t="str">
@@ -3794,7 +3703,7 @@
       <c r="H38" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="51">
+      <c r="I38" s="1">
         <v>0</v>
       </c>
       <c r="J38" s="1" t="str">
@@ -3841,7 +3750,7 @@
       <c r="H39" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I39" s="51">
+      <c r="I39" s="1">
         <v>70</v>
       </c>
       <c r="J39" s="1" t="str">
@@ -3888,7 +3797,7 @@
       <c r="H40" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="I40" s="51">
+      <c r="I40" s="1">
         <v>48.1</v>
       </c>
       <c r="J40" s="1" t="str">
@@ -3935,7 +3844,7 @@
       <c r="H41" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I41" s="51">
+      <c r="I41" s="1">
         <v>119.1</v>
       </c>
       <c r="J41" s="1" t="str">
@@ -3982,7 +3891,7 @@
       <c r="H42" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I42" s="51">
+      <c r="I42" s="1">
         <v>110</v>
       </c>
       <c r="J42" s="1" t="str">
@@ -4029,7 +3938,7 @@
       <c r="H43" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I43" s="51">
+      <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="J43" s="1" t="str">
@@ -4076,7 +3985,7 @@
       <c r="H44" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" s="1" t="str">
@@ -4474,12 +4383,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F599A445-15C0-AB40-A0A7-7DAECA950535}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4611,12 +4520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7B38E3-302C-2E43-9786-274195CEF373}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4666,28 +4575,28 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4695,28 +4604,28 @@
         <v>214</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4724,28 +4633,28 @@
         <v>260</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4753,28 +4662,28 @@
         <v>191</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4782,28 +4691,28 @@
         <v>262</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4811,28 +4720,28 @@
         <v>263</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4840,28 +4749,28 @@
         <v>265</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4869,62 +4778,62 @@
         <v>264</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:I10" si="0">SUM(C2:C9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211F2103-BB5B-1146-8172-40BAC814D614}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4971,7 +4880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FD9D31-8EFB-9D43-A52A-8F2DB4E9DCA7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -5045,12 +4954,1136 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA935FD-94E0-3546-BCCF-D34968C9C73A}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="35">
+        <v>8889.5949999999993</v>
+      </c>
+      <c r="C2" s="35">
+        <v>8919.5750000000007</v>
+      </c>
+      <c r="D2" s="35">
+        <v>8749.3649999999998</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <f>B2/365</f>
+        <v>24.355054794520544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1329.308</v>
+      </c>
+      <c r="C3" s="35">
+        <v>683.63900000000001</v>
+      </c>
+      <c r="D3" s="35">
+        <v>593.24699999999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F51" si="0">B3/365</f>
+        <v>3.6419397260273971</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35">
+        <v>6606.7179999999998</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35">
+        <v>3.9390000000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="35">
+        <v>48.064999999999998</v>
+      </c>
+      <c r="C6" s="35">
+        <v>81.236000000000004</v>
+      </c>
+      <c r="D6" s="35">
+        <v>130.86000000000001</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.13168493150684932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35">
+        <v>3.72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="35">
+        <v>0</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="35">
+        <v>471.73399999999998</v>
+      </c>
+      <c r="C9" s="35">
+        <v>491.40300000000002</v>
+      </c>
+      <c r="D9" s="35">
+        <v>449.49099999999999</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.292421917808219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="35">
+        <v>578.78499999999997</v>
+      </c>
+      <c r="C10" s="35">
+        <v>656.80499999999995</v>
+      </c>
+      <c r="D10" s="35">
+        <v>738.14400000000001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.5857123287671231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="35">
+        <v>222.233</v>
+      </c>
+      <c r="C11" s="35">
+        <v>302.17500000000001</v>
+      </c>
+      <c r="D11" s="35">
+        <v>247.51400000000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.6088575342465754</v>
+      </c>
+      <c r="H11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1282.3420000000001</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1073.472</v>
+      </c>
+      <c r="D12" s="35">
+        <v>1162.1959999999999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.5132657534246579</v>
+      </c>
+      <c r="H12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="35">
+        <v>2811.1990000000001</v>
+      </c>
+      <c r="C13" s="35">
+        <v>726.50099999999998</v>
+      </c>
+      <c r="D13" s="35">
+        <v>247.86099999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>7.7019150684931512</v>
+      </c>
+      <c r="H13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="35">
+        <v>2588.0810000000001</v>
+      </c>
+      <c r="C14" s="35">
+        <v>2436.7339999999999</v>
+      </c>
+      <c r="D14" s="35">
+        <v>2344.2719999999999</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>7.0906328767123288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="35">
+        <v>1214.5999999999999</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1206.1949999999999</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1325.316</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3.3276712328767122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="35">
+        <v>0</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="35">
+        <v>5570.9179999999997</v>
+      </c>
+      <c r="C17" s="35">
+        <v>5745.72</v>
+      </c>
+      <c r="D17" s="35">
+        <v>4876.4679999999998</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>15.262789041095889</v>
+      </c>
+      <c r="H17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="35">
+        <v>1910.729</v>
+      </c>
+      <c r="C18" s="35">
+        <v>1626.653</v>
+      </c>
+      <c r="D18" s="35">
+        <v>1540.9349999999999</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>5.23487397260274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="35">
+        <v>0</v>
+      </c>
+      <c r="C19" s="35">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="D19" s="35">
+        <v>26.434999999999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="35">
+        <v>35.110999999999997</v>
+      </c>
+      <c r="C20" s="35">
+        <v>3.0259999999999998</v>
+      </c>
+      <c r="D20" s="35">
+        <v>4.6120000000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>9.6194520547945195E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="35">
+        <v>291.70999999999998</v>
+      </c>
+      <c r="C21" s="35">
+        <v>410.226</v>
+      </c>
+      <c r="D21" s="35">
+        <v>440.81099999999998</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.79920547945205478</v>
+      </c>
+      <c r="H21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="35">
+        <v>1041.0509999999999</v>
+      </c>
+      <c r="C22" s="35">
+        <v>1012.068</v>
+      </c>
+      <c r="D22" s="35">
+        <v>841.24800000000005</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2.8521945205479451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="35">
+        <v>508.40300000000002</v>
+      </c>
+      <c r="C23" s="35">
+        <v>566.721</v>
+      </c>
+      <c r="D23" s="35">
+        <v>657.03899999999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.3928849315068494</v>
+      </c>
+      <c r="H23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="35">
+        <v>2844.82</v>
+      </c>
+      <c r="C24" s="35">
+        <v>3478.627</v>
+      </c>
+      <c r="D24" s="35">
+        <v>4181.5940000000001</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>7.7940273972602743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="35">
+        <v>2628.125</v>
+      </c>
+      <c r="C25" s="35">
+        <v>913.13300000000004</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>7.2003424657534243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="35">
+        <v>569.45500000000004</v>
+      </c>
+      <c r="C26" s="35">
+        <v>576.18600000000004</v>
+      </c>
+      <c r="D26" s="35">
+        <v>577.52499999999998</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.560150684931507</v>
+      </c>
+      <c r="H26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="35">
+        <v>68.573999999999998</v>
+      </c>
+      <c r="C27" s="35">
+        <v>82.480999999999995</v>
+      </c>
+      <c r="D27" s="35">
+        <v>326.358</v>
+      </c>
+      <c r="E27" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.18787397260273972</v>
+      </c>
+      <c r="H27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28" s="35">
+        <v>0</v>
+      </c>
+      <c r="C28" s="35">
+        <v>0</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" s="35">
+        <v>0</v>
+      </c>
+      <c r="C29" s="35">
+        <v>0</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="35">
+        <v>9559.6110000000008</v>
+      </c>
+      <c r="C30" s="35">
+        <v>11204.512000000001</v>
+      </c>
+      <c r="D30" s="35">
+        <v>11911.325000000001</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>26.190715068493152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="35">
+        <v>6523.8289999999997</v>
+      </c>
+      <c r="C31" s="35">
+        <v>8158.1670000000004</v>
+      </c>
+      <c r="D31" s="35">
+        <v>3468.5250000000001</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>17.873504109589039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" s="35">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="C32" s="35">
+        <v>6.3460000000000001</v>
+      </c>
+      <c r="D32" s="35">
+        <v>8.0749999999999993</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1.2786301369863013E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33" s="35">
+        <v>6523.8289999999997</v>
+      </c>
+      <c r="C33" s="35">
+        <v>8158.1670000000004</v>
+      </c>
+      <c r="D33" s="35">
+        <v>698.84699999999998</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>17.873504109589039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B34" s="35">
+        <v>6162.7870000000003</v>
+      </c>
+      <c r="C34" s="35">
+        <v>4509.7179999999998</v>
+      </c>
+      <c r="D34" s="35">
+        <v>3243.4229999999998</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>16.88434794520548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="35">
+        <v>76.070999999999998</v>
+      </c>
+      <c r="C35" s="35">
+        <v>89.119</v>
+      </c>
+      <c r="D35" s="35">
+        <v>145.56899999999999</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.20841369863013698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="35">
+        <v>1334.021</v>
+      </c>
+      <c r="C36" s="35">
+        <v>1821.5219999999999</v>
+      </c>
+      <c r="D36" s="35">
+        <v>2270.2930000000001</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>3.6548520547945205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="35">
+        <v>3689.7310000000002</v>
+      </c>
+      <c r="C37" s="35">
+        <v>0</v>
+      </c>
+      <c r="D37" s="35">
+        <v>3776.0549999999998</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>10.108852054794522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" s="35">
+        <v>0</v>
+      </c>
+      <c r="C38" s="35">
+        <v>0</v>
+      </c>
+      <c r="D38" s="35">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B39" s="35">
+        <v>0</v>
+      </c>
+      <c r="C39" s="35">
+        <v>0</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B40" s="35">
+        <v>686.33399999999995</v>
+      </c>
+      <c r="C40" s="35">
+        <v>822.01599999999996</v>
+      </c>
+      <c r="D40" s="35">
+        <v>932.529</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.8803671232876711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" s="35">
+        <v>85.117999999999995</v>
+      </c>
+      <c r="C41" s="35">
+        <v>66.167000000000002</v>
+      </c>
+      <c r="D41" s="35">
+        <v>40.765999999999998</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="H41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" s="35">
+        <v>0</v>
+      </c>
+      <c r="C42" s="35">
+        <v>0</v>
+      </c>
+      <c r="D42" s="35">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="35">
+        <v>39787.256999999998</v>
+      </c>
+      <c r="C43" s="35">
+        <v>37360.771999999997</v>
+      </c>
+      <c r="D43" s="35">
+        <v>35059.578000000001</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>109.00618356164382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="35">
+        <v>3093.8470000000002</v>
+      </c>
+      <c r="C44" s="35">
+        <v>2643.7049999999999</v>
+      </c>
+      <c r="D44" s="35">
+        <v>2983.739</v>
+      </c>
+      <c r="E44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>8.4762931506849313</v>
+      </c>
+      <c r="H44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="35">
+        <v>0</v>
+      </c>
+      <c r="C45" s="35">
+        <v>0</v>
+      </c>
+      <c r="D45" s="35">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="35">
+        <v>503.95400000000001</v>
+      </c>
+      <c r="C46" s="35">
+        <v>643.67499999999995</v>
+      </c>
+      <c r="D46" s="35">
+        <v>1023.092</v>
+      </c>
+      <c r="E46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.380695890410959</v>
+      </c>
+      <c r="H46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" s="35">
+        <v>351.137</v>
+      </c>
+      <c r="C47" s="35">
+        <v>404.238</v>
+      </c>
+      <c r="D47" s="35">
+        <v>414.34899999999999</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0.96201917808219173</v>
+      </c>
+      <c r="H47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" s="35">
+        <v>1480.8489999999999</v>
+      </c>
+      <c r="C48" s="35">
+        <v>1222.9880000000001</v>
+      </c>
+      <c r="D48" s="35">
+        <v>1575.146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>4.057120547945205</v>
+      </c>
+      <c r="H48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>322</v>
+      </c>
+      <c r="B49" s="35">
+        <v>5.9009999999999998</v>
+      </c>
+      <c r="C49" s="35">
+        <v>98.837000000000003</v>
+      </c>
+      <c r="D49" s="35">
+        <v>122.099</v>
+      </c>
+      <c r="E49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1.6167123287671233E-2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" s="35">
+        <v>0</v>
+      </c>
+      <c r="C50" s="35">
+        <v>0</v>
+      </c>
+      <c r="D50" s="35">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" s="35">
+        <v>5759.634</v>
+      </c>
+      <c r="C51" s="35">
+        <v>5498.473</v>
+      </c>
+      <c r="D51" s="35">
+        <v>4297.1899999999996</v>
+      </c>
+      <c r="E51" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>15.779819178082192</v>
+      </c>
+      <c r="H51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H51" xr:uid="{0DA935FD-94E0-3546-BCCF-D34968C9C73A}"/>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{7A7A57AB-3D6B-0E46-B9A3-67CA6B319D2E}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{2085202B-E0F5-474B-9A20-AE4961961052}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2444F6-F631-0348-A27B-77CDC677869C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C8" sqref="C8:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5194,8 +6227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A29" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5238,39 +6271,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="40" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5401,8 +6434,8 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B5)</f>
-        <v>10.05705205479452</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B3)</f>
+        <v>24.355054794520544</v>
       </c>
       <c r="J3" s="2">
         <v>8889.5949999999993</v>
@@ -5505,7 +6538,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B17)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -5609,8 +6642,8 @@
         <v>5</v>
       </c>
       <c r="I5" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B9)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B5)</f>
+        <v>10.05705205479452</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -5713,8 +6746,8 @@
         <v>5</v>
       </c>
       <c r="I6" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B50)</f>
-        <v>35.775961643835615</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B6)</f>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -5817,7 +6850,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B49)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="29">
@@ -5921,8 +6954,8 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B25)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B8)</f>
+        <v>0.13168493150684932</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -6025,8 +7058,8 @@
         <v>5</v>
       </c>
       <c r="I9" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B28)</f>
-        <v>11.147753424657534</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B9)</f>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>48.064999999999998</v>
@@ -6129,7 +7162,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B45)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="2">
@@ -6233,7 +7266,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B60)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="2">
@@ -6337,7 +7370,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B61)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="2">
@@ -6441,8 +7474,8 @@
         <v>5</v>
       </c>
       <c r="I13" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B62)</f>
-        <v>112.51944931506848</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B13)</f>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -6545,7 +7578,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B63)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="2">
@@ -6649,7 +7682,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B12)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B15)</f>
         <v>0</v>
       </c>
       <c r="J15" s="2">
@@ -6753,7 +7786,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B11)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="2">
@@ -6857,7 +7890,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B43)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="2">
@@ -6961,8 +7994,8 @@
         <v>5</v>
       </c>
       <c r="I18" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B44)</f>
-        <v>1.560150684931507</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B18)</f>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -7065,8 +8098,8 @@
         <v>5</v>
       </c>
       <c r="I19" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B59)</f>
-        <v>17.376356164383559</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B19)</f>
+        <v>0</v>
       </c>
       <c r="J19" s="29">
         <v>1214.5999999999999</v>
@@ -7169,8 +8202,8 @@
         <v>5</v>
       </c>
       <c r="I20" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B56)</f>
-        <v>10.108852054794522</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B20)</f>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -7273,8 +8306,8 @@
         <v>5</v>
       </c>
       <c r="I21" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B34)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B21)</f>
+        <v>5.7335671232876706</v>
       </c>
       <c r="J21" s="2">
         <v>48.064999999999998</v>
@@ -7363,10 +8396,10 @@
         <v>111</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="52">
+      <c r="D22" s="39">
         <v>3.23</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="39">
         <v>56.55</v>
       </c>
       <c r="F22" s="1"/>
@@ -7377,8 +8410,8 @@
         <v>5</v>
       </c>
       <c r="I22" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B47)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B22)</f>
+        <v>3.2527835616438354</v>
       </c>
       <c r="J22" s="2">
         <v>578.78499999999997</v>
@@ -7481,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B57)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="2">
@@ -7585,7 +8618,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B64)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="2">
@@ -7689,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B55)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="2">
@@ -7793,7 +8826,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B23)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="2">
@@ -7897,7 +8930,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B29)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="2">
@@ -8001,8 +9034,8 @@
         <v>5</v>
       </c>
       <c r="I28" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B24)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B28)</f>
+        <v>11.147753424657534</v>
       </c>
       <c r="J28" s="2">
         <v>2588.0810000000001</v>
@@ -8105,7 +9138,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B18)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2">
@@ -8209,7 +9242,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B37)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2">
@@ -8313,7 +9346,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B38)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2">
@@ -8417,8 +9450,8 @@
         <v>5</v>
       </c>
       <c r="I32" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B53)</f>
-        <v>16.88434794520548</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B32)</f>
+        <v>0</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -8521,8 +9554,8 @@
         <v>5</v>
       </c>
       <c r="I33" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B8)</f>
-        <v>0.13168493150684932</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B33)</f>
+        <v>5.23487397260274</v>
       </c>
       <c r="J33" s="2">
         <v>1214.5999999999999</v>
@@ -8625,8 +9658,8 @@
         <v>5</v>
       </c>
       <c r="I34" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B33)</f>
-        <v>5.23487397260274</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B34)</f>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
         <v>1329.308</v>
@@ -8729,7 +9762,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B32)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2">
@@ -8937,7 +9970,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B39)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2">
@@ -9041,7 +10074,7 @@
         <v>5</v>
       </c>
       <c r="I38" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B35)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="2">
@@ -9145,7 +10178,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B27)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2">
@@ -9249,8 +10282,8 @@
         <v>5</v>
       </c>
       <c r="I40" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B21)</f>
-        <v>5.7335671232876706</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B40)</f>
+        <v>24.954542465753427</v>
       </c>
       <c r="J40" s="2">
         <v>508.40300000000002</v>
@@ -9353,8 +10386,8 @@
         <v>5</v>
       </c>
       <c r="I41" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B31)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B41)</f>
+        <v>7.2003424657534243</v>
       </c>
       <c r="J41" s="2">
         <v>48.064999999999998</v>
@@ -9457,8 +10490,8 @@
         <v>5</v>
       </c>
       <c r="I42" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B3)</f>
-        <v>24.355054794520544</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B42)</f>
+        <v>0</v>
       </c>
       <c r="J42" s="2">
         <v>119.05</v>
@@ -9561,8 +10594,8 @@
         <v>5</v>
       </c>
       <c r="I43" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B22)</f>
-        <v>3.2527835616438354</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B43)</f>
+        <v>0</v>
       </c>
       <c r="J43" s="2">
         <v>68.573999999999998</v>
@@ -9665,8 +10698,8 @@
         <v>5</v>
       </c>
       <c r="I44" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B6)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B44)</f>
+        <v>1.560150684931507</v>
       </c>
       <c r="J44" s="2">
         <v>1041.0509999999999</v>
@@ -9769,7 +10802,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B10)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2">
@@ -9873,8 +10906,8 @@
         <v>5</v>
       </c>
       <c r="I46" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B48)</f>
-        <v>26.190715068493152</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B46)</f>
+        <v>0</v>
       </c>
       <c r="J46" s="2">
         <v>933.85500000000002</v>
@@ -9963,10 +10996,10 @@
         <v>85</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="53">
+      <c r="D47" s="40">
         <v>6.9457712170000718</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E47" s="40">
         <v>62.851558685000043</v>
       </c>
       <c r="F47" s="1"/>
@@ -9977,7 +11010,7 @@
         <v>5</v>
       </c>
       <c r="I47" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B16)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B47)</f>
         <v>0</v>
       </c>
       <c r="J47" s="2">
@@ -10081,8 +11114,8 @@
         <v>5</v>
       </c>
       <c r="I48" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B13)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B48)</f>
+        <v>26.190715068493152</v>
       </c>
       <c r="J48" s="2">
         <v>48.064999999999998</v>
@@ -10185,7 +11218,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B14)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B49)</f>
         <v>0</v>
       </c>
       <c r="J49" s="2">
@@ -10289,8 +11322,8 @@
         <v>5</v>
       </c>
       <c r="I50" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B30)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B50)</f>
+        <v>35.775961643835615</v>
       </c>
       <c r="J50" s="2">
         <v>48.064999999999998</v>
@@ -10393,8 +11426,8 @@
         <v>5</v>
       </c>
       <c r="I51" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B54)</f>
-        <v>14.892852054794522</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B51)</f>
+        <v>0</v>
       </c>
       <c r="J51" s="29">
         <v>1041.0509999999999</v>
@@ -10497,8 +11530,8 @@
         <v>5</v>
       </c>
       <c r="I52" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B40)</f>
-        <v>24.954542465753427</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B52)</f>
+        <v>0</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -10601,8 +11634,8 @@
         <v>5</v>
       </c>
       <c r="I53" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B7)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B53)</f>
+        <v>16.88434794520548</v>
       </c>
       <c r="J53" s="2">
         <v>48.064999999999998</v>
@@ -10705,8 +11738,8 @@
         <v>5</v>
       </c>
       <c r="I54" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B41)</f>
-        <v>7.2003424657534243</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B54)</f>
+        <v>14.892852054794522</v>
       </c>
       <c r="J54" s="2">
         <v>291.70999999999998</v>
@@ -10809,7 +11842,7 @@
         <v>5</v>
       </c>
       <c r="I55" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B42)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B55)</f>
         <v>0</v>
       </c>
       <c r="J55" s="2">
@@ -10913,8 +11946,8 @@
         <v>5</v>
       </c>
       <c r="I56" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B4)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B56)</f>
+        <v>10.108852054794522</v>
       </c>
       <c r="J56" s="2">
         <v>8889.5949999999993</v>
@@ -11017,7 +12050,7 @@
         <v>5</v>
       </c>
       <c r="I57" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B46)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B57)</f>
         <v>0</v>
       </c>
       <c r="J57" s="2">
@@ -11121,7 +12154,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B20)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="2">
@@ -11225,8 +12258,8 @@
         <v>5</v>
       </c>
       <c r="I59" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B19)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B59)</f>
+        <v>17.376356164383559</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -11329,7 +12362,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B52)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="2">
@@ -11433,7 +12466,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B15)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B61)</f>
         <v>0</v>
       </c>
       <c r="J61" s="2">
@@ -11537,8 +12570,8 @@
         <v>5</v>
       </c>
       <c r="I62" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B26)</f>
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B62)</f>
+        <v>112.51944931506848</v>
       </c>
       <c r="J62" s="2">
         <v>2628.125</v>
@@ -11641,7 +12674,7 @@
         <v>5</v>
       </c>
       <c r="I63" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B58)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B63)</f>
         <v>0</v>
       </c>
       <c r="J63" s="2">
@@ -11745,7 +12778,7 @@
         <v>5</v>
       </c>
       <c r="I64" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B51)</f>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B64)</f>
         <v>0</v>
       </c>
       <c r="J64" s="2">
@@ -11848,1135 +12881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA935FD-94E0-3546-BCCF-D34968C9C73A}">
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="35">
-        <v>8889.5949999999993</v>
-      </c>
-      <c r="C2" s="35">
-        <v>8919.5750000000007</v>
-      </c>
-      <c r="D2" s="35">
-        <v>8749.3649999999998</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2">
-        <f>B2/365</f>
-        <v>24.355054794520544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="35">
-        <v>1329.308</v>
-      </c>
-      <c r="C3" s="35">
-        <v>683.63900000000001</v>
-      </c>
-      <c r="D3" s="35">
-        <v>593.24699999999996</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F51" si="0">B3/365</f>
-        <v>3.6419397260273971</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35">
-        <v>6606.7179999999998</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="35">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35">
-        <v>0</v>
-      </c>
-      <c r="D5" s="35">
-        <v>3.9390000000000001</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="35">
-        <v>48.064999999999998</v>
-      </c>
-      <c r="C6" s="35">
-        <v>81.236000000000004</v>
-      </c>
-      <c r="D6" s="35">
-        <v>130.86000000000001</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.13168493150684932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="35">
-        <v>0</v>
-      </c>
-      <c r="C7" s="35">
-        <v>0</v>
-      </c>
-      <c r="D7" s="35">
-        <v>3.72</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="35">
-        <v>0</v>
-      </c>
-      <c r="C8" s="35">
-        <v>0</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="35">
-        <v>471.73399999999998</v>
-      </c>
-      <c r="C9" s="35">
-        <v>491.40300000000002</v>
-      </c>
-      <c r="D9" s="35">
-        <v>449.49099999999999</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1.292421917808219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="35">
-        <v>578.78499999999997</v>
-      </c>
-      <c r="C10" s="35">
-        <v>656.80499999999995</v>
-      </c>
-      <c r="D10" s="35">
-        <v>738.14400000000001</v>
-      </c>
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1.5857123287671231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="35">
-        <v>222.233</v>
-      </c>
-      <c r="C11" s="35">
-        <v>302.17500000000001</v>
-      </c>
-      <c r="D11" s="35">
-        <v>247.51400000000001</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.6088575342465754</v>
-      </c>
-      <c r="H11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="35">
-        <v>1282.3420000000001</v>
-      </c>
-      <c r="C12" s="35">
-        <v>1073.472</v>
-      </c>
-      <c r="D12" s="35">
-        <v>1162.1959999999999</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>3.5132657534246579</v>
-      </c>
-      <c r="H12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="35">
-        <v>2811.1990000000001</v>
-      </c>
-      <c r="C13" s="35">
-        <v>726.50099999999998</v>
-      </c>
-      <c r="D13" s="35">
-        <v>247.86099999999999</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>7.7019150684931512</v>
-      </c>
-      <c r="H13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="35">
-        <v>2588.0810000000001</v>
-      </c>
-      <c r="C14" s="35">
-        <v>2436.7339999999999</v>
-      </c>
-      <c r="D14" s="35">
-        <v>2344.2719999999999</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>7.0906328767123288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="35">
-        <v>1214.5999999999999</v>
-      </c>
-      <c r="C15" s="35">
-        <v>1206.1949999999999</v>
-      </c>
-      <c r="D15" s="35">
-        <v>1325.316</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>3.3276712328767122</v>
-      </c>
-      <c r="H15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>289</v>
-      </c>
-      <c r="B16" s="35">
-        <v>0</v>
-      </c>
-      <c r="C16" s="35">
-        <v>0</v>
-      </c>
-      <c r="D16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="35">
-        <v>5570.9179999999997</v>
-      </c>
-      <c r="C17" s="35">
-        <v>5745.72</v>
-      </c>
-      <c r="D17" s="35">
-        <v>4876.4679999999998</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>15.262789041095889</v>
-      </c>
-      <c r="H17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="35">
-        <v>1910.729</v>
-      </c>
-      <c r="C18" s="35">
-        <v>1626.653</v>
-      </c>
-      <c r="D18" s="35">
-        <v>1540.9349999999999</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>5.23487397260274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="35">
-        <v>0</v>
-      </c>
-      <c r="C19" s="35">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="D19" s="35">
-        <v>26.434999999999999</v>
-      </c>
-      <c r="E19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="35">
-        <v>35.110999999999997</v>
-      </c>
-      <c r="C20" s="35">
-        <v>3.0259999999999998</v>
-      </c>
-      <c r="D20" s="35">
-        <v>4.6120000000000001</v>
-      </c>
-      <c r="E20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>9.6194520547945195E-2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="35">
-        <v>291.70999999999998</v>
-      </c>
-      <c r="C21" s="35">
-        <v>410.226</v>
-      </c>
-      <c r="D21" s="35">
-        <v>440.81099999999998</v>
-      </c>
-      <c r="E21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0.79920547945205478</v>
-      </c>
-      <c r="H21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>295</v>
-      </c>
-      <c r="B22" s="35">
-        <v>1041.0509999999999</v>
-      </c>
-      <c r="C22" s="35">
-        <v>1012.068</v>
-      </c>
-      <c r="D22" s="35">
-        <v>841.24800000000005</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>2.8521945205479451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="35">
-        <v>508.40300000000002</v>
-      </c>
-      <c r="C23" s="35">
-        <v>566.721</v>
-      </c>
-      <c r="D23" s="35">
-        <v>657.03899999999999</v>
-      </c>
-      <c r="E23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1.3928849315068494</v>
-      </c>
-      <c r="H23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="35">
-        <v>2844.82</v>
-      </c>
-      <c r="C24" s="35">
-        <v>3478.627</v>
-      </c>
-      <c r="D24" s="35">
-        <v>4181.5940000000001</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>7.7940273972602743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>298</v>
-      </c>
-      <c r="B25" s="35">
-        <v>2628.125</v>
-      </c>
-      <c r="C25" s="35">
-        <v>913.13300000000004</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>7.2003424657534243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B26" s="35">
-        <v>569.45500000000004</v>
-      </c>
-      <c r="C26" s="35">
-        <v>576.18600000000004</v>
-      </c>
-      <c r="D26" s="35">
-        <v>577.52499999999998</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>1.560150684931507</v>
-      </c>
-      <c r="H26" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>300</v>
-      </c>
-      <c r="B27" s="35">
-        <v>68.573999999999998</v>
-      </c>
-      <c r="C27" s="35">
-        <v>82.480999999999995</v>
-      </c>
-      <c r="D27" s="35">
-        <v>326.358</v>
-      </c>
-      <c r="E27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0.18787397260273972</v>
-      </c>
-      <c r="H27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>301</v>
-      </c>
-      <c r="B28" s="35">
-        <v>0</v>
-      </c>
-      <c r="C28" s="35">
-        <v>0</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>302</v>
-      </c>
-      <c r="B29" s="35">
-        <v>0</v>
-      </c>
-      <c r="C29" s="35">
-        <v>0</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>303</v>
-      </c>
-      <c r="B30" s="35">
-        <v>9559.6110000000008</v>
-      </c>
-      <c r="C30" s="35">
-        <v>11204.512000000001</v>
-      </c>
-      <c r="D30" s="35">
-        <v>11911.325000000001</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>26.190715068493152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B31" s="35">
-        <v>6523.8289999999997</v>
-      </c>
-      <c r="C31" s="35">
-        <v>8158.1670000000004</v>
-      </c>
-      <c r="D31" s="35">
-        <v>3468.5250000000001</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>17.873504109589039</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>305</v>
-      </c>
-      <c r="B32" s="35">
-        <v>4.6669999999999998</v>
-      </c>
-      <c r="C32" s="35">
-        <v>6.3460000000000001</v>
-      </c>
-      <c r="D32" s="35">
-        <v>8.0749999999999993</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>1.2786301369863013E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>306</v>
-      </c>
-      <c r="B33" s="35">
-        <v>6523.8289999999997</v>
-      </c>
-      <c r="C33" s="35">
-        <v>8158.1670000000004</v>
-      </c>
-      <c r="D33" s="35">
-        <v>698.84699999999998</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>17.873504109589039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>307</v>
-      </c>
-      <c r="B34" s="35">
-        <v>6162.7870000000003</v>
-      </c>
-      <c r="C34" s="35">
-        <v>4509.7179999999998</v>
-      </c>
-      <c r="D34" s="35">
-        <v>3243.4229999999998</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>16.88434794520548</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="35">
-        <v>76.070999999999998</v>
-      </c>
-      <c r="C35" s="35">
-        <v>89.119</v>
-      </c>
-      <c r="D35" s="35">
-        <v>145.56899999999999</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>0.20841369863013698</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>309</v>
-      </c>
-      <c r="B36" s="35">
-        <v>1334.021</v>
-      </c>
-      <c r="C36" s="35">
-        <v>1821.5219999999999</v>
-      </c>
-      <c r="D36" s="35">
-        <v>2270.2930000000001</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>3.6548520547945205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>310</v>
-      </c>
-      <c r="B37" s="35">
-        <v>3689.7310000000002</v>
-      </c>
-      <c r="C37" s="35">
-        <v>0</v>
-      </c>
-      <c r="D37" s="35">
-        <v>3776.0549999999998</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>10.108852054794522</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>311</v>
-      </c>
-      <c r="B38" s="35">
-        <v>0</v>
-      </c>
-      <c r="C38" s="35">
-        <v>0</v>
-      </c>
-      <c r="D38" s="35">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>312</v>
-      </c>
-      <c r="B39" s="35">
-        <v>0</v>
-      </c>
-      <c r="C39" s="35">
-        <v>0</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B40" s="35">
-        <v>686.33399999999995</v>
-      </c>
-      <c r="C40" s="35">
-        <v>822.01599999999996</v>
-      </c>
-      <c r="D40" s="35">
-        <v>932.529</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>1.8803671232876711</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>314</v>
-      </c>
-      <c r="B41" s="35">
-        <v>85.117999999999995</v>
-      </c>
-      <c r="C41" s="35">
-        <v>66.167000000000002</v>
-      </c>
-      <c r="D41" s="35">
-        <v>40.765999999999998</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>0.23319999999999999</v>
-      </c>
-      <c r="H41" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>315</v>
-      </c>
-      <c r="B42" s="35">
-        <v>0</v>
-      </c>
-      <c r="C42" s="35">
-        <v>0</v>
-      </c>
-      <c r="D42" s="35">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>316</v>
-      </c>
-      <c r="B43" s="35">
-        <v>39787.256999999998</v>
-      </c>
-      <c r="C43" s="35">
-        <v>37360.771999999997</v>
-      </c>
-      <c r="D43" s="35">
-        <v>35059.578000000001</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>109.00618356164382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>317</v>
-      </c>
-      <c r="B44" s="35">
-        <v>3093.8470000000002</v>
-      </c>
-      <c r="C44" s="35">
-        <v>2643.7049999999999</v>
-      </c>
-      <c r="D44" s="35">
-        <v>2983.739</v>
-      </c>
-      <c r="E44" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>8.4762931506849313</v>
-      </c>
-      <c r="H44" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>318</v>
-      </c>
-      <c r="B45" s="35">
-        <v>0</v>
-      </c>
-      <c r="C45" s="35">
-        <v>0</v>
-      </c>
-      <c r="D45" s="35">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>319</v>
-      </c>
-      <c r="B46" s="35">
-        <v>503.95400000000001</v>
-      </c>
-      <c r="C46" s="35">
-        <v>643.67499999999995</v>
-      </c>
-      <c r="D46" s="35">
-        <v>1023.092</v>
-      </c>
-      <c r="E46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>1.380695890410959</v>
-      </c>
-      <c r="H46" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>320</v>
-      </c>
-      <c r="B47" s="35">
-        <v>351.137</v>
-      </c>
-      <c r="C47" s="35">
-        <v>404.238</v>
-      </c>
-      <c r="D47" s="35">
-        <v>414.34899999999999</v>
-      </c>
-      <c r="E47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>0.96201917808219173</v>
-      </c>
-      <c r="H47" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>321</v>
-      </c>
-      <c r="B48" s="35">
-        <v>1480.8489999999999</v>
-      </c>
-      <c r="C48" s="35">
-        <v>1222.9880000000001</v>
-      </c>
-      <c r="D48" s="35">
-        <v>1575.146</v>
-      </c>
-      <c r="E48" t="s">
-        <v>236</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>4.057120547945205</v>
-      </c>
-      <c r="H48" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>322</v>
-      </c>
-      <c r="B49" s="35">
-        <v>5.9009999999999998</v>
-      </c>
-      <c r="C49" s="35">
-        <v>98.837000000000003</v>
-      </c>
-      <c r="D49" s="35">
-        <v>122.099</v>
-      </c>
-      <c r="E49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>1.6167123287671233E-2</v>
-      </c>
-      <c r="H49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>323</v>
-      </c>
-      <c r="B50" s="35">
-        <v>0</v>
-      </c>
-      <c r="C50" s="35">
-        <v>0</v>
-      </c>
-      <c r="D50" s="35">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>324</v>
-      </c>
-      <c r="B51" s="35">
-        <v>5759.634</v>
-      </c>
-      <c r="C51" s="35">
-        <v>5498.473</v>
-      </c>
-      <c r="D51" s="35">
-        <v>4297.1899999999996</v>
-      </c>
-      <c r="E51" t="s">
-        <v>234</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>15.779819178082192</v>
-      </c>
-      <c r="H51" t="s">
-        <v>349</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H51" xr:uid="{0DA935FD-94E0-3546-BCCF-D34968C9C73A}"/>
-  <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{7A7A57AB-3D6B-0E46-B9A3-67CA6B319D2E}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{2085202B-E0F5-474B-9A20-AE4961961052}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8235E03E-FBB7-334A-A23D-60160D8DDD28}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12985,70 +12894,70 @@
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="41">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="B1" s="43">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41">
-        <v>1</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="B2" s="43">
+        <v>1</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -13794,12 +13703,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19292E87-5CF7-794D-A1AA-7C1926221C7B}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13827,244 +13736,244 @@
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="41">
-        <v>5</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41">
+      <c r="B1" s="43">
+        <v>5</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43">
         <f>B1+Parameters!$B$5</f>
         <v>9</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43">
         <f>R1+Parameters!$B$5</f>
         <v>13</v>
       </c>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41">
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43">
         <f>AH1+Parameters!$B$5</f>
         <v>17</v>
       </c>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="41"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="41"/>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="41"/>
-      <c r="BL1" s="41"/>
-      <c r="BM1" s="41"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="43">
         <v>0.25</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41">
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="42" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="43" t="s">
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="42" t="s">
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="43" t="s">
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="42" t="s">
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="43" t="s">
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -17258,12 +17167,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7506CF-850A-ED42-956F-025E5A994524}">
   <dimension ref="A1:IW33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="IH1" sqref="IH1:IW1"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17277,1234 +17186,1234 @@
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="41">
+      <c r="B1" s="43">
         <v>21</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43">
         <f>B1+Parameters!$B$5</f>
         <v>25</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43">
         <f>R1+Parameters!$B$5</f>
         <v>29</v>
       </c>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41">
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43">
         <f>AH1+Parameters!$B$5</f>
         <v>33</v>
       </c>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="41"/>
-      <c r="BD1" s="41"/>
-      <c r="BE1" s="41"/>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="41"/>
-      <c r="BL1" s="41"/>
-      <c r="BM1" s="41"/>
-      <c r="BN1" s="41">
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43">
         <f>AX1+Parameters!$B$5</f>
         <v>37</v>
       </c>
-      <c r="BO1" s="41"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="41"/>
-      <c r="BY1" s="41"/>
-      <c r="BZ1" s="41"/>
-      <c r="CA1" s="41"/>
-      <c r="CB1" s="41"/>
-      <c r="CC1" s="41"/>
-      <c r="CD1" s="41">
+      <c r="BO1" s="43"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="43"/>
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="43"/>
+      <c r="BW1" s="43"/>
+      <c r="BX1" s="43"/>
+      <c r="BY1" s="43"/>
+      <c r="BZ1" s="43"/>
+      <c r="CA1" s="43"/>
+      <c r="CB1" s="43"/>
+      <c r="CC1" s="43"/>
+      <c r="CD1" s="43">
         <f>BN1+Parameters!$B$5</f>
         <v>41</v>
       </c>
-      <c r="CE1" s="41"/>
-      <c r="CF1" s="41"/>
-      <c r="CG1" s="41"/>
-      <c r="CH1" s="41"/>
-      <c r="CI1" s="41"/>
-      <c r="CJ1" s="41"/>
-      <c r="CK1" s="41"/>
-      <c r="CL1" s="41"/>
-      <c r="CM1" s="41"/>
-      <c r="CN1" s="41"/>
-      <c r="CO1" s="41"/>
-      <c r="CP1" s="41"/>
-      <c r="CQ1" s="41"/>
-      <c r="CR1" s="41"/>
-      <c r="CS1" s="41"/>
-      <c r="CT1" s="41">
+      <c r="CE1" s="43"/>
+      <c r="CF1" s="43"/>
+      <c r="CG1" s="43"/>
+      <c r="CH1" s="43"/>
+      <c r="CI1" s="43"/>
+      <c r="CJ1" s="43"/>
+      <c r="CK1" s="43"/>
+      <c r="CL1" s="43"/>
+      <c r="CM1" s="43"/>
+      <c r="CN1" s="43"/>
+      <c r="CO1" s="43"/>
+      <c r="CP1" s="43"/>
+      <c r="CQ1" s="43"/>
+      <c r="CR1" s="43"/>
+      <c r="CS1" s="43"/>
+      <c r="CT1" s="43">
         <f>CD1+Parameters!$B$5</f>
         <v>45</v>
       </c>
-      <c r="CU1" s="41"/>
-      <c r="CV1" s="41"/>
-      <c r="CW1" s="41"/>
-      <c r="CX1" s="41"/>
-      <c r="CY1" s="41"/>
-      <c r="CZ1" s="41"/>
-      <c r="DA1" s="41"/>
-      <c r="DB1" s="41"/>
-      <c r="DC1" s="41"/>
-      <c r="DD1" s="41"/>
-      <c r="DE1" s="41"/>
-      <c r="DF1" s="41"/>
-      <c r="DG1" s="41"/>
-      <c r="DH1" s="41"/>
-      <c r="DI1" s="41"/>
-      <c r="DJ1" s="41">
+      <c r="CU1" s="43"/>
+      <c r="CV1" s="43"/>
+      <c r="CW1" s="43"/>
+      <c r="CX1" s="43"/>
+      <c r="CY1" s="43"/>
+      <c r="CZ1" s="43"/>
+      <c r="DA1" s="43"/>
+      <c r="DB1" s="43"/>
+      <c r="DC1" s="43"/>
+      <c r="DD1" s="43"/>
+      <c r="DE1" s="43"/>
+      <c r="DF1" s="43"/>
+      <c r="DG1" s="43"/>
+      <c r="DH1" s="43"/>
+      <c r="DI1" s="43"/>
+      <c r="DJ1" s="43">
         <f>CT1+Parameters!$B$5</f>
         <v>49</v>
       </c>
-      <c r="DK1" s="41"/>
-      <c r="DL1" s="41"/>
-      <c r="DM1" s="41"/>
-      <c r="DN1" s="41"/>
-      <c r="DO1" s="41"/>
-      <c r="DP1" s="41"/>
-      <c r="DQ1" s="41"/>
-      <c r="DR1" s="41"/>
-      <c r="DS1" s="41"/>
-      <c r="DT1" s="41"/>
-      <c r="DU1" s="41"/>
-      <c r="DV1" s="41"/>
-      <c r="DW1" s="41"/>
-      <c r="DX1" s="41"/>
-      <c r="DY1" s="41"/>
-      <c r="DZ1" s="41">
+      <c r="DK1" s="43"/>
+      <c r="DL1" s="43"/>
+      <c r="DM1" s="43"/>
+      <c r="DN1" s="43"/>
+      <c r="DO1" s="43"/>
+      <c r="DP1" s="43"/>
+      <c r="DQ1" s="43"/>
+      <c r="DR1" s="43"/>
+      <c r="DS1" s="43"/>
+      <c r="DT1" s="43"/>
+      <c r="DU1" s="43"/>
+      <c r="DV1" s="43"/>
+      <c r="DW1" s="43"/>
+      <c r="DX1" s="43"/>
+      <c r="DY1" s="43"/>
+      <c r="DZ1" s="43">
         <f>DJ1+Parameters!$B$5</f>
         <v>53</v>
       </c>
-      <c r="EA1" s="41"/>
-      <c r="EB1" s="41"/>
-      <c r="EC1" s="41"/>
-      <c r="ED1" s="41"/>
-      <c r="EE1" s="41"/>
-      <c r="EF1" s="41"/>
-      <c r="EG1" s="41"/>
-      <c r="EH1" s="41"/>
-      <c r="EI1" s="41"/>
-      <c r="EJ1" s="41"/>
-      <c r="EK1" s="41"/>
-      <c r="EL1" s="41"/>
-      <c r="EM1" s="41"/>
-      <c r="EN1" s="41"/>
-      <c r="EO1" s="41"/>
-      <c r="EP1" s="41">
+      <c r="EA1" s="43"/>
+      <c r="EB1" s="43"/>
+      <c r="EC1" s="43"/>
+      <c r="ED1" s="43"/>
+      <c r="EE1" s="43"/>
+      <c r="EF1" s="43"/>
+      <c r="EG1" s="43"/>
+      <c r="EH1" s="43"/>
+      <c r="EI1" s="43"/>
+      <c r="EJ1" s="43"/>
+      <c r="EK1" s="43"/>
+      <c r="EL1" s="43"/>
+      <c r="EM1" s="43"/>
+      <c r="EN1" s="43"/>
+      <c r="EO1" s="43"/>
+      <c r="EP1" s="43">
         <f>DZ1+Parameters!$B$5</f>
         <v>57</v>
       </c>
-      <c r="EQ1" s="41"/>
-      <c r="ER1" s="41"/>
-      <c r="ES1" s="41"/>
-      <c r="ET1" s="41"/>
-      <c r="EU1" s="41"/>
-      <c r="EV1" s="41"/>
-      <c r="EW1" s="41"/>
-      <c r="EX1" s="41"/>
-      <c r="EY1" s="41"/>
-      <c r="EZ1" s="41"/>
-      <c r="FA1" s="41"/>
-      <c r="FB1" s="41"/>
-      <c r="FC1" s="41"/>
-      <c r="FD1" s="41"/>
-      <c r="FE1" s="41"/>
-      <c r="FF1" s="41">
+      <c r="EQ1" s="43"/>
+      <c r="ER1" s="43"/>
+      <c r="ES1" s="43"/>
+      <c r="ET1" s="43"/>
+      <c r="EU1" s="43"/>
+      <c r="EV1" s="43"/>
+      <c r="EW1" s="43"/>
+      <c r="EX1" s="43"/>
+      <c r="EY1" s="43"/>
+      <c r="EZ1" s="43"/>
+      <c r="FA1" s="43"/>
+      <c r="FB1" s="43"/>
+      <c r="FC1" s="43"/>
+      <c r="FD1" s="43"/>
+      <c r="FE1" s="43"/>
+      <c r="FF1" s="43">
         <f>EP1+Parameters!$B$5</f>
         <v>61</v>
       </c>
-      <c r="FG1" s="41"/>
-      <c r="FH1" s="41"/>
-      <c r="FI1" s="41"/>
-      <c r="FJ1" s="41"/>
-      <c r="FK1" s="41"/>
-      <c r="FL1" s="41"/>
-      <c r="FM1" s="41"/>
-      <c r="FN1" s="41"/>
-      <c r="FO1" s="41"/>
-      <c r="FP1" s="41"/>
-      <c r="FQ1" s="41"/>
-      <c r="FR1" s="41"/>
-      <c r="FS1" s="41"/>
-      <c r="FT1" s="41"/>
-      <c r="FU1" s="41"/>
-      <c r="FV1" s="41">
+      <c r="FG1" s="43"/>
+      <c r="FH1" s="43"/>
+      <c r="FI1" s="43"/>
+      <c r="FJ1" s="43"/>
+      <c r="FK1" s="43"/>
+      <c r="FL1" s="43"/>
+      <c r="FM1" s="43"/>
+      <c r="FN1" s="43"/>
+      <c r="FO1" s="43"/>
+      <c r="FP1" s="43"/>
+      <c r="FQ1" s="43"/>
+      <c r="FR1" s="43"/>
+      <c r="FS1" s="43"/>
+      <c r="FT1" s="43"/>
+      <c r="FU1" s="43"/>
+      <c r="FV1" s="43">
         <f>FF1+Parameters!$B$5</f>
         <v>65</v>
       </c>
-      <c r="FW1" s="41"/>
-      <c r="FX1" s="41"/>
-      <c r="FY1" s="41"/>
-      <c r="FZ1" s="41"/>
-      <c r="GA1" s="41"/>
-      <c r="GB1" s="41"/>
-      <c r="GC1" s="41"/>
-      <c r="GD1" s="41"/>
-      <c r="GE1" s="41"/>
-      <c r="GF1" s="41"/>
-      <c r="GG1" s="41"/>
-      <c r="GH1" s="41"/>
-      <c r="GI1" s="41"/>
-      <c r="GJ1" s="41"/>
-      <c r="GK1" s="41"/>
-      <c r="GL1" s="41">
+      <c r="FW1" s="43"/>
+      <c r="FX1" s="43"/>
+      <c r="FY1" s="43"/>
+      <c r="FZ1" s="43"/>
+      <c r="GA1" s="43"/>
+      <c r="GB1" s="43"/>
+      <c r="GC1" s="43"/>
+      <c r="GD1" s="43"/>
+      <c r="GE1" s="43"/>
+      <c r="GF1" s="43"/>
+      <c r="GG1" s="43"/>
+      <c r="GH1" s="43"/>
+      <c r="GI1" s="43"/>
+      <c r="GJ1" s="43"/>
+      <c r="GK1" s="43"/>
+      <c r="GL1" s="43">
         <f>FV1+Parameters!$B$5</f>
         <v>69</v>
       </c>
-      <c r="GM1" s="41"/>
-      <c r="GN1" s="41"/>
-      <c r="GO1" s="41"/>
-      <c r="GP1" s="41"/>
-      <c r="GQ1" s="41"/>
-      <c r="GR1" s="41"/>
-      <c r="GS1" s="41"/>
-      <c r="GT1" s="41"/>
-      <c r="GU1" s="41"/>
-      <c r="GV1" s="41"/>
-      <c r="GW1" s="41"/>
-      <c r="GX1" s="41"/>
-      <c r="GY1" s="41"/>
-      <c r="GZ1" s="41"/>
-      <c r="HA1" s="41"/>
-      <c r="HB1" s="41">
+      <c r="GM1" s="43"/>
+      <c r="GN1" s="43"/>
+      <c r="GO1" s="43"/>
+      <c r="GP1" s="43"/>
+      <c r="GQ1" s="43"/>
+      <c r="GR1" s="43"/>
+      <c r="GS1" s="43"/>
+      <c r="GT1" s="43"/>
+      <c r="GU1" s="43"/>
+      <c r="GV1" s="43"/>
+      <c r="GW1" s="43"/>
+      <c r="GX1" s="43"/>
+      <c r="GY1" s="43"/>
+      <c r="GZ1" s="43"/>
+      <c r="HA1" s="43"/>
+      <c r="HB1" s="43">
         <f>GL1+Parameters!$B$5</f>
         <v>73</v>
       </c>
-      <c r="HC1" s="41"/>
-      <c r="HD1" s="41"/>
-      <c r="HE1" s="41"/>
-      <c r="HF1" s="41"/>
-      <c r="HG1" s="41"/>
-      <c r="HH1" s="41"/>
-      <c r="HI1" s="41"/>
-      <c r="HJ1" s="41"/>
-      <c r="HK1" s="41"/>
-      <c r="HL1" s="41"/>
-      <c r="HM1" s="41"/>
-      <c r="HN1" s="41"/>
-      <c r="HO1" s="41"/>
-      <c r="HP1" s="41"/>
-      <c r="HQ1" s="41"/>
-      <c r="HR1" s="41">
+      <c r="HC1" s="43"/>
+      <c r="HD1" s="43"/>
+      <c r="HE1" s="43"/>
+      <c r="HF1" s="43"/>
+      <c r="HG1" s="43"/>
+      <c r="HH1" s="43"/>
+      <c r="HI1" s="43"/>
+      <c r="HJ1" s="43"/>
+      <c r="HK1" s="43"/>
+      <c r="HL1" s="43"/>
+      <c r="HM1" s="43"/>
+      <c r="HN1" s="43"/>
+      <c r="HO1" s="43"/>
+      <c r="HP1" s="43"/>
+      <c r="HQ1" s="43"/>
+      <c r="HR1" s="43">
         <f>HB1+Parameters!$B$5</f>
         <v>77</v>
       </c>
-      <c r="HS1" s="41"/>
-      <c r="HT1" s="41"/>
-      <c r="HU1" s="41"/>
-      <c r="HV1" s="41"/>
-      <c r="HW1" s="41"/>
-      <c r="HX1" s="41"/>
-      <c r="HY1" s="41"/>
-      <c r="HZ1" s="41"/>
-      <c r="IA1" s="41"/>
-      <c r="IB1" s="41"/>
-      <c r="IC1" s="41"/>
-      <c r="ID1" s="41"/>
-      <c r="IE1" s="41"/>
-      <c r="IF1" s="41"/>
-      <c r="IG1" s="41"/>
-      <c r="IH1" s="41">
+      <c r="HS1" s="43"/>
+      <c r="HT1" s="43"/>
+      <c r="HU1" s="43"/>
+      <c r="HV1" s="43"/>
+      <c r="HW1" s="43"/>
+      <c r="HX1" s="43"/>
+      <c r="HY1" s="43"/>
+      <c r="HZ1" s="43"/>
+      <c r="IA1" s="43"/>
+      <c r="IB1" s="43"/>
+      <c r="IC1" s="43"/>
+      <c r="ID1" s="43"/>
+      <c r="IE1" s="43"/>
+      <c r="IF1" s="43"/>
+      <c r="IG1" s="43"/>
+      <c r="IH1" s="43">
         <f>HR1+Parameters!$B$5</f>
         <v>81</v>
       </c>
-      <c r="II1" s="41"/>
-      <c r="IJ1" s="41"/>
-      <c r="IK1" s="41"/>
-      <c r="IL1" s="41"/>
-      <c r="IM1" s="41"/>
-      <c r="IN1" s="41"/>
-      <c r="IO1" s="41"/>
-      <c r="IP1" s="41"/>
-      <c r="IQ1" s="41"/>
-      <c r="IR1" s="41"/>
-      <c r="IS1" s="41"/>
-      <c r="IT1" s="41"/>
-      <c r="IU1" s="41"/>
-      <c r="IV1" s="41"/>
-      <c r="IW1" s="41"/>
+      <c r="II1" s="43"/>
+      <c r="IJ1" s="43"/>
+      <c r="IK1" s="43"/>
+      <c r="IL1" s="43"/>
+      <c r="IM1" s="43"/>
+      <c r="IN1" s="43"/>
+      <c r="IO1" s="43"/>
+      <c r="IP1" s="43"/>
+      <c r="IQ1" s="43"/>
+      <c r="IR1" s="43"/>
+      <c r="IS1" s="43"/>
+      <c r="IT1" s="43"/>
+      <c r="IU1" s="43"/>
+      <c r="IV1" s="43"/>
+      <c r="IW1" s="43"/>
     </row>
     <row r="2" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="43">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43">
         <f>B2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41">
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43">
         <f t="shared" ref="AH2" si="0">R2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43">
         <f t="shared" ref="AX2" si="1">AH2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41">
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43">
         <f t="shared" ref="BN2" si="2">AX2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="41"/>
-      <c r="BQ2" s="41"/>
-      <c r="BR2" s="41"/>
-      <c r="BS2" s="41"/>
-      <c r="BT2" s="41"/>
-      <c r="BU2" s="41"/>
-      <c r="BV2" s="41"/>
-      <c r="BW2" s="41"/>
-      <c r="BX2" s="41"/>
-      <c r="BY2" s="41"/>
-      <c r="BZ2" s="41"/>
-      <c r="CA2" s="41"/>
-      <c r="CB2" s="41"/>
-      <c r="CC2" s="41"/>
-      <c r="CD2" s="41">
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43">
         <f t="shared" ref="CD2" si="3">BN2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CE2" s="41"/>
-      <c r="CF2" s="41"/>
-      <c r="CG2" s="41"/>
-      <c r="CH2" s="41"/>
-      <c r="CI2" s="41"/>
-      <c r="CJ2" s="41"/>
-      <c r="CK2" s="41"/>
-      <c r="CL2" s="41"/>
-      <c r="CM2" s="41"/>
-      <c r="CN2" s="41"/>
-      <c r="CO2" s="41"/>
-      <c r="CP2" s="41"/>
-      <c r="CQ2" s="41"/>
-      <c r="CR2" s="41"/>
-      <c r="CS2" s="41"/>
-      <c r="CT2" s="41">
+      <c r="CE2" s="43"/>
+      <c r="CF2" s="43"/>
+      <c r="CG2" s="43"/>
+      <c r="CH2" s="43"/>
+      <c r="CI2" s="43"/>
+      <c r="CJ2" s="43"/>
+      <c r="CK2" s="43"/>
+      <c r="CL2" s="43"/>
+      <c r="CM2" s="43"/>
+      <c r="CN2" s="43"/>
+      <c r="CO2" s="43"/>
+      <c r="CP2" s="43"/>
+      <c r="CQ2" s="43"/>
+      <c r="CR2" s="43"/>
+      <c r="CS2" s="43"/>
+      <c r="CT2" s="43">
         <f t="shared" ref="CT2" si="4">CD2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CU2" s="41"/>
-      <c r="CV2" s="41"/>
-      <c r="CW2" s="41"/>
-      <c r="CX2" s="41"/>
-      <c r="CY2" s="41"/>
-      <c r="CZ2" s="41"/>
-      <c r="DA2" s="41"/>
-      <c r="DB2" s="41"/>
-      <c r="DC2" s="41"/>
-      <c r="DD2" s="41"/>
-      <c r="DE2" s="41"/>
-      <c r="DF2" s="41"/>
-      <c r="DG2" s="41"/>
-      <c r="DH2" s="41"/>
-      <c r="DI2" s="41"/>
-      <c r="DJ2" s="41">
+      <c r="CU2" s="43"/>
+      <c r="CV2" s="43"/>
+      <c r="CW2" s="43"/>
+      <c r="CX2" s="43"/>
+      <c r="CY2" s="43"/>
+      <c r="CZ2" s="43"/>
+      <c r="DA2" s="43"/>
+      <c r="DB2" s="43"/>
+      <c r="DC2" s="43"/>
+      <c r="DD2" s="43"/>
+      <c r="DE2" s="43"/>
+      <c r="DF2" s="43"/>
+      <c r="DG2" s="43"/>
+      <c r="DH2" s="43"/>
+      <c r="DI2" s="43"/>
+      <c r="DJ2" s="43">
         <f t="shared" ref="DJ2" si="5">CT2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="DK2" s="41"/>
-      <c r="DL2" s="41"/>
-      <c r="DM2" s="41"/>
-      <c r="DN2" s="41"/>
-      <c r="DO2" s="41"/>
-      <c r="DP2" s="41"/>
-      <c r="DQ2" s="41"/>
-      <c r="DR2" s="41"/>
-      <c r="DS2" s="41"/>
-      <c r="DT2" s="41"/>
-      <c r="DU2" s="41"/>
-      <c r="DV2" s="41"/>
-      <c r="DW2" s="41"/>
-      <c r="DX2" s="41"/>
-      <c r="DY2" s="41"/>
-      <c r="DZ2" s="41">
+      <c r="DK2" s="43"/>
+      <c r="DL2" s="43"/>
+      <c r="DM2" s="43"/>
+      <c r="DN2" s="43"/>
+      <c r="DO2" s="43"/>
+      <c r="DP2" s="43"/>
+      <c r="DQ2" s="43"/>
+      <c r="DR2" s="43"/>
+      <c r="DS2" s="43"/>
+      <c r="DT2" s="43"/>
+      <c r="DU2" s="43"/>
+      <c r="DV2" s="43"/>
+      <c r="DW2" s="43"/>
+      <c r="DX2" s="43"/>
+      <c r="DY2" s="43"/>
+      <c r="DZ2" s="43">
         <f t="shared" ref="DZ2" si="6">DJ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EA2" s="41"/>
-      <c r="EB2" s="41"/>
-      <c r="EC2" s="41"/>
-      <c r="ED2" s="41"/>
-      <c r="EE2" s="41"/>
-      <c r="EF2" s="41"/>
-      <c r="EG2" s="41"/>
-      <c r="EH2" s="41"/>
-      <c r="EI2" s="41"/>
-      <c r="EJ2" s="41"/>
-      <c r="EK2" s="41"/>
-      <c r="EL2" s="41"/>
-      <c r="EM2" s="41"/>
-      <c r="EN2" s="41"/>
-      <c r="EO2" s="41"/>
-      <c r="EP2" s="41">
+      <c r="EA2" s="43"/>
+      <c r="EB2" s="43"/>
+      <c r="EC2" s="43"/>
+      <c r="ED2" s="43"/>
+      <c r="EE2" s="43"/>
+      <c r="EF2" s="43"/>
+      <c r="EG2" s="43"/>
+      <c r="EH2" s="43"/>
+      <c r="EI2" s="43"/>
+      <c r="EJ2" s="43"/>
+      <c r="EK2" s="43"/>
+      <c r="EL2" s="43"/>
+      <c r="EM2" s="43"/>
+      <c r="EN2" s="43"/>
+      <c r="EO2" s="43"/>
+      <c r="EP2" s="43">
         <f t="shared" ref="EP2" si="7">DZ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EQ2" s="41"/>
-      <c r="ER2" s="41"/>
-      <c r="ES2" s="41"/>
-      <c r="ET2" s="41"/>
-      <c r="EU2" s="41"/>
-      <c r="EV2" s="41"/>
-      <c r="EW2" s="41"/>
-      <c r="EX2" s="41"/>
-      <c r="EY2" s="41"/>
-      <c r="EZ2" s="41"/>
-      <c r="FA2" s="41"/>
-      <c r="FB2" s="41"/>
-      <c r="FC2" s="41"/>
-      <c r="FD2" s="41"/>
-      <c r="FE2" s="41"/>
-      <c r="FF2" s="41">
+      <c r="EQ2" s="43"/>
+      <c r="ER2" s="43"/>
+      <c r="ES2" s="43"/>
+      <c r="ET2" s="43"/>
+      <c r="EU2" s="43"/>
+      <c r="EV2" s="43"/>
+      <c r="EW2" s="43"/>
+      <c r="EX2" s="43"/>
+      <c r="EY2" s="43"/>
+      <c r="EZ2" s="43"/>
+      <c r="FA2" s="43"/>
+      <c r="FB2" s="43"/>
+      <c r="FC2" s="43"/>
+      <c r="FD2" s="43"/>
+      <c r="FE2" s="43"/>
+      <c r="FF2" s="43">
         <f t="shared" ref="FF2" si="8">EP2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FG2" s="41"/>
-      <c r="FH2" s="41"/>
-      <c r="FI2" s="41"/>
-      <c r="FJ2" s="41"/>
-      <c r="FK2" s="41"/>
-      <c r="FL2" s="41"/>
-      <c r="FM2" s="41"/>
-      <c r="FN2" s="41"/>
-      <c r="FO2" s="41"/>
-      <c r="FP2" s="41"/>
-      <c r="FQ2" s="41"/>
-      <c r="FR2" s="41"/>
-      <c r="FS2" s="41"/>
-      <c r="FT2" s="41"/>
-      <c r="FU2" s="41"/>
-      <c r="FV2" s="41">
+      <c r="FG2" s="43"/>
+      <c r="FH2" s="43"/>
+      <c r="FI2" s="43"/>
+      <c r="FJ2" s="43"/>
+      <c r="FK2" s="43"/>
+      <c r="FL2" s="43"/>
+      <c r="FM2" s="43"/>
+      <c r="FN2" s="43"/>
+      <c r="FO2" s="43"/>
+      <c r="FP2" s="43"/>
+      <c r="FQ2" s="43"/>
+      <c r="FR2" s="43"/>
+      <c r="FS2" s="43"/>
+      <c r="FT2" s="43"/>
+      <c r="FU2" s="43"/>
+      <c r="FV2" s="43">
         <f t="shared" ref="FV2" si="9">FF2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FW2" s="41"/>
-      <c r="FX2" s="41"/>
-      <c r="FY2" s="41"/>
-      <c r="FZ2" s="41"/>
-      <c r="GA2" s="41"/>
-      <c r="GB2" s="41"/>
-      <c r="GC2" s="41"/>
-      <c r="GD2" s="41"/>
-      <c r="GE2" s="41"/>
-      <c r="GF2" s="41"/>
-      <c r="GG2" s="41"/>
-      <c r="GH2" s="41"/>
-      <c r="GI2" s="41"/>
-      <c r="GJ2" s="41"/>
-      <c r="GK2" s="41"/>
-      <c r="GL2" s="41">
+      <c r="FW2" s="43"/>
+      <c r="FX2" s="43"/>
+      <c r="FY2" s="43"/>
+      <c r="FZ2" s="43"/>
+      <c r="GA2" s="43"/>
+      <c r="GB2" s="43"/>
+      <c r="GC2" s="43"/>
+      <c r="GD2" s="43"/>
+      <c r="GE2" s="43"/>
+      <c r="GF2" s="43"/>
+      <c r="GG2" s="43"/>
+      <c r="GH2" s="43"/>
+      <c r="GI2" s="43"/>
+      <c r="GJ2" s="43"/>
+      <c r="GK2" s="43"/>
+      <c r="GL2" s="43">
         <f t="shared" ref="GL2" si="10">FV2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="GM2" s="41"/>
-      <c r="GN2" s="41"/>
-      <c r="GO2" s="41"/>
-      <c r="GP2" s="41"/>
-      <c r="GQ2" s="41"/>
-      <c r="GR2" s="41"/>
-      <c r="GS2" s="41"/>
-      <c r="GT2" s="41"/>
-      <c r="GU2" s="41"/>
-      <c r="GV2" s="41"/>
-      <c r="GW2" s="41"/>
-      <c r="GX2" s="41"/>
-      <c r="GY2" s="41"/>
-      <c r="GZ2" s="41"/>
-      <c r="HA2" s="41"/>
-      <c r="HB2" s="41">
+      <c r="GM2" s="43"/>
+      <c r="GN2" s="43"/>
+      <c r="GO2" s="43"/>
+      <c r="GP2" s="43"/>
+      <c r="GQ2" s="43"/>
+      <c r="GR2" s="43"/>
+      <c r="GS2" s="43"/>
+      <c r="GT2" s="43"/>
+      <c r="GU2" s="43"/>
+      <c r="GV2" s="43"/>
+      <c r="GW2" s="43"/>
+      <c r="GX2" s="43"/>
+      <c r="GY2" s="43"/>
+      <c r="GZ2" s="43"/>
+      <c r="HA2" s="43"/>
+      <c r="HB2" s="43">
         <f t="shared" ref="HB2" si="11">GL2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HC2" s="41"/>
-      <c r="HD2" s="41"/>
-      <c r="HE2" s="41"/>
-      <c r="HF2" s="41"/>
-      <c r="HG2" s="41"/>
-      <c r="HH2" s="41"/>
-      <c r="HI2" s="41"/>
-      <c r="HJ2" s="41"/>
-      <c r="HK2" s="41"/>
-      <c r="HL2" s="41"/>
-      <c r="HM2" s="41"/>
-      <c r="HN2" s="41"/>
-      <c r="HO2" s="41"/>
-      <c r="HP2" s="41"/>
-      <c r="HQ2" s="41"/>
-      <c r="HR2" s="41">
+      <c r="HC2" s="43"/>
+      <c r="HD2" s="43"/>
+      <c r="HE2" s="43"/>
+      <c r="HF2" s="43"/>
+      <c r="HG2" s="43"/>
+      <c r="HH2" s="43"/>
+      <c r="HI2" s="43"/>
+      <c r="HJ2" s="43"/>
+      <c r="HK2" s="43"/>
+      <c r="HL2" s="43"/>
+      <c r="HM2" s="43"/>
+      <c r="HN2" s="43"/>
+      <c r="HO2" s="43"/>
+      <c r="HP2" s="43"/>
+      <c r="HQ2" s="43"/>
+      <c r="HR2" s="43">
         <f t="shared" ref="HR2" si="12">HB2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HS2" s="41"/>
-      <c r="HT2" s="41"/>
-      <c r="HU2" s="41"/>
-      <c r="HV2" s="41"/>
-      <c r="HW2" s="41"/>
-      <c r="HX2" s="41"/>
-      <c r="HY2" s="41"/>
-      <c r="HZ2" s="41"/>
-      <c r="IA2" s="41"/>
-      <c r="IB2" s="41"/>
-      <c r="IC2" s="41"/>
-      <c r="ID2" s="41"/>
-      <c r="IE2" s="41"/>
-      <c r="IF2" s="41"/>
-      <c r="IG2" s="41"/>
-      <c r="IH2" s="41">
+      <c r="HS2" s="43"/>
+      <c r="HT2" s="43"/>
+      <c r="HU2" s="43"/>
+      <c r="HV2" s="43"/>
+      <c r="HW2" s="43"/>
+      <c r="HX2" s="43"/>
+      <c r="HY2" s="43"/>
+      <c r="HZ2" s="43"/>
+      <c r="IA2" s="43"/>
+      <c r="IB2" s="43"/>
+      <c r="IC2" s="43"/>
+      <c r="ID2" s="43"/>
+      <c r="IE2" s="43"/>
+      <c r="IF2" s="43"/>
+      <c r="IG2" s="43"/>
+      <c r="IH2" s="43">
         <f t="shared" ref="IH2" si="13">HR2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="II2" s="41"/>
-      <c r="IJ2" s="41"/>
-      <c r="IK2" s="41"/>
-      <c r="IL2" s="41"/>
-      <c r="IM2" s="41"/>
-      <c r="IN2" s="41"/>
-      <c r="IO2" s="41"/>
-      <c r="IP2" s="41"/>
-      <c r="IQ2" s="41"/>
-      <c r="IR2" s="41"/>
-      <c r="IS2" s="41"/>
-      <c r="IT2" s="41"/>
-      <c r="IU2" s="41"/>
-      <c r="IV2" s="41"/>
-      <c r="IW2" s="41"/>
+      <c r="II2" s="43"/>
+      <c r="IJ2" s="43"/>
+      <c r="IK2" s="43"/>
+      <c r="IL2" s="43"/>
+      <c r="IM2" s="43"/>
+      <c r="IN2" s="43"/>
+      <c r="IO2" s="43"/>
+      <c r="IP2" s="43"/>
+      <c r="IQ2" s="43"/>
+      <c r="IR2" s="43"/>
+      <c r="IS2" s="43"/>
+      <c r="IT2" s="43"/>
+      <c r="IU2" s="43"/>
+      <c r="IV2" s="43"/>
+      <c r="IW2" s="43"/>
     </row>
     <row r="3" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="47">
-        <v>5</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="47">
-        <v>5</v>
-      </c>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="47">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="47">
-        <v>5</v>
-      </c>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="48"/>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48"/>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48"/>
-      <c r="BH3" s="48"/>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="48"/>
-      <c r="BK3" s="48"/>
-      <c r="BL3" s="48"/>
-      <c r="BM3" s="49"/>
-      <c r="BN3" s="47">
+      <c r="B3" s="49">
+        <v>5</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="49">
+        <v>5</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="49">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="49">
+        <v>5</v>
+      </c>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="50"/>
+      <c r="BD3" s="50"/>
+      <c r="BE3" s="50"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="49">
         <v>9</v>
       </c>
-      <c r="BO3" s="48"/>
-      <c r="BP3" s="48"/>
-      <c r="BQ3" s="48"/>
-      <c r="BR3" s="48"/>
-      <c r="BS3" s="48"/>
-      <c r="BT3" s="48"/>
-      <c r="BU3" s="48"/>
-      <c r="BV3" s="48"/>
-      <c r="BW3" s="48"/>
-      <c r="BX3" s="48"/>
-      <c r="BY3" s="48"/>
-      <c r="BZ3" s="48"/>
-      <c r="CA3" s="48"/>
-      <c r="CB3" s="48"/>
-      <c r="CC3" s="49"/>
-      <c r="CD3" s="47">
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="50"/>
+      <c r="BU3" s="50"/>
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="50"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="50"/>
+      <c r="CA3" s="50"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="51"/>
+      <c r="CD3" s="49">
         <v>9</v>
       </c>
-      <c r="CE3" s="48"/>
-      <c r="CF3" s="48"/>
-      <c r="CG3" s="48"/>
-      <c r="CH3" s="48"/>
-      <c r="CI3" s="48"/>
-      <c r="CJ3" s="48"/>
-      <c r="CK3" s="48"/>
-      <c r="CL3" s="48"/>
-      <c r="CM3" s="48"/>
-      <c r="CN3" s="48"/>
-      <c r="CO3" s="48"/>
-      <c r="CP3" s="48"/>
-      <c r="CQ3" s="48"/>
-      <c r="CR3" s="48"/>
-      <c r="CS3" s="49"/>
-      <c r="CT3" s="47">
+      <c r="CE3" s="50"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
+      <c r="CI3" s="50"/>
+      <c r="CJ3" s="50"/>
+      <c r="CK3" s="50"/>
+      <c r="CL3" s="50"/>
+      <c r="CM3" s="50"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="50"/>
+      <c r="CP3" s="50"/>
+      <c r="CQ3" s="50"/>
+      <c r="CR3" s="50"/>
+      <c r="CS3" s="51"/>
+      <c r="CT3" s="49">
         <v>9</v>
       </c>
-      <c r="CU3" s="48"/>
-      <c r="CV3" s="48"/>
-      <c r="CW3" s="48"/>
-      <c r="CX3" s="48"/>
-      <c r="CY3" s="48"/>
-      <c r="CZ3" s="48"/>
-      <c r="DA3" s="48"/>
-      <c r="DB3" s="48"/>
-      <c r="DC3" s="48"/>
-      <c r="DD3" s="48"/>
-      <c r="DE3" s="48"/>
-      <c r="DF3" s="48"/>
-      <c r="DG3" s="48"/>
-      <c r="DH3" s="48"/>
-      <c r="DI3" s="49"/>
-      <c r="DJ3" s="47">
+      <c r="CU3" s="50"/>
+      <c r="CV3" s="50"/>
+      <c r="CW3" s="50"/>
+      <c r="CX3" s="50"/>
+      <c r="CY3" s="50"/>
+      <c r="CZ3" s="50"/>
+      <c r="DA3" s="50"/>
+      <c r="DB3" s="50"/>
+      <c r="DC3" s="50"/>
+      <c r="DD3" s="50"/>
+      <c r="DE3" s="50"/>
+      <c r="DF3" s="50"/>
+      <c r="DG3" s="50"/>
+      <c r="DH3" s="50"/>
+      <c r="DI3" s="51"/>
+      <c r="DJ3" s="49">
         <v>9</v>
       </c>
-      <c r="DK3" s="48"/>
-      <c r="DL3" s="48"/>
-      <c r="DM3" s="48"/>
-      <c r="DN3" s="48"/>
-      <c r="DO3" s="48"/>
-      <c r="DP3" s="48"/>
-      <c r="DQ3" s="48"/>
-      <c r="DR3" s="48"/>
-      <c r="DS3" s="48"/>
-      <c r="DT3" s="48"/>
-      <c r="DU3" s="48"/>
-      <c r="DV3" s="48"/>
-      <c r="DW3" s="48"/>
-      <c r="DX3" s="48"/>
-      <c r="DY3" s="49"/>
-      <c r="DZ3" s="50">
+      <c r="DK3" s="50"/>
+      <c r="DL3" s="50"/>
+      <c r="DM3" s="50"/>
+      <c r="DN3" s="50"/>
+      <c r="DO3" s="50"/>
+      <c r="DP3" s="50"/>
+      <c r="DQ3" s="50"/>
+      <c r="DR3" s="50"/>
+      <c r="DS3" s="50"/>
+      <c r="DT3" s="50"/>
+      <c r="DU3" s="50"/>
+      <c r="DV3" s="50"/>
+      <c r="DW3" s="50"/>
+      <c r="DX3" s="50"/>
+      <c r="DY3" s="51"/>
+      <c r="DZ3" s="52">
         <v>13</v>
       </c>
-      <c r="EA3" s="45"/>
-      <c r="EB3" s="45"/>
-      <c r="EC3" s="45"/>
-      <c r="ED3" s="45"/>
-      <c r="EE3" s="45"/>
-      <c r="EF3" s="45"/>
-      <c r="EG3" s="45"/>
-      <c r="EH3" s="45"/>
-      <c r="EI3" s="45"/>
-      <c r="EJ3" s="45"/>
-      <c r="EK3" s="45"/>
-      <c r="EL3" s="45"/>
-      <c r="EM3" s="45"/>
-      <c r="EN3" s="45"/>
-      <c r="EO3" s="46"/>
-      <c r="EP3" s="44">
+      <c r="EA3" s="47"/>
+      <c r="EB3" s="47"/>
+      <c r="EC3" s="47"/>
+      <c r="ED3" s="47"/>
+      <c r="EE3" s="47"/>
+      <c r="EF3" s="47"/>
+      <c r="EG3" s="47"/>
+      <c r="EH3" s="47"/>
+      <c r="EI3" s="47"/>
+      <c r="EJ3" s="47"/>
+      <c r="EK3" s="47"/>
+      <c r="EL3" s="47"/>
+      <c r="EM3" s="47"/>
+      <c r="EN3" s="47"/>
+      <c r="EO3" s="48"/>
+      <c r="EP3" s="46">
         <v>13</v>
       </c>
-      <c r="EQ3" s="45"/>
-      <c r="ER3" s="45"/>
-      <c r="ES3" s="45"/>
-      <c r="ET3" s="45"/>
-      <c r="EU3" s="45"/>
-      <c r="EV3" s="45"/>
-      <c r="EW3" s="45"/>
-      <c r="EX3" s="45"/>
-      <c r="EY3" s="45"/>
-      <c r="EZ3" s="45"/>
-      <c r="FA3" s="45"/>
-      <c r="FB3" s="45"/>
-      <c r="FC3" s="45"/>
-      <c r="FD3" s="45"/>
-      <c r="FE3" s="46"/>
-      <c r="FF3" s="44">
+      <c r="EQ3" s="47"/>
+      <c r="ER3" s="47"/>
+      <c r="ES3" s="47"/>
+      <c r="ET3" s="47"/>
+      <c r="EU3" s="47"/>
+      <c r="EV3" s="47"/>
+      <c r="EW3" s="47"/>
+      <c r="EX3" s="47"/>
+      <c r="EY3" s="47"/>
+      <c r="EZ3" s="47"/>
+      <c r="FA3" s="47"/>
+      <c r="FB3" s="47"/>
+      <c r="FC3" s="47"/>
+      <c r="FD3" s="47"/>
+      <c r="FE3" s="48"/>
+      <c r="FF3" s="46">
         <v>13</v>
       </c>
-      <c r="FG3" s="45"/>
-      <c r="FH3" s="45"/>
-      <c r="FI3" s="45"/>
-      <c r="FJ3" s="45"/>
-      <c r="FK3" s="45"/>
-      <c r="FL3" s="45"/>
-      <c r="FM3" s="45"/>
-      <c r="FN3" s="45"/>
-      <c r="FO3" s="45"/>
-      <c r="FP3" s="45"/>
-      <c r="FQ3" s="45"/>
-      <c r="FR3" s="45"/>
-      <c r="FS3" s="45"/>
-      <c r="FT3" s="45"/>
-      <c r="FU3" s="46"/>
-      <c r="FV3" s="44">
+      <c r="FG3" s="47"/>
+      <c r="FH3" s="47"/>
+      <c r="FI3" s="47"/>
+      <c r="FJ3" s="47"/>
+      <c r="FK3" s="47"/>
+      <c r="FL3" s="47"/>
+      <c r="FM3" s="47"/>
+      <c r="FN3" s="47"/>
+      <c r="FO3" s="47"/>
+      <c r="FP3" s="47"/>
+      <c r="FQ3" s="47"/>
+      <c r="FR3" s="47"/>
+      <c r="FS3" s="47"/>
+      <c r="FT3" s="47"/>
+      <c r="FU3" s="48"/>
+      <c r="FV3" s="46">
         <v>13</v>
       </c>
-      <c r="FW3" s="45"/>
-      <c r="FX3" s="45"/>
-      <c r="FY3" s="45"/>
-      <c r="FZ3" s="45"/>
-      <c r="GA3" s="45"/>
-      <c r="GB3" s="45"/>
-      <c r="GC3" s="45"/>
-      <c r="GD3" s="45"/>
-      <c r="GE3" s="45"/>
-      <c r="GF3" s="45"/>
-      <c r="GG3" s="45"/>
-      <c r="GH3" s="45"/>
-      <c r="GI3" s="45"/>
-      <c r="GJ3" s="45"/>
-      <c r="GK3" s="46"/>
-      <c r="GL3" s="44">
+      <c r="FW3" s="47"/>
+      <c r="FX3" s="47"/>
+      <c r="FY3" s="47"/>
+      <c r="FZ3" s="47"/>
+      <c r="GA3" s="47"/>
+      <c r="GB3" s="47"/>
+      <c r="GC3" s="47"/>
+      <c r="GD3" s="47"/>
+      <c r="GE3" s="47"/>
+      <c r="GF3" s="47"/>
+      <c r="GG3" s="47"/>
+      <c r="GH3" s="47"/>
+      <c r="GI3" s="47"/>
+      <c r="GJ3" s="47"/>
+      <c r="GK3" s="48"/>
+      <c r="GL3" s="46">
         <v>17</v>
       </c>
-      <c r="GM3" s="45"/>
-      <c r="GN3" s="45"/>
-      <c r="GO3" s="45"/>
-      <c r="GP3" s="45"/>
-      <c r="GQ3" s="45"/>
-      <c r="GR3" s="45"/>
-      <c r="GS3" s="45"/>
-      <c r="GT3" s="45"/>
-      <c r="GU3" s="45"/>
-      <c r="GV3" s="45"/>
-      <c r="GW3" s="45"/>
-      <c r="GX3" s="45"/>
-      <c r="GY3" s="45"/>
-      <c r="GZ3" s="45"/>
-      <c r="HA3" s="46"/>
-      <c r="HB3" s="44">
+      <c r="GM3" s="47"/>
+      <c r="GN3" s="47"/>
+      <c r="GO3" s="47"/>
+      <c r="GP3" s="47"/>
+      <c r="GQ3" s="47"/>
+      <c r="GR3" s="47"/>
+      <c r="GS3" s="47"/>
+      <c r="GT3" s="47"/>
+      <c r="GU3" s="47"/>
+      <c r="GV3" s="47"/>
+      <c r="GW3" s="47"/>
+      <c r="GX3" s="47"/>
+      <c r="GY3" s="47"/>
+      <c r="GZ3" s="47"/>
+      <c r="HA3" s="48"/>
+      <c r="HB3" s="46">
         <v>17</v>
       </c>
-      <c r="HC3" s="45"/>
-      <c r="HD3" s="45"/>
-      <c r="HE3" s="45"/>
-      <c r="HF3" s="45"/>
-      <c r="HG3" s="45"/>
-      <c r="HH3" s="45"/>
-      <c r="HI3" s="45"/>
-      <c r="HJ3" s="45"/>
-      <c r="HK3" s="45"/>
-      <c r="HL3" s="45"/>
-      <c r="HM3" s="45"/>
-      <c r="HN3" s="45"/>
-      <c r="HO3" s="45"/>
-      <c r="HP3" s="45"/>
-      <c r="HQ3" s="46"/>
-      <c r="HR3" s="44">
+      <c r="HC3" s="47"/>
+      <c r="HD3" s="47"/>
+      <c r="HE3" s="47"/>
+      <c r="HF3" s="47"/>
+      <c r="HG3" s="47"/>
+      <c r="HH3" s="47"/>
+      <c r="HI3" s="47"/>
+      <c r="HJ3" s="47"/>
+      <c r="HK3" s="47"/>
+      <c r="HL3" s="47"/>
+      <c r="HM3" s="47"/>
+      <c r="HN3" s="47"/>
+      <c r="HO3" s="47"/>
+      <c r="HP3" s="47"/>
+      <c r="HQ3" s="48"/>
+      <c r="HR3" s="46">
         <v>17</v>
       </c>
-      <c r="HS3" s="45"/>
-      <c r="HT3" s="45"/>
-      <c r="HU3" s="45"/>
-      <c r="HV3" s="45"/>
-      <c r="HW3" s="45"/>
-      <c r="HX3" s="45"/>
-      <c r="HY3" s="45"/>
-      <c r="HZ3" s="45"/>
-      <c r="IA3" s="45"/>
-      <c r="IB3" s="45"/>
-      <c r="IC3" s="45"/>
-      <c r="ID3" s="45"/>
-      <c r="IE3" s="45"/>
-      <c r="IF3" s="45"/>
-      <c r="IG3" s="46"/>
-      <c r="IH3" s="44">
+      <c r="HS3" s="47"/>
+      <c r="HT3" s="47"/>
+      <c r="HU3" s="47"/>
+      <c r="HV3" s="47"/>
+      <c r="HW3" s="47"/>
+      <c r="HX3" s="47"/>
+      <c r="HY3" s="47"/>
+      <c r="HZ3" s="47"/>
+      <c r="IA3" s="47"/>
+      <c r="IB3" s="47"/>
+      <c r="IC3" s="47"/>
+      <c r="ID3" s="47"/>
+      <c r="IE3" s="47"/>
+      <c r="IF3" s="47"/>
+      <c r="IG3" s="48"/>
+      <c r="IH3" s="46">
         <v>17</v>
       </c>
-      <c r="II3" s="45"/>
-      <c r="IJ3" s="45"/>
-      <c r="IK3" s="45"/>
-      <c r="IL3" s="45"/>
-      <c r="IM3" s="45"/>
-      <c r="IN3" s="45"/>
-      <c r="IO3" s="45"/>
-      <c r="IP3" s="45"/>
-      <c r="IQ3" s="45"/>
-      <c r="IR3" s="45"/>
-      <c r="IS3" s="45"/>
-      <c r="IT3" s="45"/>
-      <c r="IU3" s="45"/>
-      <c r="IV3" s="45"/>
-      <c r="IW3" s="46"/>
+      <c r="II3" s="47"/>
+      <c r="IJ3" s="47"/>
+      <c r="IK3" s="47"/>
+      <c r="IL3" s="47"/>
+      <c r="IM3" s="47"/>
+      <c r="IN3" s="47"/>
+      <c r="IO3" s="47"/>
+      <c r="IP3" s="47"/>
+      <c r="IQ3" s="47"/>
+      <c r="IR3" s="47"/>
+      <c r="IS3" s="47"/>
+      <c r="IT3" s="47"/>
+      <c r="IU3" s="47"/>
+      <c r="IV3" s="47"/>
+      <c r="IW3" s="48"/>
     </row>
     <row r="4" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="42" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="43" t="s">
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="42" t="s">
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="43" t="s">
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="42" t="s">
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="43" t="s">
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="42" t="s">
+      <c r="BG4" s="45"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="45"/>
+      <c r="BK4" s="45"/>
+      <c r="BL4" s="45"/>
+      <c r="BM4" s="45"/>
+      <c r="BN4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42"/>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="42"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="43" t="s">
+      <c r="BO4" s="44"/>
+      <c r="BP4" s="44"/>
+      <c r="BQ4" s="44"/>
+      <c r="BR4" s="44"/>
+      <c r="BS4" s="44"/>
+      <c r="BT4" s="44"/>
+      <c r="BU4" s="44"/>
+      <c r="BV4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="BW4" s="43"/>
-      <c r="BX4" s="43"/>
-      <c r="BY4" s="43"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="43"/>
-      <c r="CB4" s="43"/>
-      <c r="CC4" s="43"/>
-      <c r="CD4" s="42" t="s">
+      <c r="BW4" s="45"/>
+      <c r="BX4" s="45"/>
+      <c r="BY4" s="45"/>
+      <c r="BZ4" s="45"/>
+      <c r="CA4" s="45"/>
+      <c r="CB4" s="45"/>
+      <c r="CC4" s="45"/>
+      <c r="CD4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="CE4" s="42"/>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="42"/>
-      <c r="CH4" s="42"/>
-      <c r="CI4" s="42"/>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="42"/>
-      <c r="CL4" s="43" t="s">
+      <c r="CE4" s="44"/>
+      <c r="CF4" s="44"/>
+      <c r="CG4" s="44"/>
+      <c r="CH4" s="44"/>
+      <c r="CI4" s="44"/>
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="44"/>
+      <c r="CL4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="CM4" s="43"/>
-      <c r="CN4" s="43"/>
-      <c r="CO4" s="43"/>
-      <c r="CP4" s="43"/>
-      <c r="CQ4" s="43"/>
-      <c r="CR4" s="43"/>
-      <c r="CS4" s="43"/>
-      <c r="CT4" s="42" t="s">
+      <c r="CM4" s="45"/>
+      <c r="CN4" s="45"/>
+      <c r="CO4" s="45"/>
+      <c r="CP4" s="45"/>
+      <c r="CQ4" s="45"/>
+      <c r="CR4" s="45"/>
+      <c r="CS4" s="45"/>
+      <c r="CT4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="CU4" s="42"/>
-      <c r="CV4" s="42"/>
-      <c r="CW4" s="42"/>
-      <c r="CX4" s="42"/>
-      <c r="CY4" s="42"/>
-      <c r="CZ4" s="42"/>
-      <c r="DA4" s="42"/>
-      <c r="DB4" s="43" t="s">
+      <c r="CU4" s="44"/>
+      <c r="CV4" s="44"/>
+      <c r="CW4" s="44"/>
+      <c r="CX4" s="44"/>
+      <c r="CY4" s="44"/>
+      <c r="CZ4" s="44"/>
+      <c r="DA4" s="44"/>
+      <c r="DB4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="DC4" s="43"/>
-      <c r="DD4" s="43"/>
-      <c r="DE4" s="43"/>
-      <c r="DF4" s="43"/>
-      <c r="DG4" s="43"/>
-      <c r="DH4" s="43"/>
-      <c r="DI4" s="43"/>
-      <c r="DJ4" s="42" t="s">
+      <c r="DC4" s="45"/>
+      <c r="DD4" s="45"/>
+      <c r="DE4" s="45"/>
+      <c r="DF4" s="45"/>
+      <c r="DG4" s="45"/>
+      <c r="DH4" s="45"/>
+      <c r="DI4" s="45"/>
+      <c r="DJ4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="DK4" s="42"/>
-      <c r="DL4" s="42"/>
-      <c r="DM4" s="42"/>
-      <c r="DN4" s="42"/>
-      <c r="DO4" s="42"/>
-      <c r="DP4" s="42"/>
-      <c r="DQ4" s="42"/>
-      <c r="DR4" s="43" t="s">
+      <c r="DK4" s="44"/>
+      <c r="DL4" s="44"/>
+      <c r="DM4" s="44"/>
+      <c r="DN4" s="44"/>
+      <c r="DO4" s="44"/>
+      <c r="DP4" s="44"/>
+      <c r="DQ4" s="44"/>
+      <c r="DR4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="DS4" s="43"/>
-      <c r="DT4" s="43"/>
-      <c r="DU4" s="43"/>
-      <c r="DV4" s="43"/>
-      <c r="DW4" s="43"/>
-      <c r="DX4" s="43"/>
-      <c r="DY4" s="43"/>
-      <c r="DZ4" s="42" t="s">
+      <c r="DS4" s="45"/>
+      <c r="DT4" s="45"/>
+      <c r="DU4" s="45"/>
+      <c r="DV4" s="45"/>
+      <c r="DW4" s="45"/>
+      <c r="DX4" s="45"/>
+      <c r="DY4" s="45"/>
+      <c r="DZ4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="EA4" s="42"/>
-      <c r="EB4" s="42"/>
-      <c r="EC4" s="42"/>
-      <c r="ED4" s="42"/>
-      <c r="EE4" s="42"/>
-      <c r="EF4" s="42"/>
-      <c r="EG4" s="42"/>
-      <c r="EH4" s="43" t="s">
+      <c r="EA4" s="44"/>
+      <c r="EB4" s="44"/>
+      <c r="EC4" s="44"/>
+      <c r="ED4" s="44"/>
+      <c r="EE4" s="44"/>
+      <c r="EF4" s="44"/>
+      <c r="EG4" s="44"/>
+      <c r="EH4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="EI4" s="43"/>
-      <c r="EJ4" s="43"/>
-      <c r="EK4" s="43"/>
-      <c r="EL4" s="43"/>
-      <c r="EM4" s="43"/>
-      <c r="EN4" s="43"/>
-      <c r="EO4" s="43"/>
-      <c r="EP4" s="42" t="s">
+      <c r="EI4" s="45"/>
+      <c r="EJ4" s="45"/>
+      <c r="EK4" s="45"/>
+      <c r="EL4" s="45"/>
+      <c r="EM4" s="45"/>
+      <c r="EN4" s="45"/>
+      <c r="EO4" s="45"/>
+      <c r="EP4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="EQ4" s="42"/>
-      <c r="ER4" s="42"/>
-      <c r="ES4" s="42"/>
-      <c r="ET4" s="42"/>
-      <c r="EU4" s="42"/>
-      <c r="EV4" s="42"/>
-      <c r="EW4" s="42"/>
-      <c r="EX4" s="43" t="s">
+      <c r="EQ4" s="44"/>
+      <c r="ER4" s="44"/>
+      <c r="ES4" s="44"/>
+      <c r="ET4" s="44"/>
+      <c r="EU4" s="44"/>
+      <c r="EV4" s="44"/>
+      <c r="EW4" s="44"/>
+      <c r="EX4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="EY4" s="43"/>
-      <c r="EZ4" s="43"/>
-      <c r="FA4" s="43"/>
-      <c r="FB4" s="43"/>
-      <c r="FC4" s="43"/>
-      <c r="FD4" s="43"/>
-      <c r="FE4" s="43"/>
-      <c r="FF4" s="42" t="s">
+      <c r="EY4" s="45"/>
+      <c r="EZ4" s="45"/>
+      <c r="FA4" s="45"/>
+      <c r="FB4" s="45"/>
+      <c r="FC4" s="45"/>
+      <c r="FD4" s="45"/>
+      <c r="FE4" s="45"/>
+      <c r="FF4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="FG4" s="42"/>
-      <c r="FH4" s="42"/>
-      <c r="FI4" s="42"/>
-      <c r="FJ4" s="42"/>
-      <c r="FK4" s="42"/>
-      <c r="FL4" s="42"/>
-      <c r="FM4" s="42"/>
-      <c r="FN4" s="43" t="s">
+      <c r="FG4" s="44"/>
+      <c r="FH4" s="44"/>
+      <c r="FI4" s="44"/>
+      <c r="FJ4" s="44"/>
+      <c r="FK4" s="44"/>
+      <c r="FL4" s="44"/>
+      <c r="FM4" s="44"/>
+      <c r="FN4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="FO4" s="43"/>
-      <c r="FP4" s="43"/>
-      <c r="FQ4" s="43"/>
-      <c r="FR4" s="43"/>
-      <c r="FS4" s="43"/>
-      <c r="FT4" s="43"/>
-      <c r="FU4" s="43"/>
-      <c r="FV4" s="42" t="s">
+      <c r="FO4" s="45"/>
+      <c r="FP4" s="45"/>
+      <c r="FQ4" s="45"/>
+      <c r="FR4" s="45"/>
+      <c r="FS4" s="45"/>
+      <c r="FT4" s="45"/>
+      <c r="FU4" s="45"/>
+      <c r="FV4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="FW4" s="42"/>
-      <c r="FX4" s="42"/>
-      <c r="FY4" s="42"/>
-      <c r="FZ4" s="42"/>
-      <c r="GA4" s="42"/>
-      <c r="GB4" s="42"/>
-      <c r="GC4" s="42"/>
-      <c r="GD4" s="43" t="s">
+      <c r="FW4" s="44"/>
+      <c r="FX4" s="44"/>
+      <c r="FY4" s="44"/>
+      <c r="FZ4" s="44"/>
+      <c r="GA4" s="44"/>
+      <c r="GB4" s="44"/>
+      <c r="GC4" s="44"/>
+      <c r="GD4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="GE4" s="43"/>
-      <c r="GF4" s="43"/>
-      <c r="GG4" s="43"/>
-      <c r="GH4" s="43"/>
-      <c r="GI4" s="43"/>
-      <c r="GJ4" s="43"/>
-      <c r="GK4" s="43"/>
-      <c r="GL4" s="42" t="s">
+      <c r="GE4" s="45"/>
+      <c r="GF4" s="45"/>
+      <c r="GG4" s="45"/>
+      <c r="GH4" s="45"/>
+      <c r="GI4" s="45"/>
+      <c r="GJ4" s="45"/>
+      <c r="GK4" s="45"/>
+      <c r="GL4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="GM4" s="42"/>
-      <c r="GN4" s="42"/>
-      <c r="GO4" s="42"/>
-      <c r="GP4" s="42"/>
-      <c r="GQ4" s="42"/>
-      <c r="GR4" s="42"/>
-      <c r="GS4" s="42"/>
-      <c r="GT4" s="43" t="s">
+      <c r="GM4" s="44"/>
+      <c r="GN4" s="44"/>
+      <c r="GO4" s="44"/>
+      <c r="GP4" s="44"/>
+      <c r="GQ4" s="44"/>
+      <c r="GR4" s="44"/>
+      <c r="GS4" s="44"/>
+      <c r="GT4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="GU4" s="43"/>
-      <c r="GV4" s="43"/>
-      <c r="GW4" s="43"/>
-      <c r="GX4" s="43"/>
-      <c r="GY4" s="43"/>
-      <c r="GZ4" s="43"/>
-      <c r="HA4" s="43"/>
-      <c r="HB4" s="42" t="s">
+      <c r="GU4" s="45"/>
+      <c r="GV4" s="45"/>
+      <c r="GW4" s="45"/>
+      <c r="GX4" s="45"/>
+      <c r="GY4" s="45"/>
+      <c r="GZ4" s="45"/>
+      <c r="HA4" s="45"/>
+      <c r="HB4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="HC4" s="42"/>
-      <c r="HD4" s="42"/>
-      <c r="HE4" s="42"/>
-      <c r="HF4" s="42"/>
-      <c r="HG4" s="42"/>
-      <c r="HH4" s="42"/>
-      <c r="HI4" s="42"/>
-      <c r="HJ4" s="43" t="s">
+      <c r="HC4" s="44"/>
+      <c r="HD4" s="44"/>
+      <c r="HE4" s="44"/>
+      <c r="HF4" s="44"/>
+      <c r="HG4" s="44"/>
+      <c r="HH4" s="44"/>
+      <c r="HI4" s="44"/>
+      <c r="HJ4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="HK4" s="43"/>
-      <c r="HL4" s="43"/>
-      <c r="HM4" s="43"/>
-      <c r="HN4" s="43"/>
-      <c r="HO4" s="43"/>
-      <c r="HP4" s="43"/>
-      <c r="HQ4" s="43"/>
-      <c r="HR4" s="42" t="s">
+      <c r="HK4" s="45"/>
+      <c r="HL4" s="45"/>
+      <c r="HM4" s="45"/>
+      <c r="HN4" s="45"/>
+      <c r="HO4" s="45"/>
+      <c r="HP4" s="45"/>
+      <c r="HQ4" s="45"/>
+      <c r="HR4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="HS4" s="42"/>
-      <c r="HT4" s="42"/>
-      <c r="HU4" s="42"/>
-      <c r="HV4" s="42"/>
-      <c r="HW4" s="42"/>
-      <c r="HX4" s="42"/>
-      <c r="HY4" s="42"/>
-      <c r="HZ4" s="43" t="s">
+      <c r="HS4" s="44"/>
+      <c r="HT4" s="44"/>
+      <c r="HU4" s="44"/>
+      <c r="HV4" s="44"/>
+      <c r="HW4" s="44"/>
+      <c r="HX4" s="44"/>
+      <c r="HY4" s="44"/>
+      <c r="HZ4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="IA4" s="43"/>
-      <c r="IB4" s="43"/>
-      <c r="IC4" s="43"/>
-      <c r="ID4" s="43"/>
-      <c r="IE4" s="43"/>
-      <c r="IF4" s="43"/>
-      <c r="IG4" s="43"/>
-      <c r="IH4" s="42" t="s">
+      <c r="IA4" s="45"/>
+      <c r="IB4" s="45"/>
+      <c r="IC4" s="45"/>
+      <c r="ID4" s="45"/>
+      <c r="IE4" s="45"/>
+      <c r="IF4" s="45"/>
+      <c r="IG4" s="45"/>
+      <c r="IH4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="II4" s="42"/>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="43" t="s">
+      <c r="II4" s="44"/>
+      <c r="IJ4" s="44"/>
+      <c r="IK4" s="44"/>
+      <c r="IL4" s="44"/>
+      <c r="IM4" s="44"/>
+      <c r="IN4" s="44"/>
+      <c r="IO4" s="44"/>
+      <c r="IP4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="IQ4" s="43"/>
-      <c r="IR4" s="43"/>
-      <c r="IS4" s="43"/>
-      <c r="IT4" s="43"/>
-      <c r="IU4" s="43"/>
-      <c r="IV4" s="43"/>
-      <c r="IW4" s="43"/>
+      <c r="IQ4" s="45"/>
+      <c r="IR4" s="45"/>
+      <c r="IS4" s="45"/>
+      <c r="IT4" s="45"/>
+      <c r="IU4" s="45"/>
+      <c r="IV4" s="45"/>
+      <c r="IW4" s="45"/>
     </row>
     <row r="5" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -28967,12 +28876,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34457C1F-16A1-2E47-82DD-6A9CAEA6B476}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="I5" sqref="A1:I5"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29130,7 +29039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC207F0E-65E5-C544-8BA0-D27121ACF2FF}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -29288,4 +29197,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D89E28-915C-F54C-B37A-2FAB20B0DB56}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="13">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/OurData.xlsx
+++ b/Data/OurData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61B20A8-11A9-9C4E-91A2-9FAC90A5F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D0B25A-C9CE-A84E-90F6-03F38DC60C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" activeTab="6" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="5" activeTab="14" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -54,8 +54,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="362">
   <si>
     <t>ID</t>
   </si>
@@ -147,9 +169,6 @@
     <t>Loss rate</t>
   </si>
   <si>
-    <t>Allowed percentage</t>
-  </si>
-  <si>
     <t>Gamma</t>
   </si>
   <si>
@@ -675,9 +694,6 @@
     <t>Ormen Lange PL-A</t>
   </si>
   <si>
-    <t>ORMEN LANGE</t>
-  </si>
-  <si>
     <t>A/S Norske Shell</t>
   </si>
   <si>
@@ -840,9 +856,6 @@
     <t>ConocoPhillips Skandinavia AS</t>
   </si>
   <si>
-    <t>SLEINER R</t>
-  </si>
-  <si>
     <t>Lundin Energy Norway AS</t>
   </si>
   <si>
@@ -1132,6 +1145,24 @@
   </si>
   <si>
     <t>LINESTRING (7.32514696267687 53.678990373954015, 7.4018391191549755 53.6736910140084, 7.457720037063928 53.69159219597222, 7.3912040184029255 53.80023307253265, 7.385839745862257 53.804597159626695, 7.376585359132399 53.80937321896535, 7.207379156798347 53.86794435123968, 7.196257682974817 53.873948430963466, 7.189033325096543 53.87948353680844, 7.1828019512158905 53.88638469845168, 7.179239668743901 53.892571865029815, 7.07287915992026 54.238568222291235, 6.954123952986654 54.618748694382255, 6.951744735480611 54.62355083050632, 6.9475274407248255 54.629238976605, 6.91435341083016 54.66494882157537, 6.844013037278041 54.77318271501995, 6.82572387531898 54.79395421902926, 6.822869642321458 54.798776351217526, 6.82105105899166 54.81517188666376, 6.817557502901281 54.82935532914016, 6.8184742056092515 54.83919367254637, 6.822799022993953 54.84828902798043, 6.851084508911495 54.88695264766349, 6.853805318302932 54.89497494962288, 6.853867156811409 54.8999491191781, 6.852907985843898 54.90438225926019, 6.762586539463472 55.14724854526278, 6.732610119020615 55.225489892557896, 6.7192063448907815 55.2675981877146, 6.659437622153171 55.41888172462993, 6.55948781700785 55.68425977905299)</t>
+  </si>
+  <si>
+    <t>Maximum Production</t>
+  </si>
+  <si>
+    <t>Minimum Volume</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Allowed percentage Stage 1</t>
+  </si>
+  <si>
+    <t>Allowed percentage Stage 2</t>
+  </si>
+  <si>
+    <t>Allowed percentage Stage 3</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1430,6 +1461,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1438,7 +1478,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -1502,6 +1542,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1517,15 +1559,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1536,6 +1569,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1922,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,13 +1992,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>131</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>132</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>2</v>
@@ -1965,13 +2007,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>13</v>
@@ -1980,10 +2022,10 @@
         <v>14</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1994,22 +2036,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>136</v>
-      </c>
       <c r="F2" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="1">
         <v>48.1</v>
@@ -2038,25 +2080,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="I3" s="1">
         <v>5</v>
@@ -2085,25 +2127,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I4" s="1">
         <v>70</v>
@@ -2135,22 +2177,22 @@
         <v>12</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="I5" s="1">
         <v>46</v>
@@ -2182,22 +2224,22 @@
         <v>12</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" s="1">
         <v>46</v>
@@ -2226,25 +2268,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I7" s="1">
         <v>71</v>
@@ -2273,25 +2315,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I8" s="1">
         <v>71</v>
@@ -2323,22 +2365,22 @@
         <v>11</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="I9" s="1">
         <v>55</v>
@@ -2367,25 +2409,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I10" s="1">
         <v>27</v>
@@ -2417,22 +2459,22 @@
         <v>7</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="I11" s="1">
         <v>75</v>
@@ -2464,22 +2506,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="I12" s="1">
         <v>72</v>
@@ -2508,25 +2550,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="I13" s="1">
         <v>7</v>
@@ -2555,25 +2597,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="F14" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="I14" s="1">
         <v>32</v>
@@ -2602,25 +2644,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="I15" s="1">
         <v>32</v>
@@ -2649,25 +2691,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I16" s="1">
         <v>32</v>
@@ -2696,25 +2738,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I17" s="1">
         <v>32</v>
@@ -2743,25 +2785,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="F18" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="I18" s="1">
         <v>35</v>
@@ -2793,22 +2835,22 @@
         <v>10</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="I19" s="1">
         <v>25</v>
@@ -2840,22 +2882,22 @@
         <v>10</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
@@ -2887,22 +2929,22 @@
         <v>10</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I21" s="1">
         <v>21</v>
@@ -2934,22 +2976,22 @@
         <v>10</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I22" s="1">
         <v>30</v>
@@ -2981,22 +3023,22 @@
         <v>10</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>87</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I23" s="1">
         <v>25</v>
@@ -3028,22 +3070,22 @@
         <v>5</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I24" s="1">
         <v>13.5</v>
@@ -3075,22 +3117,22 @@
         <v>6</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I25" s="1">
         <v>39</v>
@@ -3119,25 +3161,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="19" t="s">
+      <c r="F26" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="I26" s="1">
         <v>55</v>
@@ -3166,25 +3208,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>182</v>
-      </c>
       <c r="F27" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I27" s="1">
         <v>42</v>
@@ -3216,22 +3258,22 @@
         <v>8</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="I28" s="1">
         <v>74</v>
@@ -3263,22 +3305,22 @@
         <v>9</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="I29" s="1">
         <v>73</v>
@@ -3307,25 +3349,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="19" t="s">
+      <c r="H30" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="I30" s="1">
         <v>17</v>
@@ -3354,25 +3396,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C31" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="F31" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
@@ -3401,25 +3443,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="I32" s="1">
         <v>291.7</v>
@@ -3448,25 +3490,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="F33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="I33" s="1">
         <v>5</v>
@@ -3495,25 +3537,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="I34" s="1">
         <v>11</v>
@@ -3542,25 +3584,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="I35" s="1">
         <v>5</v>
@@ -3589,25 +3631,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="I36" s="1">
         <v>48.1</v>
@@ -3636,25 +3678,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>207</v>
-      </c>
       <c r="D37" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I37" s="1">
         <v>61</v>
@@ -3683,25 +3725,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -3730,25 +3772,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="I39" s="1">
         <v>70</v>
@@ -3777,25 +3819,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C40" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="I40" s="1">
         <v>48.1</v>
@@ -3824,25 +3866,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>245</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I41" s="1">
         <v>119.1</v>
@@ -3871,25 +3913,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F42" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="19" t="s">
-        <v>92</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I42" s="1">
         <v>110</v>
@@ -3918,25 +3960,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F43" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="19" t="s">
-        <v>92</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -3965,25 +4007,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F44" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G44" s="19" t="s">
-        <v>92</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -4012,25 +4054,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I45" s="1">
         <v>5</v>
@@ -4059,25 +4101,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>182</v>
-      </c>
       <c r="F46" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I46" s="1">
         <v>55</v>
@@ -4106,19 +4148,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I47" s="21">
         <v>32</v>
@@ -4147,19 +4189,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="20" t="s">
-        <v>126</v>
-      </c>
       <c r="H48" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I48" s="21">
         <v>52</v>
@@ -4188,19 +4230,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I49" s="21">
         <v>32</v>
@@ -4229,19 +4271,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I50" s="21">
         <v>48</v>
@@ -4270,19 +4312,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I51" s="21">
         <v>33</v>
@@ -4311,13 +4353,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F52" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="32" t="s">
         <v>124</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>125</v>
       </c>
       <c r="I52" s="33">
         <v>100</v>
@@ -4346,13 +4388,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F53" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="I53" s="33">
         <v>100</v>
@@ -4385,10 +4427,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F599A445-15C0-AB40-A0A7-7DAECA950535}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4405,114 +4447,148 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C1" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>265</v>
-      </c>
       <c r="H1" s="27" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>206</v>
+      <c r="A2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="D5" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D8" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" s="26" t="s">
-        <v>261</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" cm="1">
+        <f t="array" ref="A15">SUM(IF(ISNUMBER(VLOOKUP(A2:A13,Nodes!$B$3:$I$64,8)),VLOOKUP(A2:A13,Nodes!$B$3:$I$64,8)))</f>
+        <v>32.633767123287676</v>
+      </c>
+      <c r="B15" cm="1">
+        <f t="array" ref="B15">SUM(IF(ISNUMBER(VLOOKUP(B2:B13,Nodes!$B$3:$I$64,8)),VLOOKUP(B2:B13,Nodes!$B$3:$I$64,8)))</f>
+        <v>16.798879452054791</v>
+      </c>
+      <c r="C15" cm="1">
+        <f t="array" ref="C15">SUM(IF(ISNUMBER(VLOOKUP(C2:C13,Nodes!$B$3:$I$64,8)),VLOOKUP(C2:C13,Nodes!$B$3:$I$64,8)))</f>
+        <v>3.8482712328767121</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">SUM(IF(ISNUMBER(VLOOKUP(D2:D13,Nodes!$B$3:$I$64,8)),VLOOKUP(D2:D13,Nodes!$B$3:$I$64,8)))</f>
+        <v>192.19259726027397</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15">SUM(IF(ISNUMBER(VLOOKUP(E2:E13,Nodes!$B$3:$I$64,8)),VLOOKUP(E2:E13,Nodes!$B$3:$I$64,8)))</f>
+        <v>4.0645178082191773</v>
+      </c>
+      <c r="F15" s="42" cm="1">
+        <f t="array" ref="F15">SUM(IF(ISNUMBER(VLOOKUP(F2:F13,Nodes!$B$3:$I$64,8)),VLOOKUP(F2:F13,Nodes!$B$3:$I$64,8)))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="42" cm="1">
+        <f t="array" ref="G15">SUM(IF(ISNUMBER(VLOOKUP(G2:G13,Nodes!$B$3:$I$64,8)),VLOOKUP(G2:G13,Nodes!$B$3:$I$64,8)))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="42" cm="1">
+        <f t="array" ref="H15">SUM(IF(ISNUMBER(VLOOKUP(H2:H13,Nodes!$B$3:$I$64,8)),VLOOKUP(H2:H13,Nodes!$B$3:$I$64,8)))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4522,10 +4598,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7B38E3-302C-2E43-9786-274195CEF373}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4539,40 +4615,48 @@
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4598,10 +4682,18 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <f>HLOOKUP(A2,Traders!$A$1:$H$15,15,)</f>
+        <v>32.633767123287676</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2">SUM(B2:I2*MAX('Demand Stage 1'!$B$5:$I$8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4627,127 +4719,167 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <f>HLOOKUP(A3,Traders!$A$1:$H$15,15,)</f>
+        <v>16.798879452054791</v>
+      </c>
+      <c r="L3" cm="1">
+        <f t="array" ref="L3">SUM(B3:I3*MAX('Demand Stage 1'!$B$5:$I$8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>HLOOKUP(A4,Traders!$A$1:$H$15,15,)</f>
+        <v>3.8482712328767121</v>
+      </c>
+      <c r="L4" cm="1">
+        <f t="array" ref="L4">SUM(B4:I4*MAX('Demand Stage 1'!$B$5:$I$8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>HLOOKUP(A5,Traders!$A$1:$H$15,15,)</f>
+        <v>192.19259726027397</v>
+      </c>
+      <c r="L5" cm="1">
+        <f t="array" ref="L5">SUM(B5:I5*MAX('Demand Stage 1'!$B$5:$I$8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>HLOOKUP(A6,Traders!$A$1:$H$15,15,)</f>
+        <v>4.0645178082191773</v>
+      </c>
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">SUM(B6:I6*MAX('Demand Stage 1'!$B$5:$I$8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>260</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>HLOOKUP(A7,Traders!$A$1:$H$15,15,)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">SUM(B7:I7*MAX('Demand Stage 1'!$B$5:$I$8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>262</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>265</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
@@ -4772,37 +4904,57 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <f>HLOOKUP(A8,Traders!$A$1:$H$15,15,)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">SUM(B8:I8*MAX('Demand Stage 1'!$B$5:$I$8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="41">
+        <v>0</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0</v>
+      </c>
+      <c r="F9" s="41">
+        <v>0</v>
+      </c>
+      <c r="G9" s="41">
+        <v>0</v>
+      </c>
+      <c r="H9" s="41">
+        <v>0</v>
+      </c>
+      <c r="I9" s="41">
+        <v>0</v>
+      </c>
+      <c r="J9" s="41"/>
+      <c r="K9">
+        <f>HLOOKUP(A9,Traders!$A$1:$H$15,15,)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="41" cm="1">
+        <f t="array" ref="L9">SUM(B9:I9*MAX('Demand Stage 1'!$B$5:$I$8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>358</v>
+      </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
         <v>0</v>
@@ -4833,6 +4985,10 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">SUM(B10:I10*MAX('Demand Stage 1'!$B$5:$I$8))</f>
         <v>0</v>
       </c>
     </row>
@@ -4895,10 +5051,10 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4958,8 +5114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA935FD-94E0-3546-BCCF-D34968C9C73A}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F51" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4972,22 +5128,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>2</v>
@@ -4995,7 +5151,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B2" s="35">
         <v>8889.5949999999993</v>
@@ -5007,16 +5163,16 @@
         <v>8749.3649999999998</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2">
-        <f>B2/365</f>
-        <v>24.355054794520544</v>
+        <f>D2/365</f>
+        <v>23.970863013698629</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B3" s="35">
         <v>1329.308</v>
@@ -5028,19 +5184,19 @@
         <v>593.24699999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F51" si="0">B3/365</f>
-        <v>3.6419397260273971</v>
+        <f t="shared" ref="F3:F51" si="0">D3/365</f>
+        <v>1.6253342465753424</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -5048,16 +5204,16 @@
         <v>6606.7179999999998</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.100597260273972</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B5" s="35">
         <v>0</v>
@@ -5070,15 +5226,15 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0791780821917809E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B6" s="35">
         <v>48.064999999999998</v>
@@ -5090,16 +5246,16 @@
         <v>130.86000000000001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.13168493150684932</v>
+        <v>0.35852054794520549</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B7" s="35">
         <v>0</v>
@@ -5111,16 +5267,16 @@
         <v>3.72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0191780821917809E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B8" s="35">
         <v>0</v>
@@ -5130,19 +5286,19 @@
       </c>
       <c r="D8" s="35"/>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B9" s="35">
         <v>471.73399999999998</v>
@@ -5154,16 +5310,16 @@
         <v>449.49099999999999</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.292421917808219</v>
+        <v>1.2314821917808219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B10" s="35">
         <v>578.78499999999997</v>
@@ -5175,16 +5331,16 @@
         <v>738.14400000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>1.5857123287671231</v>
+        <v>2.0223123287671232</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B11" s="35">
         <v>222.233</v>
@@ -5196,19 +5352,19 @@
         <v>247.51400000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.6088575342465754</v>
+        <v>0.67812054794520549</v>
       </c>
       <c r="H11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B12" s="35">
         <v>1282.3420000000001</v>
@@ -5220,19 +5376,19 @@
         <v>1162.1959999999999</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>3.5132657534246579</v>
+        <v>3.1840986301369862</v>
       </c>
       <c r="H12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B13" s="35">
         <v>2811.1990000000001</v>
@@ -5244,19 +5400,19 @@
         <v>247.86099999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>7.7019150684931512</v>
+        <v>0.67907123287671234</v>
       </c>
       <c r="H13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B14" s="35">
         <v>2588.0810000000001</v>
@@ -5268,16 +5424,16 @@
         <v>2344.2719999999999</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>7.0906328767123288</v>
+        <v>6.4226630136986298</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B15" s="35">
         <v>1214.5999999999999</v>
@@ -5289,19 +5445,19 @@
         <v>1325.316</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>3.3276712328767122</v>
+        <v>3.6310027397260276</v>
       </c>
       <c r="H15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B16" s="35">
         <v>0</v>
@@ -5317,12 +5473,12 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B17" s="35">
         <v>5570.9179999999997</v>
@@ -5334,19 +5490,19 @@
         <v>4876.4679999999998</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>15.262789041095889</v>
-      </c>
-      <c r="H17" t="s">
-        <v>336</v>
+        <v>13.360186301369863</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B18" s="35">
         <v>1910.729</v>
@@ -5358,16 +5514,16 @@
         <v>1540.9349999999999</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>5.23487397260274</v>
+        <v>4.2217397260273968</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19" s="35">
         <v>0</v>
@@ -5379,16 +5535,16 @@
         <v>26.434999999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2424657534246567E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" s="35">
         <v>35.110999999999997</v>
@@ -5400,19 +5556,19 @@
         <v>4.6120000000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>9.6194520547945195E-2</v>
+        <v>1.2635616438356164E-2</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B21" s="35">
         <v>291.70999999999998</v>
@@ -5424,19 +5580,19 @@
         <v>440.81099999999998</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0.79920547945205478</v>
+        <v>1.2077013698630137</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B22" s="35">
         <v>1041.0509999999999</v>
@@ -5448,16 +5604,16 @@
         <v>841.24800000000005</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>2.8521945205479451</v>
+        <v>2.3047890410958907</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B23" s="35">
         <v>508.40300000000002</v>
@@ -5469,19 +5625,19 @@
         <v>657.03899999999999</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>1.3928849315068494</v>
+        <v>1.8001068493150685</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B24" s="35">
         <v>2844.82</v>
@@ -5493,16 +5649,16 @@
         <v>4181.5940000000001</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>7.7940273972602743</v>
+        <v>11.456421917808219</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B25" s="35">
         <v>2628.125</v>
@@ -5512,16 +5668,16 @@
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>7.2003424657534243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B26" s="35">
         <v>569.45500000000004</v>
@@ -5533,19 +5689,19 @@
         <v>577.52499999999998</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>1.560150684931507</v>
+        <v>1.5822602739726026</v>
       </c>
       <c r="H26" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B27" s="35">
         <v>68.573999999999998</v>
@@ -5557,19 +5713,19 @@
         <v>326.358</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>0.18787397260273972</v>
+        <v>0.89413150684931508</v>
       </c>
       <c r="H27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B28" s="35">
         <v>0</v>
@@ -5585,7 +5741,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B29" s="35">
         <v>0</v>
@@ -5601,7 +5757,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B30" s="35">
         <v>9559.6110000000008</v>
@@ -5613,16 +5769,16 @@
         <v>11911.325000000001</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>26.190715068493152</v>
+        <v>32.633767123287676</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B31" s="35">
         <v>6523.8289999999997</v>
@@ -5634,16 +5790,16 @@
         <v>3468.5250000000001</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>17.873504109589039</v>
+        <v>9.5028082191780818</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B32" s="35">
         <v>4.6669999999999998</v>
@@ -5655,16 +5811,16 @@
         <v>8.0749999999999993</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>1.2786301369863013E-2</v>
+        <v>2.2123287671232873E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B33" s="35">
         <v>6523.8289999999997</v>
@@ -5676,16 +5832,16 @@
         <v>698.84699999999998</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>17.873504109589039</v>
+        <v>1.9146493150684931</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B34" s="35">
         <v>6162.7870000000003</v>
@@ -5697,16 +5853,16 @@
         <v>3243.4229999999998</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>16.88434794520548</v>
+        <v>8.8860904109589036</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B35" s="35">
         <v>76.070999999999998</v>
@@ -5718,16 +5874,16 @@
         <v>145.56899999999999</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>0.20841369863013698</v>
+        <v>0.39881917808219175</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B36" s="35">
         <v>1334.021</v>
@@ -5739,16 +5895,16 @@
         <v>2270.2930000000001</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>3.6548520547945205</v>
+        <v>6.219980821917809</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B37" s="35">
         <v>3689.7310000000002</v>
@@ -5760,16 +5916,16 @@
         <v>3776.0549999999998</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>10.108852054794522</v>
+        <v>10.345356164383562</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B38" s="35">
         <v>0</v>
@@ -5785,12 +5941,12 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B39" s="35">
         <v>0</v>
@@ -5806,7 +5962,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B40" s="35">
         <v>686.33399999999995</v>
@@ -5818,16 +5974,16 @@
         <v>932.529</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>1.8803671232876711</v>
+        <v>2.5548739726027399</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B41" s="35">
         <v>85.117999999999995</v>
@@ -5839,19 +5995,19 @@
         <v>40.765999999999998</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>0.23319999999999999</v>
+        <v>0.11168767123287671</v>
       </c>
       <c r="H41" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B42" s="35">
         <v>0</v>
@@ -5869,7 +6025,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B43" s="35">
         <v>39787.256999999998</v>
@@ -5881,16 +6037,16 @@
         <v>35059.578000000001</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>109.00618356164382</v>
+        <v>96.053638356164385</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B44" s="35">
         <v>3093.8470000000002</v>
@@ -5902,19 +6058,19 @@
         <v>2983.739</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>8.4762931506849313</v>
+        <v>8.1746273972602737</v>
       </c>
       <c r="H44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B45" s="35">
         <v>0</v>
@@ -5932,7 +6088,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B46" s="35">
         <v>503.95400000000001</v>
@@ -5944,19 +6100,19 @@
         <v>1023.092</v>
       </c>
       <c r="E46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>1.380695890410959</v>
+        <v>2.8029917808219178</v>
       </c>
       <c r="H46" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B47" s="35">
         <v>351.137</v>
@@ -5968,19 +6124,19 @@
         <v>414.34899999999999</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>0.96201917808219173</v>
+        <v>1.1352027397260274</v>
       </c>
       <c r="H47" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B48" s="35">
         <v>1480.8489999999999</v>
@@ -5992,19 +6148,19 @@
         <v>1575.146</v>
       </c>
       <c r="E48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>4.057120547945205</v>
+        <v>4.3154684931506848</v>
       </c>
       <c r="H48" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B49" s="35">
         <v>5.9009999999999998</v>
@@ -6016,19 +6172,19 @@
         <v>122.099</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>1.6167123287671233E-2</v>
+        <v>0.33451780821917809</v>
       </c>
       <c r="H49" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B50" s="35">
         <v>0</v>
@@ -6046,7 +6202,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B51" s="35">
         <v>5759.634</v>
@@ -6058,14 +6214,14 @@
         <v>4297.1899999999996</v>
       </c>
       <c r="E51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>15.779819178082192</v>
+        <v>11.773123287671233</v>
       </c>
       <c r="H51" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6073,6 +6229,7 @@
   <hyperlinks>
     <hyperlink ref="H8" r:id="rId1" xr:uid="{7A7A57AB-3D6B-0E46-B9A3-67CA6B319D2E}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{2085202B-E0F5-474B-9A20-AE4961961052}"/>
+    <hyperlink ref="H17" r:id="rId3" xr:uid="{E2BEB1AF-7CCB-DF45-90A7-ED6F0BAB7BEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6090,10 +6247,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6227,8 +6384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6271,39 +6428,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G1" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
+      <c r="G1" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -6316,100 +6473,100 @@
         <v>4</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>68</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -6417,7 +6574,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="16">
@@ -6435,7 +6592,7 @@
       </c>
       <c r="I3" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B3)</f>
-        <v>24.355054794520544</v>
+        <v>23.970863013698629</v>
       </c>
       <c r="J3" s="2">
         <v>8889.5949999999993</v>
@@ -6450,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -6521,7 +6678,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="16">
@@ -6554,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -6625,7 +6782,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="16">
@@ -6643,7 +6800,7 @@
       </c>
       <c r="I5" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B5)</f>
-        <v>10.05705205479452</v>
+        <v>28.969463013698629</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -6658,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -6729,7 +6886,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="22">
@@ -6762,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -6833,7 +6990,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="22">
@@ -6866,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -6937,7 +7094,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="16">
@@ -6955,7 +7112,7 @@
       </c>
       <c r="I8" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B8)</f>
-        <v>0.13168493150684932</v>
+        <v>0.35852054794520549</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -6970,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -7041,7 +7198,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="16">
@@ -7074,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -7145,7 +7302,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="22">
@@ -7178,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -7249,7 +7406,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="22">
@@ -7282,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -7353,7 +7510,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="22">
@@ -7386,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -7457,7 +7614,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="22">
@@ -7490,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -7561,7 +7718,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="22">
@@ -7594,7 +7751,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -7665,7 +7822,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="16">
@@ -7683,7 +7840,7 @@
       </c>
       <c r="I15" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B15)</f>
-        <v>0</v>
+        <v>1.0191780821917809E-2</v>
       </c>
       <c r="J15" s="2">
         <v>48.064999999999998</v>
@@ -7698,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -7769,7 +7926,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="16">
@@ -7802,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -7873,7 +8030,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="22">
@@ -7906,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -7977,7 +8134,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="22">
@@ -8010,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -8081,7 +8238,7 @@
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="22">
@@ -8114,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -8185,7 +8342,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="22">
@@ -8218,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -8289,7 +8446,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="16">
@@ -8307,7 +8464,7 @@
       </c>
       <c r="I21" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B21)</f>
-        <v>5.7335671232876706</v>
+        <v>4.0645178082191773</v>
       </c>
       <c r="J21" s="2">
         <v>48.064999999999998</v>
@@ -8322,7 +8479,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -8393,7 +8550,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="39">
@@ -8411,7 +8568,7 @@
       </c>
       <c r="I22" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B22)</f>
-        <v>3.2527835616438354</v>
+        <v>3.8482712328767121</v>
       </c>
       <c r="J22" s="2">
         <v>578.78499999999997</v>
@@ -8426,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -8497,7 +8654,7 @@
         <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="22">
@@ -8530,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
@@ -8601,7 +8758,7 @@
         <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="16">
@@ -8634,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -8705,7 +8862,7 @@
         <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="23">
@@ -8738,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -8809,7 +8966,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="16">
@@ -8842,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -8913,7 +9070,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="16">
@@ -8946,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
@@ -9017,7 +9174,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="16">
@@ -9035,7 +9192,7 @@
       </c>
       <c r="I28" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B28)</f>
-        <v>11.147753424657534</v>
+        <v>10.738131506849314</v>
       </c>
       <c r="J28" s="2">
         <v>2588.0810000000001</v>
@@ -9050,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
@@ -9121,7 +9278,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="16">
@@ -9154,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
@@ -9225,7 +9382,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="16">
@@ -9258,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
@@ -9329,7 +9486,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="16">
@@ -9362,7 +9519,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O31" s="2">
         <v>0</v>
@@ -9433,7 +9590,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="22">
@@ -9466,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
@@ -9537,7 +9694,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="16">
@@ -9555,7 +9712,7 @@
       </c>
       <c r="I33" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B33)</f>
-        <v>5.23487397260274</v>
+        <v>4.2217397260273968</v>
       </c>
       <c r="J33" s="2">
         <v>1214.5999999999999</v>
@@ -9570,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
@@ -9641,7 +9798,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="16">
@@ -9659,7 +9816,7 @@
       </c>
       <c r="I34" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B34)</f>
-        <v>0</v>
+        <v>7.2424657534246567E-2</v>
       </c>
       <c r="J34" s="2">
         <v>1329.308</v>
@@ -9674,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
@@ -9745,7 +9902,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="16">
@@ -9778,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
@@ -9849,7 +10006,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="16">
@@ -9867,7 +10024,7 @@
       </c>
       <c r="I36" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B36)</f>
-        <v>2.8521945205479451</v>
+        <v>2.3047890410958907</v>
       </c>
       <c r="J36" s="2">
         <v>8889.5949999999993</v>
@@ -9882,7 +10039,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
@@ -9953,7 +10110,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="16">
@@ -9986,7 +10143,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
@@ -10057,7 +10214,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="16">
@@ -10090,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -10161,7 +10318,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="16">
@@ -10194,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
@@ -10265,7 +10422,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="16">
@@ -10283,7 +10440,7 @@
       </c>
       <c r="I40" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B40)</f>
-        <v>24.954542465753427</v>
+        <v>26.03253698630137</v>
       </c>
       <c r="J40" s="2">
         <v>508.40300000000002</v>
@@ -10298,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
@@ -10369,7 +10526,7 @@
         <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="16">
@@ -10387,7 +10544,7 @@
       </c>
       <c r="I41" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B41)</f>
-        <v>7.2003424657534243</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2">
         <v>48.064999999999998</v>
@@ -10402,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
@@ -10473,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="16">
@@ -10506,7 +10663,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
@@ -10577,7 +10734,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="16">
@@ -10610,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="2">
         <v>0</v>
@@ -10681,7 +10838,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="16">
@@ -10699,7 +10856,7 @@
       </c>
       <c r="I44" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B44)</f>
-        <v>1.560150684931507</v>
+        <v>1.5822602739726026</v>
       </c>
       <c r="J44" s="2">
         <v>1041.0509999999999</v>
@@ -10714,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="2">
         <v>0</v>
@@ -10785,7 +10942,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="16">
@@ -10818,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="N45" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
@@ -10889,7 +11046,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="22">
@@ -10922,7 +11079,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
@@ -10993,7 +11150,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="40">
@@ -11026,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O47" s="2">
         <v>0</v>
@@ -11097,7 +11254,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="16">
@@ -11115,7 +11272,7 @@
       </c>
       <c r="I48" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B48)</f>
-        <v>26.190715068493152</v>
+        <v>32.633767123287676</v>
       </c>
       <c r="J48" s="2">
         <v>48.064999999999998</v>
@@ -11130,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="2">
         <v>0</v>
@@ -11201,7 +11358,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="16">
@@ -11234,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
@@ -11305,7 +11462,7 @@
         <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="16">
@@ -11323,7 +11480,7 @@
       </c>
       <c r="I50" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B50)</f>
-        <v>35.775961643835615</v>
+        <v>11.774098630136987</v>
       </c>
       <c r="J50" s="2">
         <v>48.064999999999998</v>
@@ -11338,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="N50" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O50" s="2">
         <v>0</v>
@@ -11409,7 +11566,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="22">
@@ -11442,7 +11599,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O51" s="2">
         <v>0</v>
@@ -11513,7 +11670,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="16">
@@ -11546,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="2">
         <v>0</v>
@@ -11617,7 +11774,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="16">
@@ -11635,7 +11792,7 @@
       </c>
       <c r="I53" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B53)</f>
-        <v>16.88434794520548</v>
+        <v>8.8860904109589036</v>
       </c>
       <c r="J53" s="2">
         <v>48.064999999999998</v>
@@ -11650,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O53" s="2">
         <v>0</v>
@@ -11721,7 +11878,7 @@
         <v>39</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="22">
@@ -11739,7 +11896,7 @@
       </c>
       <c r="I54" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B54)</f>
-        <v>14.892852054794522</v>
+        <v>10.928873972602741</v>
       </c>
       <c r="J54" s="2">
         <v>291.70999999999998</v>
@@ -11754,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="2">
         <v>0</v>
@@ -11825,7 +11982,7 @@
         <v>40</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="22">
@@ -11858,7 +12015,7 @@
         <v>1</v>
       </c>
       <c r="N55" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O55" s="2">
         <v>0</v>
@@ -11929,7 +12086,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="16">
@@ -11947,7 +12104,7 @@
       </c>
       <c r="I56" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B56)</f>
-        <v>10.108852054794522</v>
+        <v>10.345356164383562</v>
       </c>
       <c r="J56" s="2">
         <v>8889.5949999999993</v>
@@ -11962,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O56" s="2">
         <v>0</v>
@@ -12033,7 +12190,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="22">
@@ -12066,7 +12223,7 @@
         <v>1</v>
       </c>
       <c r="N57" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="2">
         <v>0</v>
@@ -12137,7 +12294,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="16">
@@ -12170,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="N58" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="2">
         <v>0</v>
@@ -12241,7 +12398,7 @@
         <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="16">
@@ -12259,7 +12416,7 @@
       </c>
       <c r="I59" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B59)</f>
-        <v>17.376356164383559</v>
+        <v>16.026747945205479</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -12274,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="N59" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="2">
         <v>0</v>
@@ -12345,7 +12502,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="22">
@@ -12378,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="N60" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="2">
         <v>0</v>
@@ -12449,7 +12606,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="16">
@@ -12482,7 +12639,7 @@
         <v>1</v>
       </c>
       <c r="N61" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="2">
         <v>0</v>
@@ -12553,7 +12710,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="16">
@@ -12571,7 +12728,7 @@
       </c>
       <c r="I62" s="2">
         <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B62)</f>
-        <v>112.51944931506848</v>
+        <v>99.237736986301371</v>
       </c>
       <c r="J62" s="2">
         <v>2628.125</v>
@@ -12586,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="2">
         <v>0</v>
@@ -12657,7 +12814,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="22">
@@ -12690,7 +12847,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O63" s="2">
         <v>0</v>
@@ -12761,7 +12918,7 @@
         <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="22">
@@ -12794,7 +12951,7 @@
         <v>1</v>
       </c>
       <c r="N64" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O64" s="2">
         <v>0</v>
@@ -12862,7 +13019,7 @@
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -12892,72 +13049,72 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="43">
-        <v>1</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
+        <v>32</v>
+      </c>
+      <c r="B1" s="45">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="43">
-        <v>1</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="B2" s="45">
+        <v>1</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -13707,7 +13864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19292E87-5CF7-794D-A1AA-7C1926221C7B}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="125" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
@@ -13734,274 +13891,274 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="43">
-        <v>5</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43">
-        <f>B1+Parameters!$B$5</f>
+        <v>32</v>
+      </c>
+      <c r="B1" s="45">
+        <v>5</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45">
+        <f>B1+Parameters!$B$7</f>
         <v>9</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43">
-        <f>R1+Parameters!$B$5</f>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45">
+        <f>R1+Parameters!$B$7</f>
         <v>13</v>
       </c>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43">
-        <f>AH1+Parameters!$B$5</f>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45">
+        <f>AH1+Parameters!$B$7</f>
         <v>17</v>
       </c>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="43"/>
-      <c r="BM1" s="43"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <v>0.25</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43">
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="45"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="44" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="45" t="s">
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="44" t="s">
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="45" t="s">
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="44" t="s">
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="44"/>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="44"/>
-      <c r="BF3" s="45" t="s">
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J4" s="6" t="str">
         <f>B4</f>
@@ -16533,7 +16690,7 @@
     </row>
     <row r="30" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:65" x14ac:dyDescent="0.2">
@@ -16930,7 +17087,7 @@
     </row>
     <row r="41" spans="2:57" x14ac:dyDescent="0.2">
       <c r="H41" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I41">
         <f>SUM(B2:BM2)</f>
@@ -16939,7 +17096,7 @@
     </row>
     <row r="42" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:57" x14ac:dyDescent="0.2">
@@ -17068,24 +17225,24 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" t="s">
         <v>250</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>251</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>252</v>
-      </c>
-      <c r="E50" t="s">
-        <v>253</v>
-      </c>
-      <c r="F50" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -17146,6 +17303,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AH1:AW1"/>
+    <mergeCell ref="AH2:AW2"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="AX1:BM1"/>
+    <mergeCell ref="AX2:BM2"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="BF3:BM3"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="B1:Q1"/>
@@ -17154,14 +17319,6 @@
     <mergeCell ref="R2:AG2"/>
     <mergeCell ref="R3:Y3"/>
     <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH1:AW1"/>
-    <mergeCell ref="AH2:AW2"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="AX1:BM1"/>
-    <mergeCell ref="AX2:BM2"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="BF3:BM3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17184,1236 +17341,1236 @@
   <sheetData>
     <row r="1" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="45">
+        <v>21</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45">
+        <f>B1+Parameters!$B$7</f>
+        <v>25</v>
+      </c>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45">
+        <f>R1+Parameters!$B$7</f>
+        <v>29</v>
+      </c>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45">
+        <f>AH1+Parameters!$B$7</f>
         <v>33</v>
       </c>
-      <c r="B1" s="43">
-        <v>21</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43">
-        <f>B1+Parameters!$B$5</f>
-        <v>25</v>
-      </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43">
-        <f>R1+Parameters!$B$5</f>
-        <v>29</v>
-      </c>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43">
-        <f>AH1+Parameters!$B$5</f>
-        <v>33</v>
-      </c>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="43"/>
-      <c r="BM1" s="43"/>
-      <c r="BN1" s="43">
-        <f>AX1+Parameters!$B$5</f>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45">
+        <f>AX1+Parameters!$B$7</f>
         <v>37</v>
       </c>
-      <c r="BO1" s="43"/>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
-      <c r="BS1" s="43"/>
-      <c r="BT1" s="43"/>
-      <c r="BU1" s="43"/>
-      <c r="BV1" s="43"/>
-      <c r="BW1" s="43"/>
-      <c r="BX1" s="43"/>
-      <c r="BY1" s="43"/>
-      <c r="BZ1" s="43"/>
-      <c r="CA1" s="43"/>
-      <c r="CB1" s="43"/>
-      <c r="CC1" s="43"/>
-      <c r="CD1" s="43">
-        <f>BN1+Parameters!$B$5</f>
+      <c r="BO1" s="45"/>
+      <c r="BP1" s="45"/>
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
+      <c r="BS1" s="45"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="45"/>
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="45"/>
+      <c r="BY1" s="45"/>
+      <c r="BZ1" s="45"/>
+      <c r="CA1" s="45"/>
+      <c r="CB1" s="45"/>
+      <c r="CC1" s="45"/>
+      <c r="CD1" s="45">
+        <f>BN1+Parameters!$B$7</f>
         <v>41</v>
       </c>
-      <c r="CE1" s="43"/>
-      <c r="CF1" s="43"/>
-      <c r="CG1" s="43"/>
-      <c r="CH1" s="43"/>
-      <c r="CI1" s="43"/>
-      <c r="CJ1" s="43"/>
-      <c r="CK1" s="43"/>
-      <c r="CL1" s="43"/>
-      <c r="CM1" s="43"/>
-      <c r="CN1" s="43"/>
-      <c r="CO1" s="43"/>
-      <c r="CP1" s="43"/>
-      <c r="CQ1" s="43"/>
-      <c r="CR1" s="43"/>
-      <c r="CS1" s="43"/>
-      <c r="CT1" s="43">
-        <f>CD1+Parameters!$B$5</f>
+      <c r="CE1" s="45"/>
+      <c r="CF1" s="45"/>
+      <c r="CG1" s="45"/>
+      <c r="CH1" s="45"/>
+      <c r="CI1" s="45"/>
+      <c r="CJ1" s="45"/>
+      <c r="CK1" s="45"/>
+      <c r="CL1" s="45"/>
+      <c r="CM1" s="45"/>
+      <c r="CN1" s="45"/>
+      <c r="CO1" s="45"/>
+      <c r="CP1" s="45"/>
+      <c r="CQ1" s="45"/>
+      <c r="CR1" s="45"/>
+      <c r="CS1" s="45"/>
+      <c r="CT1" s="45">
+        <f>CD1+Parameters!$B$7</f>
         <v>45</v>
       </c>
-      <c r="CU1" s="43"/>
-      <c r="CV1" s="43"/>
-      <c r="CW1" s="43"/>
-      <c r="CX1" s="43"/>
-      <c r="CY1" s="43"/>
-      <c r="CZ1" s="43"/>
-      <c r="DA1" s="43"/>
-      <c r="DB1" s="43"/>
-      <c r="DC1" s="43"/>
-      <c r="DD1" s="43"/>
-      <c r="DE1" s="43"/>
-      <c r="DF1" s="43"/>
-      <c r="DG1" s="43"/>
-      <c r="DH1" s="43"/>
-      <c r="DI1" s="43"/>
-      <c r="DJ1" s="43">
-        <f>CT1+Parameters!$B$5</f>
+      <c r="CU1" s="45"/>
+      <c r="CV1" s="45"/>
+      <c r="CW1" s="45"/>
+      <c r="CX1" s="45"/>
+      <c r="CY1" s="45"/>
+      <c r="CZ1" s="45"/>
+      <c r="DA1" s="45"/>
+      <c r="DB1" s="45"/>
+      <c r="DC1" s="45"/>
+      <c r="DD1" s="45"/>
+      <c r="DE1" s="45"/>
+      <c r="DF1" s="45"/>
+      <c r="DG1" s="45"/>
+      <c r="DH1" s="45"/>
+      <c r="DI1" s="45"/>
+      <c r="DJ1" s="45">
+        <f>CT1+Parameters!$B$7</f>
         <v>49</v>
       </c>
-      <c r="DK1" s="43"/>
-      <c r="DL1" s="43"/>
-      <c r="DM1" s="43"/>
-      <c r="DN1" s="43"/>
-      <c r="DO1" s="43"/>
-      <c r="DP1" s="43"/>
-      <c r="DQ1" s="43"/>
-      <c r="DR1" s="43"/>
-      <c r="DS1" s="43"/>
-      <c r="DT1" s="43"/>
-      <c r="DU1" s="43"/>
-      <c r="DV1" s="43"/>
-      <c r="DW1" s="43"/>
-      <c r="DX1" s="43"/>
-      <c r="DY1" s="43"/>
-      <c r="DZ1" s="43">
-        <f>DJ1+Parameters!$B$5</f>
+      <c r="DK1" s="45"/>
+      <c r="DL1" s="45"/>
+      <c r="DM1" s="45"/>
+      <c r="DN1" s="45"/>
+      <c r="DO1" s="45"/>
+      <c r="DP1" s="45"/>
+      <c r="DQ1" s="45"/>
+      <c r="DR1" s="45"/>
+      <c r="DS1" s="45"/>
+      <c r="DT1" s="45"/>
+      <c r="DU1" s="45"/>
+      <c r="DV1" s="45"/>
+      <c r="DW1" s="45"/>
+      <c r="DX1" s="45"/>
+      <c r="DY1" s="45"/>
+      <c r="DZ1" s="45">
+        <f>DJ1+Parameters!$B$7</f>
         <v>53</v>
       </c>
-      <c r="EA1" s="43"/>
-      <c r="EB1" s="43"/>
-      <c r="EC1" s="43"/>
-      <c r="ED1" s="43"/>
-      <c r="EE1" s="43"/>
-      <c r="EF1" s="43"/>
-      <c r="EG1" s="43"/>
-      <c r="EH1" s="43"/>
-      <c r="EI1" s="43"/>
-      <c r="EJ1" s="43"/>
-      <c r="EK1" s="43"/>
-      <c r="EL1" s="43"/>
-      <c r="EM1" s="43"/>
-      <c r="EN1" s="43"/>
-      <c r="EO1" s="43"/>
-      <c r="EP1" s="43">
-        <f>DZ1+Parameters!$B$5</f>
+      <c r="EA1" s="45"/>
+      <c r="EB1" s="45"/>
+      <c r="EC1" s="45"/>
+      <c r="ED1" s="45"/>
+      <c r="EE1" s="45"/>
+      <c r="EF1" s="45"/>
+      <c r="EG1" s="45"/>
+      <c r="EH1" s="45"/>
+      <c r="EI1" s="45"/>
+      <c r="EJ1" s="45"/>
+      <c r="EK1" s="45"/>
+      <c r="EL1" s="45"/>
+      <c r="EM1" s="45"/>
+      <c r="EN1" s="45"/>
+      <c r="EO1" s="45"/>
+      <c r="EP1" s="45">
+        <f>DZ1+Parameters!$B$7</f>
         <v>57</v>
       </c>
-      <c r="EQ1" s="43"/>
-      <c r="ER1" s="43"/>
-      <c r="ES1" s="43"/>
-      <c r="ET1" s="43"/>
-      <c r="EU1" s="43"/>
-      <c r="EV1" s="43"/>
-      <c r="EW1" s="43"/>
-      <c r="EX1" s="43"/>
-      <c r="EY1" s="43"/>
-      <c r="EZ1" s="43"/>
-      <c r="FA1" s="43"/>
-      <c r="FB1" s="43"/>
-      <c r="FC1" s="43"/>
-      <c r="FD1" s="43"/>
-      <c r="FE1" s="43"/>
-      <c r="FF1" s="43">
-        <f>EP1+Parameters!$B$5</f>
+      <c r="EQ1" s="45"/>
+      <c r="ER1" s="45"/>
+      <c r="ES1" s="45"/>
+      <c r="ET1" s="45"/>
+      <c r="EU1" s="45"/>
+      <c r="EV1" s="45"/>
+      <c r="EW1" s="45"/>
+      <c r="EX1" s="45"/>
+      <c r="EY1" s="45"/>
+      <c r="EZ1" s="45"/>
+      <c r="FA1" s="45"/>
+      <c r="FB1" s="45"/>
+      <c r="FC1" s="45"/>
+      <c r="FD1" s="45"/>
+      <c r="FE1" s="45"/>
+      <c r="FF1" s="45">
+        <f>EP1+Parameters!$B$7</f>
         <v>61</v>
       </c>
-      <c r="FG1" s="43"/>
-      <c r="FH1" s="43"/>
-      <c r="FI1" s="43"/>
-      <c r="FJ1" s="43"/>
-      <c r="FK1" s="43"/>
-      <c r="FL1" s="43"/>
-      <c r="FM1" s="43"/>
-      <c r="FN1" s="43"/>
-      <c r="FO1" s="43"/>
-      <c r="FP1" s="43"/>
-      <c r="FQ1" s="43"/>
-      <c r="FR1" s="43"/>
-      <c r="FS1" s="43"/>
-      <c r="FT1" s="43"/>
-      <c r="FU1" s="43"/>
-      <c r="FV1" s="43">
-        <f>FF1+Parameters!$B$5</f>
+      <c r="FG1" s="45"/>
+      <c r="FH1" s="45"/>
+      <c r="FI1" s="45"/>
+      <c r="FJ1" s="45"/>
+      <c r="FK1" s="45"/>
+      <c r="FL1" s="45"/>
+      <c r="FM1" s="45"/>
+      <c r="FN1" s="45"/>
+      <c r="FO1" s="45"/>
+      <c r="FP1" s="45"/>
+      <c r="FQ1" s="45"/>
+      <c r="FR1" s="45"/>
+      <c r="FS1" s="45"/>
+      <c r="FT1" s="45"/>
+      <c r="FU1" s="45"/>
+      <c r="FV1" s="45">
+        <f>FF1+Parameters!$B$7</f>
         <v>65</v>
       </c>
-      <c r="FW1" s="43"/>
-      <c r="FX1" s="43"/>
-      <c r="FY1" s="43"/>
-      <c r="FZ1" s="43"/>
-      <c r="GA1" s="43"/>
-      <c r="GB1" s="43"/>
-      <c r="GC1" s="43"/>
-      <c r="GD1" s="43"/>
-      <c r="GE1" s="43"/>
-      <c r="GF1" s="43"/>
-      <c r="GG1" s="43"/>
-      <c r="GH1" s="43"/>
-      <c r="GI1" s="43"/>
-      <c r="GJ1" s="43"/>
-      <c r="GK1" s="43"/>
-      <c r="GL1" s="43">
-        <f>FV1+Parameters!$B$5</f>
+      <c r="FW1" s="45"/>
+      <c r="FX1" s="45"/>
+      <c r="FY1" s="45"/>
+      <c r="FZ1" s="45"/>
+      <c r="GA1" s="45"/>
+      <c r="GB1" s="45"/>
+      <c r="GC1" s="45"/>
+      <c r="GD1" s="45"/>
+      <c r="GE1" s="45"/>
+      <c r="GF1" s="45"/>
+      <c r="GG1" s="45"/>
+      <c r="GH1" s="45"/>
+      <c r="GI1" s="45"/>
+      <c r="GJ1" s="45"/>
+      <c r="GK1" s="45"/>
+      <c r="GL1" s="45">
+        <f>FV1+Parameters!$B$7</f>
         <v>69</v>
       </c>
-      <c r="GM1" s="43"/>
-      <c r="GN1" s="43"/>
-      <c r="GO1" s="43"/>
-      <c r="GP1" s="43"/>
-      <c r="GQ1" s="43"/>
-      <c r="GR1" s="43"/>
-      <c r="GS1" s="43"/>
-      <c r="GT1" s="43"/>
-      <c r="GU1" s="43"/>
-      <c r="GV1" s="43"/>
-      <c r="GW1" s="43"/>
-      <c r="GX1" s="43"/>
-      <c r="GY1" s="43"/>
-      <c r="GZ1" s="43"/>
-      <c r="HA1" s="43"/>
-      <c r="HB1" s="43">
-        <f>GL1+Parameters!$B$5</f>
+      <c r="GM1" s="45"/>
+      <c r="GN1" s="45"/>
+      <c r="GO1" s="45"/>
+      <c r="GP1" s="45"/>
+      <c r="GQ1" s="45"/>
+      <c r="GR1" s="45"/>
+      <c r="GS1" s="45"/>
+      <c r="GT1" s="45"/>
+      <c r="GU1" s="45"/>
+      <c r="GV1" s="45"/>
+      <c r="GW1" s="45"/>
+      <c r="GX1" s="45"/>
+      <c r="GY1" s="45"/>
+      <c r="GZ1" s="45"/>
+      <c r="HA1" s="45"/>
+      <c r="HB1" s="45">
+        <f>GL1+Parameters!$B$7</f>
         <v>73</v>
       </c>
-      <c r="HC1" s="43"/>
-      <c r="HD1" s="43"/>
-      <c r="HE1" s="43"/>
-      <c r="HF1" s="43"/>
-      <c r="HG1" s="43"/>
-      <c r="HH1" s="43"/>
-      <c r="HI1" s="43"/>
-      <c r="HJ1" s="43"/>
-      <c r="HK1" s="43"/>
-      <c r="HL1" s="43"/>
-      <c r="HM1" s="43"/>
-      <c r="HN1" s="43"/>
-      <c r="HO1" s="43"/>
-      <c r="HP1" s="43"/>
-      <c r="HQ1" s="43"/>
-      <c r="HR1" s="43">
-        <f>HB1+Parameters!$B$5</f>
+      <c r="HC1" s="45"/>
+      <c r="HD1" s="45"/>
+      <c r="HE1" s="45"/>
+      <c r="HF1" s="45"/>
+      <c r="HG1" s="45"/>
+      <c r="HH1" s="45"/>
+      <c r="HI1" s="45"/>
+      <c r="HJ1" s="45"/>
+      <c r="HK1" s="45"/>
+      <c r="HL1" s="45"/>
+      <c r="HM1" s="45"/>
+      <c r="HN1" s="45"/>
+      <c r="HO1" s="45"/>
+      <c r="HP1" s="45"/>
+      <c r="HQ1" s="45"/>
+      <c r="HR1" s="45">
+        <f>HB1+Parameters!$B$7</f>
         <v>77</v>
       </c>
-      <c r="HS1" s="43"/>
-      <c r="HT1" s="43"/>
-      <c r="HU1" s="43"/>
-      <c r="HV1" s="43"/>
-      <c r="HW1" s="43"/>
-      <c r="HX1" s="43"/>
-      <c r="HY1" s="43"/>
-      <c r="HZ1" s="43"/>
-      <c r="IA1" s="43"/>
-      <c r="IB1" s="43"/>
-      <c r="IC1" s="43"/>
-      <c r="ID1" s="43"/>
-      <c r="IE1" s="43"/>
-      <c r="IF1" s="43"/>
-      <c r="IG1" s="43"/>
-      <c r="IH1" s="43">
-        <f>HR1+Parameters!$B$5</f>
+      <c r="HS1" s="45"/>
+      <c r="HT1" s="45"/>
+      <c r="HU1" s="45"/>
+      <c r="HV1" s="45"/>
+      <c r="HW1" s="45"/>
+      <c r="HX1" s="45"/>
+      <c r="HY1" s="45"/>
+      <c r="HZ1" s="45"/>
+      <c r="IA1" s="45"/>
+      <c r="IB1" s="45"/>
+      <c r="IC1" s="45"/>
+      <c r="ID1" s="45"/>
+      <c r="IE1" s="45"/>
+      <c r="IF1" s="45"/>
+      <c r="IG1" s="45"/>
+      <c r="IH1" s="45">
+        <f>HR1+Parameters!$B$7</f>
         <v>81</v>
       </c>
-      <c r="II1" s="43"/>
-      <c r="IJ1" s="43"/>
-      <c r="IK1" s="43"/>
-      <c r="IL1" s="43"/>
-      <c r="IM1" s="43"/>
-      <c r="IN1" s="43"/>
-      <c r="IO1" s="43"/>
-      <c r="IP1" s="43"/>
-      <c r="IQ1" s="43"/>
-      <c r="IR1" s="43"/>
-      <c r="IS1" s="43"/>
-      <c r="IT1" s="43"/>
-      <c r="IU1" s="43"/>
-      <c r="IV1" s="43"/>
-      <c r="IW1" s="43"/>
+      <c r="II1" s="45"/>
+      <c r="IJ1" s="45"/>
+      <c r="IK1" s="45"/>
+      <c r="IL1" s="45"/>
+      <c r="IM1" s="45"/>
+      <c r="IN1" s="45"/>
+      <c r="IO1" s="45"/>
+      <c r="IP1" s="45"/>
+      <c r="IQ1" s="45"/>
+      <c r="IR1" s="45"/>
+      <c r="IS1" s="45"/>
+      <c r="IT1" s="45"/>
+      <c r="IU1" s="45"/>
+      <c r="IV1" s="45"/>
+      <c r="IW1" s="45"/>
     </row>
     <row r="2" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45">
         <f>B2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43">
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45">
         <f t="shared" ref="AH2" si="0">R2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43">
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45">
         <f t="shared" ref="AX2" si="1">AH2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="43">
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45">
         <f t="shared" ref="BN2" si="2">AX2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BO2" s="43"/>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="43"/>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="43"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="43">
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="45"/>
+      <c r="BR2" s="45"/>
+      <c r="BS2" s="45"/>
+      <c r="BT2" s="45"/>
+      <c r="BU2" s="45"/>
+      <c r="BV2" s="45"/>
+      <c r="BW2" s="45"/>
+      <c r="BX2" s="45"/>
+      <c r="BY2" s="45"/>
+      <c r="BZ2" s="45"/>
+      <c r="CA2" s="45"/>
+      <c r="CB2" s="45"/>
+      <c r="CC2" s="45"/>
+      <c r="CD2" s="45">
         <f t="shared" ref="CD2" si="3">BN2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CE2" s="43"/>
-      <c r="CF2" s="43"/>
-      <c r="CG2" s="43"/>
-      <c r="CH2" s="43"/>
-      <c r="CI2" s="43"/>
-      <c r="CJ2" s="43"/>
-      <c r="CK2" s="43"/>
-      <c r="CL2" s="43"/>
-      <c r="CM2" s="43"/>
-      <c r="CN2" s="43"/>
-      <c r="CO2" s="43"/>
-      <c r="CP2" s="43"/>
-      <c r="CQ2" s="43"/>
-      <c r="CR2" s="43"/>
-      <c r="CS2" s="43"/>
-      <c r="CT2" s="43">
+      <c r="CE2" s="45"/>
+      <c r="CF2" s="45"/>
+      <c r="CG2" s="45"/>
+      <c r="CH2" s="45"/>
+      <c r="CI2" s="45"/>
+      <c r="CJ2" s="45"/>
+      <c r="CK2" s="45"/>
+      <c r="CL2" s="45"/>
+      <c r="CM2" s="45"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="45"/>
+      <c r="CP2" s="45"/>
+      <c r="CQ2" s="45"/>
+      <c r="CR2" s="45"/>
+      <c r="CS2" s="45"/>
+      <c r="CT2" s="45">
         <f t="shared" ref="CT2" si="4">CD2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CU2" s="43"/>
-      <c r="CV2" s="43"/>
-      <c r="CW2" s="43"/>
-      <c r="CX2" s="43"/>
-      <c r="CY2" s="43"/>
-      <c r="CZ2" s="43"/>
-      <c r="DA2" s="43"/>
-      <c r="DB2" s="43"/>
-      <c r="DC2" s="43"/>
-      <c r="DD2" s="43"/>
-      <c r="DE2" s="43"/>
-      <c r="DF2" s="43"/>
-      <c r="DG2" s="43"/>
-      <c r="DH2" s="43"/>
-      <c r="DI2" s="43"/>
-      <c r="DJ2" s="43">
+      <c r="CU2" s="45"/>
+      <c r="CV2" s="45"/>
+      <c r="CW2" s="45"/>
+      <c r="CX2" s="45"/>
+      <c r="CY2" s="45"/>
+      <c r="CZ2" s="45"/>
+      <c r="DA2" s="45"/>
+      <c r="DB2" s="45"/>
+      <c r="DC2" s="45"/>
+      <c r="DD2" s="45"/>
+      <c r="DE2" s="45"/>
+      <c r="DF2" s="45"/>
+      <c r="DG2" s="45"/>
+      <c r="DH2" s="45"/>
+      <c r="DI2" s="45"/>
+      <c r="DJ2" s="45">
         <f t="shared" ref="DJ2" si="5">CT2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="DK2" s="43"/>
-      <c r="DL2" s="43"/>
-      <c r="DM2" s="43"/>
-      <c r="DN2" s="43"/>
-      <c r="DO2" s="43"/>
-      <c r="DP2" s="43"/>
-      <c r="DQ2" s="43"/>
-      <c r="DR2" s="43"/>
-      <c r="DS2" s="43"/>
-      <c r="DT2" s="43"/>
-      <c r="DU2" s="43"/>
-      <c r="DV2" s="43"/>
-      <c r="DW2" s="43"/>
-      <c r="DX2" s="43"/>
-      <c r="DY2" s="43"/>
-      <c r="DZ2" s="43">
+      <c r="DK2" s="45"/>
+      <c r="DL2" s="45"/>
+      <c r="DM2" s="45"/>
+      <c r="DN2" s="45"/>
+      <c r="DO2" s="45"/>
+      <c r="DP2" s="45"/>
+      <c r="DQ2" s="45"/>
+      <c r="DR2" s="45"/>
+      <c r="DS2" s="45"/>
+      <c r="DT2" s="45"/>
+      <c r="DU2" s="45"/>
+      <c r="DV2" s="45"/>
+      <c r="DW2" s="45"/>
+      <c r="DX2" s="45"/>
+      <c r="DY2" s="45"/>
+      <c r="DZ2" s="45">
         <f t="shared" ref="DZ2" si="6">DJ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EA2" s="43"/>
-      <c r="EB2" s="43"/>
-      <c r="EC2" s="43"/>
-      <c r="ED2" s="43"/>
-      <c r="EE2" s="43"/>
-      <c r="EF2" s="43"/>
-      <c r="EG2" s="43"/>
-      <c r="EH2" s="43"/>
-      <c r="EI2" s="43"/>
-      <c r="EJ2" s="43"/>
-      <c r="EK2" s="43"/>
-      <c r="EL2" s="43"/>
-      <c r="EM2" s="43"/>
-      <c r="EN2" s="43"/>
-      <c r="EO2" s="43"/>
-      <c r="EP2" s="43">
+      <c r="EA2" s="45"/>
+      <c r="EB2" s="45"/>
+      <c r="EC2" s="45"/>
+      <c r="ED2" s="45"/>
+      <c r="EE2" s="45"/>
+      <c r="EF2" s="45"/>
+      <c r="EG2" s="45"/>
+      <c r="EH2" s="45"/>
+      <c r="EI2" s="45"/>
+      <c r="EJ2" s="45"/>
+      <c r="EK2" s="45"/>
+      <c r="EL2" s="45"/>
+      <c r="EM2" s="45"/>
+      <c r="EN2" s="45"/>
+      <c r="EO2" s="45"/>
+      <c r="EP2" s="45">
         <f t="shared" ref="EP2" si="7">DZ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EQ2" s="43"/>
-      <c r="ER2" s="43"/>
-      <c r="ES2" s="43"/>
-      <c r="ET2" s="43"/>
-      <c r="EU2" s="43"/>
-      <c r="EV2" s="43"/>
-      <c r="EW2" s="43"/>
-      <c r="EX2" s="43"/>
-      <c r="EY2" s="43"/>
-      <c r="EZ2" s="43"/>
-      <c r="FA2" s="43"/>
-      <c r="FB2" s="43"/>
-      <c r="FC2" s="43"/>
-      <c r="FD2" s="43"/>
-      <c r="FE2" s="43"/>
-      <c r="FF2" s="43">
+      <c r="EQ2" s="45"/>
+      <c r="ER2" s="45"/>
+      <c r="ES2" s="45"/>
+      <c r="ET2" s="45"/>
+      <c r="EU2" s="45"/>
+      <c r="EV2" s="45"/>
+      <c r="EW2" s="45"/>
+      <c r="EX2" s="45"/>
+      <c r="EY2" s="45"/>
+      <c r="EZ2" s="45"/>
+      <c r="FA2" s="45"/>
+      <c r="FB2" s="45"/>
+      <c r="FC2" s="45"/>
+      <c r="FD2" s="45"/>
+      <c r="FE2" s="45"/>
+      <c r="FF2" s="45">
         <f t="shared" ref="FF2" si="8">EP2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FG2" s="43"/>
-      <c r="FH2" s="43"/>
-      <c r="FI2" s="43"/>
-      <c r="FJ2" s="43"/>
-      <c r="FK2" s="43"/>
-      <c r="FL2" s="43"/>
-      <c r="FM2" s="43"/>
-      <c r="FN2" s="43"/>
-      <c r="FO2" s="43"/>
-      <c r="FP2" s="43"/>
-      <c r="FQ2" s="43"/>
-      <c r="FR2" s="43"/>
-      <c r="FS2" s="43"/>
-      <c r="FT2" s="43"/>
-      <c r="FU2" s="43"/>
-      <c r="FV2" s="43">
+      <c r="FG2" s="45"/>
+      <c r="FH2" s="45"/>
+      <c r="FI2" s="45"/>
+      <c r="FJ2" s="45"/>
+      <c r="FK2" s="45"/>
+      <c r="FL2" s="45"/>
+      <c r="FM2" s="45"/>
+      <c r="FN2" s="45"/>
+      <c r="FO2" s="45"/>
+      <c r="FP2" s="45"/>
+      <c r="FQ2" s="45"/>
+      <c r="FR2" s="45"/>
+      <c r="FS2" s="45"/>
+      <c r="FT2" s="45"/>
+      <c r="FU2" s="45"/>
+      <c r="FV2" s="45">
         <f t="shared" ref="FV2" si="9">FF2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FW2" s="43"/>
-      <c r="FX2" s="43"/>
-      <c r="FY2" s="43"/>
-      <c r="FZ2" s="43"/>
-      <c r="GA2" s="43"/>
-      <c r="GB2" s="43"/>
-      <c r="GC2" s="43"/>
-      <c r="GD2" s="43"/>
-      <c r="GE2" s="43"/>
-      <c r="GF2" s="43"/>
-      <c r="GG2" s="43"/>
-      <c r="GH2" s="43"/>
-      <c r="GI2" s="43"/>
-      <c r="GJ2" s="43"/>
-      <c r="GK2" s="43"/>
-      <c r="GL2" s="43">
+      <c r="FW2" s="45"/>
+      <c r="FX2" s="45"/>
+      <c r="FY2" s="45"/>
+      <c r="FZ2" s="45"/>
+      <c r="GA2" s="45"/>
+      <c r="GB2" s="45"/>
+      <c r="GC2" s="45"/>
+      <c r="GD2" s="45"/>
+      <c r="GE2" s="45"/>
+      <c r="GF2" s="45"/>
+      <c r="GG2" s="45"/>
+      <c r="GH2" s="45"/>
+      <c r="GI2" s="45"/>
+      <c r="GJ2" s="45"/>
+      <c r="GK2" s="45"/>
+      <c r="GL2" s="45">
         <f t="shared" ref="GL2" si="10">FV2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="GM2" s="43"/>
-      <c r="GN2" s="43"/>
-      <c r="GO2" s="43"/>
-      <c r="GP2" s="43"/>
-      <c r="GQ2" s="43"/>
-      <c r="GR2" s="43"/>
-      <c r="GS2" s="43"/>
-      <c r="GT2" s="43"/>
-      <c r="GU2" s="43"/>
-      <c r="GV2" s="43"/>
-      <c r="GW2" s="43"/>
-      <c r="GX2" s="43"/>
-      <c r="GY2" s="43"/>
-      <c r="GZ2" s="43"/>
-      <c r="HA2" s="43"/>
-      <c r="HB2" s="43">
+      <c r="GM2" s="45"/>
+      <c r="GN2" s="45"/>
+      <c r="GO2" s="45"/>
+      <c r="GP2" s="45"/>
+      <c r="GQ2" s="45"/>
+      <c r="GR2" s="45"/>
+      <c r="GS2" s="45"/>
+      <c r="GT2" s="45"/>
+      <c r="GU2" s="45"/>
+      <c r="GV2" s="45"/>
+      <c r="GW2" s="45"/>
+      <c r="GX2" s="45"/>
+      <c r="GY2" s="45"/>
+      <c r="GZ2" s="45"/>
+      <c r="HA2" s="45"/>
+      <c r="HB2" s="45">
         <f t="shared" ref="HB2" si="11">GL2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HC2" s="43"/>
-      <c r="HD2" s="43"/>
-      <c r="HE2" s="43"/>
-      <c r="HF2" s="43"/>
-      <c r="HG2" s="43"/>
-      <c r="HH2" s="43"/>
-      <c r="HI2" s="43"/>
-      <c r="HJ2" s="43"/>
-      <c r="HK2" s="43"/>
-      <c r="HL2" s="43"/>
-      <c r="HM2" s="43"/>
-      <c r="HN2" s="43"/>
-      <c r="HO2" s="43"/>
-      <c r="HP2" s="43"/>
-      <c r="HQ2" s="43"/>
-      <c r="HR2" s="43">
+      <c r="HC2" s="45"/>
+      <c r="HD2" s="45"/>
+      <c r="HE2" s="45"/>
+      <c r="HF2" s="45"/>
+      <c r="HG2" s="45"/>
+      <c r="HH2" s="45"/>
+      <c r="HI2" s="45"/>
+      <c r="HJ2" s="45"/>
+      <c r="HK2" s="45"/>
+      <c r="HL2" s="45"/>
+      <c r="HM2" s="45"/>
+      <c r="HN2" s="45"/>
+      <c r="HO2" s="45"/>
+      <c r="HP2" s="45"/>
+      <c r="HQ2" s="45"/>
+      <c r="HR2" s="45">
         <f t="shared" ref="HR2" si="12">HB2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HS2" s="43"/>
-      <c r="HT2" s="43"/>
-      <c r="HU2" s="43"/>
-      <c r="HV2" s="43"/>
-      <c r="HW2" s="43"/>
-      <c r="HX2" s="43"/>
-      <c r="HY2" s="43"/>
-      <c r="HZ2" s="43"/>
-      <c r="IA2" s="43"/>
-      <c r="IB2" s="43"/>
-      <c r="IC2" s="43"/>
-      <c r="ID2" s="43"/>
-      <c r="IE2" s="43"/>
-      <c r="IF2" s="43"/>
-      <c r="IG2" s="43"/>
-      <c r="IH2" s="43">
+      <c r="HS2" s="45"/>
+      <c r="HT2" s="45"/>
+      <c r="HU2" s="45"/>
+      <c r="HV2" s="45"/>
+      <c r="HW2" s="45"/>
+      <c r="HX2" s="45"/>
+      <c r="HY2" s="45"/>
+      <c r="HZ2" s="45"/>
+      <c r="IA2" s="45"/>
+      <c r="IB2" s="45"/>
+      <c r="IC2" s="45"/>
+      <c r="ID2" s="45"/>
+      <c r="IE2" s="45"/>
+      <c r="IF2" s="45"/>
+      <c r="IG2" s="45"/>
+      <c r="IH2" s="45">
         <f t="shared" ref="IH2" si="13">HR2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="II2" s="43"/>
-      <c r="IJ2" s="43"/>
-      <c r="IK2" s="43"/>
-      <c r="IL2" s="43"/>
-      <c r="IM2" s="43"/>
-      <c r="IN2" s="43"/>
-      <c r="IO2" s="43"/>
-      <c r="IP2" s="43"/>
-      <c r="IQ2" s="43"/>
-      <c r="IR2" s="43"/>
-      <c r="IS2" s="43"/>
-      <c r="IT2" s="43"/>
-      <c r="IU2" s="43"/>
-      <c r="IV2" s="43"/>
-      <c r="IW2" s="43"/>
+      <c r="II2" s="45"/>
+      <c r="IJ2" s="45"/>
+      <c r="IK2" s="45"/>
+      <c r="IL2" s="45"/>
+      <c r="IM2" s="45"/>
+      <c r="IN2" s="45"/>
+      <c r="IO2" s="45"/>
+      <c r="IP2" s="45"/>
+      <c r="IQ2" s="45"/>
+      <c r="IR2" s="45"/>
+      <c r="IS2" s="45"/>
+      <c r="IT2" s="45"/>
+      <c r="IU2" s="45"/>
+      <c r="IV2" s="45"/>
+      <c r="IW2" s="45"/>
     </row>
     <row r="3" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="49">
-        <v>5</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="49">
-        <v>5</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="49">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="49">
-        <v>5</v>
-      </c>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="50"/>
-      <c r="BC3" s="50"/>
-      <c r="BD3" s="50"/>
-      <c r="BE3" s="50"/>
-      <c r="BF3" s="50"/>
-      <c r="BG3" s="50"/>
-      <c r="BH3" s="50"/>
-      <c r="BI3" s="50"/>
-      <c r="BJ3" s="50"/>
-      <c r="BK3" s="50"/>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="51"/>
-      <c r="BN3" s="49">
+        <v>33</v>
+      </c>
+      <c r="B3" s="48">
+        <v>5</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="48">
+        <v>5</v>
+      </c>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="48">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="48">
+        <v>5</v>
+      </c>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="48">
         <v>9</v>
       </c>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="50"/>
-      <c r="BX3" s="50"/>
-      <c r="BY3" s="50"/>
-      <c r="BZ3" s="50"/>
-      <c r="CA3" s="50"/>
-      <c r="CB3" s="50"/>
-      <c r="CC3" s="51"/>
-      <c r="CD3" s="49">
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="49"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="49"/>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49"/>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="50"/>
+      <c r="CD3" s="48">
         <v>9</v>
       </c>
-      <c r="CE3" s="50"/>
-      <c r="CF3" s="50"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="50"/>
-      <c r="CI3" s="50"/>
-      <c r="CJ3" s="50"/>
-      <c r="CK3" s="50"/>
-      <c r="CL3" s="50"/>
-      <c r="CM3" s="50"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="50"/>
-      <c r="CP3" s="50"/>
-      <c r="CQ3" s="50"/>
-      <c r="CR3" s="50"/>
-      <c r="CS3" s="51"/>
-      <c r="CT3" s="49">
+      <c r="CE3" s="49"/>
+      <c r="CF3" s="49"/>
+      <c r="CG3" s="49"/>
+      <c r="CH3" s="49"/>
+      <c r="CI3" s="49"/>
+      <c r="CJ3" s="49"/>
+      <c r="CK3" s="49"/>
+      <c r="CL3" s="49"/>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="49"/>
+      <c r="CO3" s="49"/>
+      <c r="CP3" s="49"/>
+      <c r="CQ3" s="49"/>
+      <c r="CR3" s="49"/>
+      <c r="CS3" s="50"/>
+      <c r="CT3" s="48">
         <v>9</v>
       </c>
-      <c r="CU3" s="50"/>
-      <c r="CV3" s="50"/>
-      <c r="CW3" s="50"/>
-      <c r="CX3" s="50"/>
-      <c r="CY3" s="50"/>
-      <c r="CZ3" s="50"/>
-      <c r="DA3" s="50"/>
-      <c r="DB3" s="50"/>
-      <c r="DC3" s="50"/>
-      <c r="DD3" s="50"/>
-      <c r="DE3" s="50"/>
-      <c r="DF3" s="50"/>
-      <c r="DG3" s="50"/>
-      <c r="DH3" s="50"/>
-      <c r="DI3" s="51"/>
-      <c r="DJ3" s="49">
+      <c r="CU3" s="49"/>
+      <c r="CV3" s="49"/>
+      <c r="CW3" s="49"/>
+      <c r="CX3" s="49"/>
+      <c r="CY3" s="49"/>
+      <c r="CZ3" s="49"/>
+      <c r="DA3" s="49"/>
+      <c r="DB3" s="49"/>
+      <c r="DC3" s="49"/>
+      <c r="DD3" s="49"/>
+      <c r="DE3" s="49"/>
+      <c r="DF3" s="49"/>
+      <c r="DG3" s="49"/>
+      <c r="DH3" s="49"/>
+      <c r="DI3" s="50"/>
+      <c r="DJ3" s="48">
         <v>9</v>
       </c>
-      <c r="DK3" s="50"/>
-      <c r="DL3" s="50"/>
-      <c r="DM3" s="50"/>
-      <c r="DN3" s="50"/>
-      <c r="DO3" s="50"/>
-      <c r="DP3" s="50"/>
-      <c r="DQ3" s="50"/>
-      <c r="DR3" s="50"/>
-      <c r="DS3" s="50"/>
-      <c r="DT3" s="50"/>
-      <c r="DU3" s="50"/>
-      <c r="DV3" s="50"/>
-      <c r="DW3" s="50"/>
-      <c r="DX3" s="50"/>
-      <c r="DY3" s="51"/>
-      <c r="DZ3" s="52">
+      <c r="DK3" s="49"/>
+      <c r="DL3" s="49"/>
+      <c r="DM3" s="49"/>
+      <c r="DN3" s="49"/>
+      <c r="DO3" s="49"/>
+      <c r="DP3" s="49"/>
+      <c r="DQ3" s="49"/>
+      <c r="DR3" s="49"/>
+      <c r="DS3" s="49"/>
+      <c r="DT3" s="49"/>
+      <c r="DU3" s="49"/>
+      <c r="DV3" s="49"/>
+      <c r="DW3" s="49"/>
+      <c r="DX3" s="49"/>
+      <c r="DY3" s="50"/>
+      <c r="DZ3" s="51">
         <v>13</v>
       </c>
-      <c r="EA3" s="47"/>
-      <c r="EB3" s="47"/>
-      <c r="EC3" s="47"/>
-      <c r="ED3" s="47"/>
-      <c r="EE3" s="47"/>
-      <c r="EF3" s="47"/>
-      <c r="EG3" s="47"/>
-      <c r="EH3" s="47"/>
-      <c r="EI3" s="47"/>
-      <c r="EJ3" s="47"/>
-      <c r="EK3" s="47"/>
-      <c r="EL3" s="47"/>
-      <c r="EM3" s="47"/>
-      <c r="EN3" s="47"/>
-      <c r="EO3" s="48"/>
-      <c r="EP3" s="46">
+      <c r="EA3" s="52"/>
+      <c r="EB3" s="52"/>
+      <c r="EC3" s="52"/>
+      <c r="ED3" s="52"/>
+      <c r="EE3" s="52"/>
+      <c r="EF3" s="52"/>
+      <c r="EG3" s="52"/>
+      <c r="EH3" s="52"/>
+      <c r="EI3" s="52"/>
+      <c r="EJ3" s="52"/>
+      <c r="EK3" s="52"/>
+      <c r="EL3" s="52"/>
+      <c r="EM3" s="52"/>
+      <c r="EN3" s="52"/>
+      <c r="EO3" s="53"/>
+      <c r="EP3" s="54">
         <v>13</v>
       </c>
-      <c r="EQ3" s="47"/>
-      <c r="ER3" s="47"/>
-      <c r="ES3" s="47"/>
-      <c r="ET3" s="47"/>
-      <c r="EU3" s="47"/>
-      <c r="EV3" s="47"/>
-      <c r="EW3" s="47"/>
-      <c r="EX3" s="47"/>
-      <c r="EY3" s="47"/>
-      <c r="EZ3" s="47"/>
-      <c r="FA3" s="47"/>
-      <c r="FB3" s="47"/>
-      <c r="FC3" s="47"/>
-      <c r="FD3" s="47"/>
-      <c r="FE3" s="48"/>
-      <c r="FF3" s="46">
+      <c r="EQ3" s="52"/>
+      <c r="ER3" s="52"/>
+      <c r="ES3" s="52"/>
+      <c r="ET3" s="52"/>
+      <c r="EU3" s="52"/>
+      <c r="EV3" s="52"/>
+      <c r="EW3" s="52"/>
+      <c r="EX3" s="52"/>
+      <c r="EY3" s="52"/>
+      <c r="EZ3" s="52"/>
+      <c r="FA3" s="52"/>
+      <c r="FB3" s="52"/>
+      <c r="FC3" s="52"/>
+      <c r="FD3" s="52"/>
+      <c r="FE3" s="53"/>
+      <c r="FF3" s="54">
         <v>13</v>
       </c>
-      <c r="FG3" s="47"/>
-      <c r="FH3" s="47"/>
-      <c r="FI3" s="47"/>
-      <c r="FJ3" s="47"/>
-      <c r="FK3" s="47"/>
-      <c r="FL3" s="47"/>
-      <c r="FM3" s="47"/>
-      <c r="FN3" s="47"/>
-      <c r="FO3" s="47"/>
-      <c r="FP3" s="47"/>
-      <c r="FQ3" s="47"/>
-      <c r="FR3" s="47"/>
-      <c r="FS3" s="47"/>
-      <c r="FT3" s="47"/>
-      <c r="FU3" s="48"/>
-      <c r="FV3" s="46">
+      <c r="FG3" s="52"/>
+      <c r="FH3" s="52"/>
+      <c r="FI3" s="52"/>
+      <c r="FJ3" s="52"/>
+      <c r="FK3" s="52"/>
+      <c r="FL3" s="52"/>
+      <c r="FM3" s="52"/>
+      <c r="FN3" s="52"/>
+      <c r="FO3" s="52"/>
+      <c r="FP3" s="52"/>
+      <c r="FQ3" s="52"/>
+      <c r="FR3" s="52"/>
+      <c r="FS3" s="52"/>
+      <c r="FT3" s="52"/>
+      <c r="FU3" s="53"/>
+      <c r="FV3" s="54">
         <v>13</v>
       </c>
-      <c r="FW3" s="47"/>
-      <c r="FX3" s="47"/>
-      <c r="FY3" s="47"/>
-      <c r="FZ3" s="47"/>
-      <c r="GA3" s="47"/>
-      <c r="GB3" s="47"/>
-      <c r="GC3" s="47"/>
-      <c r="GD3" s="47"/>
-      <c r="GE3" s="47"/>
-      <c r="GF3" s="47"/>
-      <c r="GG3" s="47"/>
-      <c r="GH3" s="47"/>
-      <c r="GI3" s="47"/>
-      <c r="GJ3" s="47"/>
-      <c r="GK3" s="48"/>
-      <c r="GL3" s="46">
+      <c r="FW3" s="52"/>
+      <c r="FX3" s="52"/>
+      <c r="FY3" s="52"/>
+      <c r="FZ3" s="52"/>
+      <c r="GA3" s="52"/>
+      <c r="GB3" s="52"/>
+      <c r="GC3" s="52"/>
+      <c r="GD3" s="52"/>
+      <c r="GE3" s="52"/>
+      <c r="GF3" s="52"/>
+      <c r="GG3" s="52"/>
+      <c r="GH3" s="52"/>
+      <c r="GI3" s="52"/>
+      <c r="GJ3" s="52"/>
+      <c r="GK3" s="53"/>
+      <c r="GL3" s="54">
         <v>17</v>
       </c>
-      <c r="GM3" s="47"/>
-      <c r="GN3" s="47"/>
-      <c r="GO3" s="47"/>
-      <c r="GP3" s="47"/>
-      <c r="GQ3" s="47"/>
-      <c r="GR3" s="47"/>
-      <c r="GS3" s="47"/>
-      <c r="GT3" s="47"/>
-      <c r="GU3" s="47"/>
-      <c r="GV3" s="47"/>
-      <c r="GW3" s="47"/>
-      <c r="GX3" s="47"/>
-      <c r="GY3" s="47"/>
-      <c r="GZ3" s="47"/>
-      <c r="HA3" s="48"/>
-      <c r="HB3" s="46">
+      <c r="GM3" s="52"/>
+      <c r="GN3" s="52"/>
+      <c r="GO3" s="52"/>
+      <c r="GP3" s="52"/>
+      <c r="GQ3" s="52"/>
+      <c r="GR3" s="52"/>
+      <c r="GS3" s="52"/>
+      <c r="GT3" s="52"/>
+      <c r="GU3" s="52"/>
+      <c r="GV3" s="52"/>
+      <c r="GW3" s="52"/>
+      <c r="GX3" s="52"/>
+      <c r="GY3" s="52"/>
+      <c r="GZ3" s="52"/>
+      <c r="HA3" s="53"/>
+      <c r="HB3" s="54">
         <v>17</v>
       </c>
-      <c r="HC3" s="47"/>
-      <c r="HD3" s="47"/>
-      <c r="HE3" s="47"/>
-      <c r="HF3" s="47"/>
-      <c r="HG3" s="47"/>
-      <c r="HH3" s="47"/>
-      <c r="HI3" s="47"/>
-      <c r="HJ3" s="47"/>
-      <c r="HK3" s="47"/>
-      <c r="HL3" s="47"/>
-      <c r="HM3" s="47"/>
-      <c r="HN3" s="47"/>
-      <c r="HO3" s="47"/>
-      <c r="HP3" s="47"/>
-      <c r="HQ3" s="48"/>
-      <c r="HR3" s="46">
+      <c r="HC3" s="52"/>
+      <c r="HD3" s="52"/>
+      <c r="HE3" s="52"/>
+      <c r="HF3" s="52"/>
+      <c r="HG3" s="52"/>
+      <c r="HH3" s="52"/>
+      <c r="HI3" s="52"/>
+      <c r="HJ3" s="52"/>
+      <c r="HK3" s="52"/>
+      <c r="HL3" s="52"/>
+      <c r="HM3" s="52"/>
+      <c r="HN3" s="52"/>
+      <c r="HO3" s="52"/>
+      <c r="HP3" s="52"/>
+      <c r="HQ3" s="53"/>
+      <c r="HR3" s="54">
         <v>17</v>
       </c>
-      <c r="HS3" s="47"/>
-      <c r="HT3" s="47"/>
-      <c r="HU3" s="47"/>
-      <c r="HV3" s="47"/>
-      <c r="HW3" s="47"/>
-      <c r="HX3" s="47"/>
-      <c r="HY3" s="47"/>
-      <c r="HZ3" s="47"/>
-      <c r="IA3" s="47"/>
-      <c r="IB3" s="47"/>
-      <c r="IC3" s="47"/>
-      <c r="ID3" s="47"/>
-      <c r="IE3" s="47"/>
-      <c r="IF3" s="47"/>
-      <c r="IG3" s="48"/>
-      <c r="IH3" s="46">
+      <c r="HS3" s="52"/>
+      <c r="HT3" s="52"/>
+      <c r="HU3" s="52"/>
+      <c r="HV3" s="52"/>
+      <c r="HW3" s="52"/>
+      <c r="HX3" s="52"/>
+      <c r="HY3" s="52"/>
+      <c r="HZ3" s="52"/>
+      <c r="IA3" s="52"/>
+      <c r="IB3" s="52"/>
+      <c r="IC3" s="52"/>
+      <c r="ID3" s="52"/>
+      <c r="IE3" s="52"/>
+      <c r="IF3" s="52"/>
+      <c r="IG3" s="53"/>
+      <c r="IH3" s="54">
         <v>17</v>
       </c>
-      <c r="II3" s="47"/>
-      <c r="IJ3" s="47"/>
-      <c r="IK3" s="47"/>
-      <c r="IL3" s="47"/>
-      <c r="IM3" s="47"/>
-      <c r="IN3" s="47"/>
-      <c r="IO3" s="47"/>
-      <c r="IP3" s="47"/>
-      <c r="IQ3" s="47"/>
-      <c r="IR3" s="47"/>
-      <c r="IS3" s="47"/>
-      <c r="IT3" s="47"/>
-      <c r="IU3" s="47"/>
-      <c r="IV3" s="47"/>
-      <c r="IW3" s="48"/>
+      <c r="II3" s="52"/>
+      <c r="IJ3" s="52"/>
+      <c r="IK3" s="52"/>
+      <c r="IL3" s="52"/>
+      <c r="IM3" s="52"/>
+      <c r="IN3" s="52"/>
+      <c r="IO3" s="52"/>
+      <c r="IP3" s="52"/>
+      <c r="IQ3" s="52"/>
+      <c r="IR3" s="52"/>
+      <c r="IS3" s="52"/>
+      <c r="IT3" s="52"/>
+      <c r="IU3" s="52"/>
+      <c r="IV3" s="52"/>
+      <c r="IW3" s="53"/>
     </row>
     <row r="4" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="44" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="45" t="s">
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="44" t="s">
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="45" t="s">
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="44" t="s">
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44"/>
-      <c r="BE4" s="44"/>
-      <c r="BF4" s="45" t="s">
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="46"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="46"/>
+      <c r="BE4" s="46"/>
+      <c r="BF4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="BG4" s="45"/>
-      <c r="BH4" s="45"/>
-      <c r="BI4" s="45"/>
-      <c r="BJ4" s="45"/>
-      <c r="BK4" s="45"/>
-      <c r="BL4" s="45"/>
-      <c r="BM4" s="45"/>
-      <c r="BN4" s="44" t="s">
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="45" t="s">
+      <c r="BO4" s="46"/>
+      <c r="BP4" s="46"/>
+      <c r="BQ4" s="46"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="46"/>
+      <c r="BT4" s="46"/>
+      <c r="BU4" s="46"/>
+      <c r="BV4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="BW4" s="45"/>
-      <c r="BX4" s="45"/>
-      <c r="BY4" s="45"/>
-      <c r="BZ4" s="45"/>
-      <c r="CA4" s="45"/>
-      <c r="CB4" s="45"/>
-      <c r="CC4" s="45"/>
-      <c r="CD4" s="44" t="s">
+      <c r="BW4" s="47"/>
+      <c r="BX4" s="47"/>
+      <c r="BY4" s="47"/>
+      <c r="BZ4" s="47"/>
+      <c r="CA4" s="47"/>
+      <c r="CB4" s="47"/>
+      <c r="CC4" s="47"/>
+      <c r="CD4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="CE4" s="44"/>
-      <c r="CF4" s="44"/>
-      <c r="CG4" s="44"/>
-      <c r="CH4" s="44"/>
-      <c r="CI4" s="44"/>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="44"/>
-      <c r="CL4" s="45" t="s">
+      <c r="CE4" s="46"/>
+      <c r="CF4" s="46"/>
+      <c r="CG4" s="46"/>
+      <c r="CH4" s="46"/>
+      <c r="CI4" s="46"/>
+      <c r="CJ4" s="46"/>
+      <c r="CK4" s="46"/>
+      <c r="CL4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="CM4" s="45"/>
-      <c r="CN4" s="45"/>
-      <c r="CO4" s="45"/>
-      <c r="CP4" s="45"/>
-      <c r="CQ4" s="45"/>
-      <c r="CR4" s="45"/>
-      <c r="CS4" s="45"/>
-      <c r="CT4" s="44" t="s">
+      <c r="CM4" s="47"/>
+      <c r="CN4" s="47"/>
+      <c r="CO4" s="47"/>
+      <c r="CP4" s="47"/>
+      <c r="CQ4" s="47"/>
+      <c r="CR4" s="47"/>
+      <c r="CS4" s="47"/>
+      <c r="CT4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="CU4" s="44"/>
-      <c r="CV4" s="44"/>
-      <c r="CW4" s="44"/>
-      <c r="CX4" s="44"/>
-      <c r="CY4" s="44"/>
-      <c r="CZ4" s="44"/>
-      <c r="DA4" s="44"/>
-      <c r="DB4" s="45" t="s">
+      <c r="CU4" s="46"/>
+      <c r="CV4" s="46"/>
+      <c r="CW4" s="46"/>
+      <c r="CX4" s="46"/>
+      <c r="CY4" s="46"/>
+      <c r="CZ4" s="46"/>
+      <c r="DA4" s="46"/>
+      <c r="DB4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="DC4" s="45"/>
-      <c r="DD4" s="45"/>
-      <c r="DE4" s="45"/>
-      <c r="DF4" s="45"/>
-      <c r="DG4" s="45"/>
-      <c r="DH4" s="45"/>
-      <c r="DI4" s="45"/>
-      <c r="DJ4" s="44" t="s">
+      <c r="DC4" s="47"/>
+      <c r="DD4" s="47"/>
+      <c r="DE4" s="47"/>
+      <c r="DF4" s="47"/>
+      <c r="DG4" s="47"/>
+      <c r="DH4" s="47"/>
+      <c r="DI4" s="47"/>
+      <c r="DJ4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="DK4" s="44"/>
-      <c r="DL4" s="44"/>
-      <c r="DM4" s="44"/>
-      <c r="DN4" s="44"/>
-      <c r="DO4" s="44"/>
-      <c r="DP4" s="44"/>
-      <c r="DQ4" s="44"/>
-      <c r="DR4" s="45" t="s">
+      <c r="DK4" s="46"/>
+      <c r="DL4" s="46"/>
+      <c r="DM4" s="46"/>
+      <c r="DN4" s="46"/>
+      <c r="DO4" s="46"/>
+      <c r="DP4" s="46"/>
+      <c r="DQ4" s="46"/>
+      <c r="DR4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="DS4" s="45"/>
-      <c r="DT4" s="45"/>
-      <c r="DU4" s="45"/>
-      <c r="DV4" s="45"/>
-      <c r="DW4" s="45"/>
-      <c r="DX4" s="45"/>
-      <c r="DY4" s="45"/>
-      <c r="DZ4" s="44" t="s">
+      <c r="DS4" s="47"/>
+      <c r="DT4" s="47"/>
+      <c r="DU4" s="47"/>
+      <c r="DV4" s="47"/>
+      <c r="DW4" s="47"/>
+      <c r="DX4" s="47"/>
+      <c r="DY4" s="47"/>
+      <c r="DZ4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="EA4" s="44"/>
-      <c r="EB4" s="44"/>
-      <c r="EC4" s="44"/>
-      <c r="ED4" s="44"/>
-      <c r="EE4" s="44"/>
-      <c r="EF4" s="44"/>
-      <c r="EG4" s="44"/>
-      <c r="EH4" s="45" t="s">
+      <c r="EA4" s="46"/>
+      <c r="EB4" s="46"/>
+      <c r="EC4" s="46"/>
+      <c r="ED4" s="46"/>
+      <c r="EE4" s="46"/>
+      <c r="EF4" s="46"/>
+      <c r="EG4" s="46"/>
+      <c r="EH4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="EI4" s="45"/>
-      <c r="EJ4" s="45"/>
-      <c r="EK4" s="45"/>
-      <c r="EL4" s="45"/>
-      <c r="EM4" s="45"/>
-      <c r="EN4" s="45"/>
-      <c r="EO4" s="45"/>
-      <c r="EP4" s="44" t="s">
+      <c r="EI4" s="47"/>
+      <c r="EJ4" s="47"/>
+      <c r="EK4" s="47"/>
+      <c r="EL4" s="47"/>
+      <c r="EM4" s="47"/>
+      <c r="EN4" s="47"/>
+      <c r="EO4" s="47"/>
+      <c r="EP4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="EQ4" s="44"/>
-      <c r="ER4" s="44"/>
-      <c r="ES4" s="44"/>
-      <c r="ET4" s="44"/>
-      <c r="EU4" s="44"/>
-      <c r="EV4" s="44"/>
-      <c r="EW4" s="44"/>
-      <c r="EX4" s="45" t="s">
+      <c r="EQ4" s="46"/>
+      <c r="ER4" s="46"/>
+      <c r="ES4" s="46"/>
+      <c r="ET4" s="46"/>
+      <c r="EU4" s="46"/>
+      <c r="EV4" s="46"/>
+      <c r="EW4" s="46"/>
+      <c r="EX4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="EY4" s="45"/>
-      <c r="EZ4" s="45"/>
-      <c r="FA4" s="45"/>
-      <c r="FB4" s="45"/>
-      <c r="FC4" s="45"/>
-      <c r="FD4" s="45"/>
-      <c r="FE4" s="45"/>
-      <c r="FF4" s="44" t="s">
+      <c r="EY4" s="47"/>
+      <c r="EZ4" s="47"/>
+      <c r="FA4" s="47"/>
+      <c r="FB4" s="47"/>
+      <c r="FC4" s="47"/>
+      <c r="FD4" s="47"/>
+      <c r="FE4" s="47"/>
+      <c r="FF4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="FG4" s="44"/>
-      <c r="FH4" s="44"/>
-      <c r="FI4" s="44"/>
-      <c r="FJ4" s="44"/>
-      <c r="FK4" s="44"/>
-      <c r="FL4" s="44"/>
-      <c r="FM4" s="44"/>
-      <c r="FN4" s="45" t="s">
+      <c r="FG4" s="46"/>
+      <c r="FH4" s="46"/>
+      <c r="FI4" s="46"/>
+      <c r="FJ4" s="46"/>
+      <c r="FK4" s="46"/>
+      <c r="FL4" s="46"/>
+      <c r="FM4" s="46"/>
+      <c r="FN4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="FO4" s="45"/>
-      <c r="FP4" s="45"/>
-      <c r="FQ4" s="45"/>
-      <c r="FR4" s="45"/>
-      <c r="FS4" s="45"/>
-      <c r="FT4" s="45"/>
-      <c r="FU4" s="45"/>
-      <c r="FV4" s="44" t="s">
+      <c r="FO4" s="47"/>
+      <c r="FP4" s="47"/>
+      <c r="FQ4" s="47"/>
+      <c r="FR4" s="47"/>
+      <c r="FS4" s="47"/>
+      <c r="FT4" s="47"/>
+      <c r="FU4" s="47"/>
+      <c r="FV4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="FW4" s="44"/>
-      <c r="FX4" s="44"/>
-      <c r="FY4" s="44"/>
-      <c r="FZ4" s="44"/>
-      <c r="GA4" s="44"/>
-      <c r="GB4" s="44"/>
-      <c r="GC4" s="44"/>
-      <c r="GD4" s="45" t="s">
+      <c r="FW4" s="46"/>
+      <c r="FX4" s="46"/>
+      <c r="FY4" s="46"/>
+      <c r="FZ4" s="46"/>
+      <c r="GA4" s="46"/>
+      <c r="GB4" s="46"/>
+      <c r="GC4" s="46"/>
+      <c r="GD4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="GE4" s="45"/>
-      <c r="GF4" s="45"/>
-      <c r="GG4" s="45"/>
-      <c r="GH4" s="45"/>
-      <c r="GI4" s="45"/>
-      <c r="GJ4" s="45"/>
-      <c r="GK4" s="45"/>
-      <c r="GL4" s="44" t="s">
+      <c r="GE4" s="47"/>
+      <c r="GF4" s="47"/>
+      <c r="GG4" s="47"/>
+      <c r="GH4" s="47"/>
+      <c r="GI4" s="47"/>
+      <c r="GJ4" s="47"/>
+      <c r="GK4" s="47"/>
+      <c r="GL4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="GM4" s="44"/>
-      <c r="GN4" s="44"/>
-      <c r="GO4" s="44"/>
-      <c r="GP4" s="44"/>
-      <c r="GQ4" s="44"/>
-      <c r="GR4" s="44"/>
-      <c r="GS4" s="44"/>
-      <c r="GT4" s="45" t="s">
+      <c r="GM4" s="46"/>
+      <c r="GN4" s="46"/>
+      <c r="GO4" s="46"/>
+      <c r="GP4" s="46"/>
+      <c r="GQ4" s="46"/>
+      <c r="GR4" s="46"/>
+      <c r="GS4" s="46"/>
+      <c r="GT4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="GU4" s="45"/>
-      <c r="GV4" s="45"/>
-      <c r="GW4" s="45"/>
-      <c r="GX4" s="45"/>
-      <c r="GY4" s="45"/>
-      <c r="GZ4" s="45"/>
-      <c r="HA4" s="45"/>
-      <c r="HB4" s="44" t="s">
+      <c r="GU4" s="47"/>
+      <c r="GV4" s="47"/>
+      <c r="GW4" s="47"/>
+      <c r="GX4" s="47"/>
+      <c r="GY4" s="47"/>
+      <c r="GZ4" s="47"/>
+      <c r="HA4" s="47"/>
+      <c r="HB4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="HC4" s="44"/>
-      <c r="HD4" s="44"/>
-      <c r="HE4" s="44"/>
-      <c r="HF4" s="44"/>
-      <c r="HG4" s="44"/>
-      <c r="HH4" s="44"/>
-      <c r="HI4" s="44"/>
-      <c r="HJ4" s="45" t="s">
+      <c r="HC4" s="46"/>
+      <c r="HD4" s="46"/>
+      <c r="HE4" s="46"/>
+      <c r="HF4" s="46"/>
+      <c r="HG4" s="46"/>
+      <c r="HH4" s="46"/>
+      <c r="HI4" s="46"/>
+      <c r="HJ4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="HK4" s="45"/>
-      <c r="HL4" s="45"/>
-      <c r="HM4" s="45"/>
-      <c r="HN4" s="45"/>
-      <c r="HO4" s="45"/>
-      <c r="HP4" s="45"/>
-      <c r="HQ4" s="45"/>
-      <c r="HR4" s="44" t="s">
+      <c r="HK4" s="47"/>
+      <c r="HL4" s="47"/>
+      <c r="HM4" s="47"/>
+      <c r="HN4" s="47"/>
+      <c r="HO4" s="47"/>
+      <c r="HP4" s="47"/>
+      <c r="HQ4" s="47"/>
+      <c r="HR4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="HS4" s="44"/>
-      <c r="HT4" s="44"/>
-      <c r="HU4" s="44"/>
-      <c r="HV4" s="44"/>
-      <c r="HW4" s="44"/>
-      <c r="HX4" s="44"/>
-      <c r="HY4" s="44"/>
-      <c r="HZ4" s="45" t="s">
+      <c r="HS4" s="46"/>
+      <c r="HT4" s="46"/>
+      <c r="HU4" s="46"/>
+      <c r="HV4" s="46"/>
+      <c r="HW4" s="46"/>
+      <c r="HX4" s="46"/>
+      <c r="HY4" s="46"/>
+      <c r="HZ4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="IA4" s="45"/>
-      <c r="IB4" s="45"/>
-      <c r="IC4" s="45"/>
-      <c r="ID4" s="45"/>
-      <c r="IE4" s="45"/>
-      <c r="IF4" s="45"/>
-      <c r="IG4" s="45"/>
-      <c r="IH4" s="44" t="s">
+      <c r="IA4" s="47"/>
+      <c r="IB4" s="47"/>
+      <c r="IC4" s="47"/>
+      <c r="ID4" s="47"/>
+      <c r="IE4" s="47"/>
+      <c r="IF4" s="47"/>
+      <c r="IG4" s="47"/>
+      <c r="IH4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="II4" s="44"/>
-      <c r="IJ4" s="44"/>
-      <c r="IK4" s="44"/>
-      <c r="IL4" s="44"/>
-      <c r="IM4" s="44"/>
-      <c r="IN4" s="44"/>
-      <c r="IO4" s="44"/>
-      <c r="IP4" s="45" t="s">
+      <c r="II4" s="46"/>
+      <c r="IJ4" s="46"/>
+      <c r="IK4" s="46"/>
+      <c r="IL4" s="46"/>
+      <c r="IM4" s="46"/>
+      <c r="IN4" s="46"/>
+      <c r="IO4" s="46"/>
+      <c r="IP4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="IQ4" s="45"/>
-      <c r="IR4" s="45"/>
-      <c r="IS4" s="45"/>
-      <c r="IT4" s="45"/>
-      <c r="IU4" s="45"/>
-      <c r="IV4" s="45"/>
-      <c r="IW4" s="45"/>
+      <c r="IQ4" s="47"/>
+      <c r="IR4" s="47"/>
+      <c r="IS4" s="47"/>
+      <c r="IT4" s="47"/>
+      <c r="IU4" s="47"/>
+      <c r="IV4" s="47"/>
+      <c r="IW4" s="47"/>
     </row>
     <row r="5" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -28782,7 +28939,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C33">
         <f>SUM(B2:IW2)</f>
@@ -28791,41 +28948,35 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="R1:AG1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="R2:AG2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="R4:Y4"/>
-    <mergeCell ref="Z4:AG4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="R3:AG3"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AP4:AW4"/>
-    <mergeCell ref="AX4:BE4"/>
-    <mergeCell ref="BF4:BM4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="CL4:CS4"/>
-    <mergeCell ref="CT4:DA4"/>
-    <mergeCell ref="DB4:DI4"/>
-    <mergeCell ref="DJ4:DQ4"/>
-    <mergeCell ref="DR4:DY4"/>
-    <mergeCell ref="DZ4:EG4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="FV4:GC4"/>
-    <mergeCell ref="GD4:GK4"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="HJ4:HQ4"/>
-    <mergeCell ref="HR4:HY4"/>
+    <mergeCell ref="HB2:HQ2"/>
+    <mergeCell ref="HR2:IG2"/>
+    <mergeCell ref="IH2:IW2"/>
+    <mergeCell ref="DZ2:EO2"/>
+    <mergeCell ref="EP2:FE2"/>
+    <mergeCell ref="FF2:FU2"/>
+    <mergeCell ref="FV2:GK2"/>
+    <mergeCell ref="GL2:HA2"/>
+    <mergeCell ref="AX2:BM2"/>
+    <mergeCell ref="BN2:CC2"/>
+    <mergeCell ref="CD2:CS2"/>
+    <mergeCell ref="CT2:DI2"/>
+    <mergeCell ref="DJ2:DY2"/>
+    <mergeCell ref="IH3:IW3"/>
+    <mergeCell ref="AH1:AW1"/>
+    <mergeCell ref="AX1:BM1"/>
+    <mergeCell ref="BN1:CC1"/>
+    <mergeCell ref="CD1:CS1"/>
+    <mergeCell ref="CT1:DI1"/>
+    <mergeCell ref="DJ1:DY1"/>
+    <mergeCell ref="DZ1:EO1"/>
+    <mergeCell ref="EP1:FE1"/>
+    <mergeCell ref="FF1:FU1"/>
+    <mergeCell ref="FV1:GK1"/>
+    <mergeCell ref="GL1:HA1"/>
+    <mergeCell ref="HB1:HQ1"/>
+    <mergeCell ref="HR1:IG1"/>
+    <mergeCell ref="IH1:IW1"/>
+    <mergeCell ref="AH2:AW2"/>
     <mergeCell ref="HZ4:IG4"/>
     <mergeCell ref="IH4:IO4"/>
     <mergeCell ref="IP4:IW4"/>
@@ -28842,35 +28993,41 @@
     <mergeCell ref="GL3:HA3"/>
     <mergeCell ref="HB3:HQ3"/>
     <mergeCell ref="HR3:IG3"/>
-    <mergeCell ref="IH3:IW3"/>
-    <mergeCell ref="AH1:AW1"/>
-    <mergeCell ref="AX1:BM1"/>
-    <mergeCell ref="BN1:CC1"/>
-    <mergeCell ref="CD1:CS1"/>
-    <mergeCell ref="CT1:DI1"/>
-    <mergeCell ref="DJ1:DY1"/>
-    <mergeCell ref="DZ1:EO1"/>
-    <mergeCell ref="EP1:FE1"/>
-    <mergeCell ref="FF1:FU1"/>
-    <mergeCell ref="FV1:GK1"/>
-    <mergeCell ref="GL1:HA1"/>
-    <mergeCell ref="HB1:HQ1"/>
-    <mergeCell ref="HR1:IG1"/>
-    <mergeCell ref="IH1:IW1"/>
-    <mergeCell ref="AH2:AW2"/>
-    <mergeCell ref="AX2:BM2"/>
-    <mergeCell ref="BN2:CC2"/>
-    <mergeCell ref="CD2:CS2"/>
-    <mergeCell ref="CT2:DI2"/>
-    <mergeCell ref="DJ2:DY2"/>
-    <mergeCell ref="HB2:HQ2"/>
-    <mergeCell ref="HR2:IG2"/>
-    <mergeCell ref="IH2:IW2"/>
-    <mergeCell ref="DZ2:EO2"/>
-    <mergeCell ref="EP2:FE2"/>
-    <mergeCell ref="FF2:FU2"/>
-    <mergeCell ref="FV2:GK2"/>
-    <mergeCell ref="GL2:HA2"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="HJ4:HQ4"/>
+    <mergeCell ref="HR4:HY4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="FV4:GC4"/>
+    <mergeCell ref="GD4:GK4"/>
+    <mergeCell ref="DJ4:DQ4"/>
+    <mergeCell ref="DR4:DY4"/>
+    <mergeCell ref="DZ4:EG4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="CL4:CS4"/>
+    <mergeCell ref="CT4:DA4"/>
+    <mergeCell ref="DB4:DI4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="AP4:AW4"/>
+    <mergeCell ref="AX4:BE4"/>
+    <mergeCell ref="BF4:BM4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="R2:AG2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="R3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28880,8 +29037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34457C1F-16A1-2E47-82DD-6A9CAEA6B476}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I5"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28894,28 +29051,28 @@
         <v>17</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -29054,28 +29211,28 @@
         <v>17</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -29201,15 +29358,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D89E28-915C-F54C-B37A-2FAB20B0DB56}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -29217,7 +29374,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -29230,7 +29387,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>359</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -29238,49 +29395,65 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="B11" s="13">
         <v>8</v>
       </c>
     </row>

--- a/Data/OurData.xlsx
+++ b/Data/OurData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D0B25A-C9CE-A84E-90F6-03F38DC60C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503EDB9C-1356-184F-9975-216419F587FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="5" activeTab="14" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Extra" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Arcs!$A$1:$N$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Arcs!$A$1:$N$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Nodes!$A$2:$AI$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">ProductionCapacities!$A$1:$H$51</definedName>
   </definedNames>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="374">
   <si>
     <t>ID</t>
   </si>
@@ -1163,6 +1163,42 @@
   </si>
   <si>
     <t>Allowed percentage Stage 3</t>
+  </si>
+  <si>
+    <t>Som</t>
+  </si>
+  <si>
+    <t>Ruud</t>
+  </si>
+  <si>
+    <t>Gassco</t>
+  </si>
+  <si>
+    <t>Berend</t>
+  </si>
+  <si>
+    <t>Dummy pipe 3</t>
+  </si>
+  <si>
+    <t>Dummy pipe 4</t>
+  </si>
+  <si>
+    <t>Dummy pipe 5</t>
+  </si>
+  <si>
+    <t>Dummy pipe 6</t>
+  </si>
+  <si>
+    <t>Dummy pipe 7</t>
+  </si>
+  <si>
+    <t>Source en sink omgegraaid.</t>
+  </si>
+  <si>
+    <t>Los</t>
+  </si>
+  <si>
+    <t>Productie binnen het netwerk</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1343,6 +1379,30 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1478,7 +1538,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -1539,11 +1599,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1962,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2057,7 +2129,7 @@
         <v>48.1</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f>IF(I2=100,"Capacity unknown","")</f>
+        <f t="shared" ref="J2:J46" si="0">IF(I2=100,"Capacity unknown","")</f>
         <v/>
       </c>
       <c r="K2" s="1">
@@ -2104,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J53" si="0">IF(I3=100,"Capacity unknown","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K3" s="1">
@@ -2144,7 +2216,7 @@
       <c r="G4" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="50" t="s">
         <v>143</v>
       </c>
       <c r="I4" s="1">
@@ -2194,8 +2266,8 @@
       <c r="H5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="1">
-        <v>46</v>
+      <c r="I5" s="42">
+        <v>45.7</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2241,8 +2313,8 @@
       <c r="H6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="1">
-        <v>46</v>
+      <c r="I6" s="42">
+        <v>45.7</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2288,8 +2360,8 @@
       <c r="H7" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I7" s="1">
-        <v>71</v>
+      <c r="I7" s="42">
+        <v>73.5</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2335,11 +2407,11 @@
       <c r="H8" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I8" s="1">
-        <v>71</v>
+      <c r="I8" s="42">
+        <v>73.5</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" ref="J8" si="1">IF(I8=100,"Capacity unknown","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K8" s="1">
@@ -2382,8 +2454,8 @@
       <c r="H9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="1">
-        <v>55</v>
+      <c r="I9" s="42">
+        <v>54.2</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2429,8 +2501,8 @@
       <c r="H10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="1">
-        <v>27</v>
+      <c r="I10" s="42">
+        <v>33.5</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2476,8 +2548,8 @@
       <c r="H11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I11" s="1">
-        <v>75</v>
+      <c r="I11" s="42">
+        <v>74.7</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2523,8 +2595,8 @@
       <c r="H12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="1">
-        <v>72</v>
+      <c r="I12" s="42">
+        <v>73.8</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2570,8 +2642,8 @@
       <c r="H13" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I13" s="1">
-        <v>7</v>
+      <c r="I13" s="42">
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2617,8 +2689,8 @@
       <c r="H14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I14" s="1">
-        <v>32</v>
+      <c r="I14" s="42">
+        <v>44.4</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2664,8 +2736,8 @@
       <c r="H15" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="1">
-        <v>32</v>
+      <c r="I15" s="42">
+        <v>44.4</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2711,8 +2783,8 @@
       <c r="H16" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I16" s="1">
-        <v>32</v>
+      <c r="I16" s="42">
+        <v>44.4</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2753,13 +2825,13 @@
         <v>116</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="1">
-        <v>32</v>
+      <c r="I17" s="42">
+        <v>44.4</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2771,7 +2843,7 @@
       </c>
       <c r="L17" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G17,Nodes!$B:$B,0))</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
@@ -2805,7 +2877,7 @@
       <c r="H18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="42">
         <v>35</v>
       </c>
       <c r="J18" s="1" t="str">
@@ -2899,8 +2971,8 @@
       <c r="H20" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
+      <c r="I20" s="42">
+        <v>30.7</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2946,8 +3018,8 @@
       <c r="H21" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="1">
-        <v>21</v>
+      <c r="I21" s="42">
+        <v>21.1</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2993,8 +3065,8 @@
       <c r="H22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I22" s="1">
-        <v>30</v>
+      <c r="I22" s="42">
+        <v>44.4</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3087,8 +3159,8 @@
       <c r="H24" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I24" s="1">
-        <v>13.5</v>
+      <c r="I24" s="42">
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3134,8 +3206,8 @@
       <c r="H25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I25" s="1">
-        <v>39</v>
+      <c r="I25" s="42">
+        <v>36.9</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3181,8 +3253,8 @@
       <c r="H26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I26" s="1">
-        <v>55</v>
+      <c r="I26" s="42">
+        <v>42.2</v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3228,8 +3300,8 @@
       <c r="H27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="1">
-        <v>42</v>
+      <c r="I27" s="42">
+        <v>42.2</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3275,7 +3347,7 @@
       <c r="H28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="42">
         <v>74</v>
       </c>
       <c r="J28" s="1" t="str">
@@ -3322,7 +3394,7 @@
       <c r="H29" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="42">
         <v>73</v>
       </c>
       <c r="J29" s="1" t="str">
@@ -3369,8 +3441,8 @@
       <c r="H30" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I30" s="1">
-        <v>17</v>
+      <c r="I30" s="42">
+        <v>18.2</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3510,8 +3582,8 @@
       <c r="H33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I33" s="1">
-        <v>5</v>
+      <c r="I33" s="42">
+        <v>4.7</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3698,7 +3770,7 @@
       <c r="H37" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="43">
         <v>61</v>
       </c>
       <c r="J37" s="1" t="str">
@@ -3725,28 +3797,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>84</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="I38" s="42">
+        <v>57.6</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3754,7 +3826,7 @@
       </c>
       <c r="K38" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F38,Nodes!$B:$B,0))</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L38" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G38,Nodes!$B:$B,0))</f>
@@ -3772,28 +3844,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I39" s="1">
-        <v>70</v>
+        <v>48.1</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3801,11 +3873,11 @@
       </c>
       <c r="K39" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F39,Nodes!$B:$B,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L39" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G39,Nodes!$B:$B,0))</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M39" s="2">
         <v>1</v>
@@ -3819,28 +3891,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I40" s="1">
-        <v>48.1</v>
+        <v>119.1</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3848,11 +3920,11 @@
       </c>
       <c r="K40" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F40,Nodes!$B:$B,0))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L40" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G40,Nodes!$B:$B,0))</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
@@ -3866,7 +3938,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>190</v>
@@ -3875,19 +3947,19 @@
         <v>134</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>242</v>
+        <v>90</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I41" s="1">
-        <v>119.1</v>
+        <v>217</v>
+      </c>
+      <c r="I41" s="43">
+        <v>110</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3895,11 +3967,11 @@
       </c>
       <c r="K41" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F41,Nodes!$B:$B,0))</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L41" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G41,Nodes!$B:$B,0))</f>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="M41" s="2">
         <v>1</v>
@@ -3913,28 +3985,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I42" s="1">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3942,11 +4014,11 @@
       </c>
       <c r="K42" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F42,Nodes!$B:$B,0))</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L42" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G42,Nodes!$B:$B,0))</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M42" s="2">
         <v>1</v>
@@ -3960,28 +4032,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="I43" s="42">
+        <v>55</v>
       </c>
       <c r="J43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3989,11 +4061,11 @@
       </c>
       <c r="K43" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F43,Nodes!$B:$B,0))</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L43" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G43,Nodes!$B:$B,0))</f>
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M43" s="2">
         <v>1</v>
@@ -4007,28 +4079,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
+        <v>352</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" s="21">
+        <v>32</v>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4036,11 +4102,11 @@
       </c>
       <c r="K44" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F44,Nodes!$B:$B,0))</f>
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="L44" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G44,Nodes!$B:$B,0))</f>
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M44" s="2">
         <v>1</v>
@@ -4054,28 +4120,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I45" s="1">
-        <v>5</v>
+        <v>353</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I45" s="21">
+        <v>52</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4083,11 +4143,11 @@
       </c>
       <c r="K45" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F45,Nodes!$B:$B,0))</f>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L45" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G45,Nodes!$B:$B,0))</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="M45" s="2">
         <v>1</v>
@@ -4101,28 +4161,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I46" s="1">
-        <v>55</v>
+        <v>354</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I46" s="21">
+        <v>32</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4130,11 +4184,11 @@
       </c>
       <c r="K46" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F46,Nodes!$B:$B,0))</f>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L46" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G46,Nodes!$B:$B,0))</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M46" s="2">
         <v>1</v>
@@ -4148,34 +4202,33 @@
         <v>46</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>352</v>
+        <v>227</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>123</v>
+      <c r="F47" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>115</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I47" s="21">
-        <v>32</v>
-      </c>
-      <c r="J47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>48</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="K47" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F47,Nodes!$B:$B,0))</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L47" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G47,Nodes!$B:$B,0))</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M47" s="2">
         <v>1</v>
@@ -4189,34 +4242,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>353</v>
+        <v>229</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>125</v>
+      <c r="F48" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I48" s="21">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="J48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J48:J55" si="1">IF(I48=100,"Capacity unknown","")</f>
         <v/>
       </c>
       <c r="K48" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F48,Nodes!$B:$B,0))</f>
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="L48" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G48,Nodes!$B:$B,0))</f>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M48" s="2">
         <v>1</v>
@@ -4229,35 +4282,29 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="I49" s="21">
-        <v>32</v>
-      </c>
-      <c r="J49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B49" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" s="33">
+        <v>100</v>
+      </c>
+      <c r="J49" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Capacity unknown</v>
       </c>
       <c r="K49" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F49,Nodes!$B:$B,0))</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L49" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G49,Nodes!$B:$B,0))</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M49" s="2">
         <v>1</v>
@@ -4270,35 +4317,29 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="I50" s="21">
-        <v>48</v>
-      </c>
-      <c r="J50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B50" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" s="33">
+        <v>100</v>
+      </c>
+      <c r="J50" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Capacity unknown</v>
       </c>
       <c r="K50" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F50,Nodes!$B:$B,0))</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L50" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G50,Nodes!$B:$B,0))</f>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
@@ -4311,35 +4352,29 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="I51" s="21">
-        <v>33</v>
-      </c>
-      <c r="J51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B51" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I51" s="33">
+        <v>100</v>
+      </c>
+      <c r="J51" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Capacity unknown</v>
       </c>
       <c r="K51" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F51,Nodes!$B:$B,0))</f>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L51" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G51,Nodes!$B:$B,0))</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M51" s="2">
         <v>1</v>
@@ -4349,32 +4384,32 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="30">
         <v>51</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="I52" s="33">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J52" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>Capacity unknown</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="K52" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F52,Nodes!$B:$B,0))</f>
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L52" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G52,Nodes!$B:$B,0))</f>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M52" s="2">
         <v>1</v>
@@ -4388,28 +4423,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>126</v>
+        <v>368</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="I53" s="33">
         <v>100</v>
       </c>
       <c r="J53" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Capacity unknown</v>
       </c>
       <c r="K53" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F53,Nodes!$B:$B,0))</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L53" s="1">
         <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G53,Nodes!$B:$B,0))</f>
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M53" s="2">
         <v>1</v>
@@ -4418,8 +4453,78 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="30">
+        <v>53</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="33">
+        <v>100</v>
+      </c>
+      <c r="J54" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Capacity unknown</v>
+      </c>
+      <c r="K54" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F54,Nodes!$B:$B,0))</f>
+        <v>9</v>
+      </c>
+      <c r="L54" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G54,Nodes!$B:$B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="33">
+        <v>100</v>
+      </c>
+      <c r="J55" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Capacity unknown</v>
+      </c>
+      <c r="K55" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!F55,Nodes!$B:$B,0))</f>
+        <v>21</v>
+      </c>
+      <c r="L55" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Arcs!G55,Nodes!$B:$B,0))</f>
+        <v>20</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N53" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}"/>
+  <autoFilter ref="A1:N55" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4430,7 +4535,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4557,6 +4662,11 @@
         <v>105</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" cm="1">
         <f t="array" ref="A15">SUM(IF(ISNUMBER(VLOOKUP(A2:A13,Nodes!$B$3:$I$64,8)),VLOOKUP(A2:A13,Nodes!$B$3:$I$64,8)))</f>
@@ -4572,21 +4682,21 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">SUM(IF(ISNUMBER(VLOOKUP(D2:D13,Nodes!$B$3:$I$64,8)),VLOOKUP(D2:D13,Nodes!$B$3:$I$64,8)))</f>
-        <v>192.19259726027397</v>
+        <v>240.19259726027397</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">SUM(IF(ISNUMBER(VLOOKUP(E2:E13,Nodes!$B$3:$I$64,8)),VLOOKUP(E2:E13,Nodes!$B$3:$I$64,8)))</f>
         <v>4.0645178082191773</v>
       </c>
-      <c r="F15" s="42" cm="1">
+      <c r="F15" s="41" cm="1">
         <f t="array" ref="F15">SUM(IF(ISNUMBER(VLOOKUP(F2:F13,Nodes!$B$3:$I$64,8)),VLOOKUP(F2:F13,Nodes!$B$3:$I$64,8)))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="42" cm="1">
+      <c r="G15" s="41" cm="1">
         <f t="array" ref="G15">SUM(IF(ISNUMBER(VLOOKUP(G2:G13,Nodes!$B$3:$I$64,8)),VLOOKUP(G2:G13,Nodes!$B$3:$I$64,8)))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="42" cm="1">
+      <c r="H15" s="41" cm="1">
         <f t="array" ref="H15">SUM(IF(ISNUMBER(VLOOKUP(H2:H13,Nodes!$B$3:$I$64,8)),VLOOKUP(H2:H13,Nodes!$B$3:$I$64,8)))</f>
         <v>0</v>
       </c>
@@ -4601,7 +4711,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4791,15 +4901,15 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K5">
         <f>HLOOKUP(A5,Traders!$A$1:$H$15,15,)</f>
-        <v>192.19259726027397</v>
+        <v>240.19259726027397</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">SUM(B5:I5*MAX('Demand Stage 1'!$B$5:$I$8))</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -4914,39 +5024,39 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="41">
-        <v>0</v>
-      </c>
-      <c r="C9" s="41">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41">
-        <v>0</v>
-      </c>
-      <c r="E9" s="41">
-        <v>0</v>
-      </c>
-      <c r="F9" s="41">
-        <v>0</v>
-      </c>
-      <c r="G9" s="41">
-        <v>0</v>
-      </c>
-      <c r="H9" s="41">
-        <v>0</v>
-      </c>
-      <c r="I9" s="41">
-        <v>0</v>
-      </c>
-      <c r="J9" s="41"/>
+      <c r="B9" s="40">
+        <v>0</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0</v>
+      </c>
+      <c r="I9" s="40">
+        <v>0</v>
+      </c>
+      <c r="J9" s="40"/>
       <c r="K9">
         <f>HLOOKUP(A9,Traders!$A$1:$H$15,15,)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="41" cm="1">
+      <c r="L9" s="40" cm="1">
         <f t="array" ref="L9">SUM(B9:I9*MAX('Demand Stage 1'!$B$5:$I$8))</f>
         <v>0</v>
       </c>
@@ -4985,11 +5095,11 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">SUM(B10:I10*MAX('Demand Stage 1'!$B$5:$I$8))</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -5112,10 +5222,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA935FD-94E0-3546-BCCF-D34968C9C73A}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F51" sqref="F2:F51"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6224,6 +6334,23 @@
         <v>346</v>
       </c>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B53" s="44">
+        <f>SUM(B2:B51)</f>
+        <v>120533.41499999999</v>
+      </c>
+      <c r="C53" s="44">
+        <f t="shared" ref="C53:D53" si="1">SUM(C2:C51)</f>
+        <v>113701.202</v>
+      </c>
+      <c r="D53" s="44">
+        <f t="shared" si="1"/>
+        <v>108046.26800000003</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H51" xr:uid="{0DA935FD-94E0-3546-BCCF-D34968C9C73A}"/>
   <hyperlinks>
@@ -6237,20 +6364,181 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2444F6-F631-0348-A27B-77CDC677869C}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:J11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>348</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>IF(I4=100,"Capacity unknown","")</f>
+        <v/>
+      </c>
+      <c r="K4" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Extra!F4,Nodes!$B:$B,0))</f>
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Extra!G4,Nodes!$B:$B,0))</f>
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>IF(I5=100,"Capacity unknown","")</f>
+        <v/>
+      </c>
+      <c r="K5" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Extra!F5,Nodes!$B:$B,0))</f>
+        <v>24</v>
+      </c>
+      <c r="L5" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Extra!G5,Nodes!$B:$B,0))</f>
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>37</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>IF(I6=100,"Capacity unknown","")</f>
+        <v/>
+      </c>
+      <c r="K6" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Extra!F6,Nodes!$B:$B,0))</f>
+        <v>12</v>
+      </c>
+      <c r="L6" s="1">
+        <f>INDEX(Nodes!$A:$A,MATCH(Extra!G6,Nodes!$B:$B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6384,8 +6672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI67"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6428,39 +6716,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="44" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -6791,7 +7079,9 @@
       <c r="E5" s="16">
         <v>65.094471500000054</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G5" s="2">
         <v>5</v>
       </c>
@@ -7103,7 +7393,9 @@
       <c r="E8" s="16">
         <v>60.560633000000053</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
@@ -7207,7 +7499,9 @@
       <c r="E9" s="16">
         <v>60.543328997897447</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G9" s="2">
         <v>5</v>
       </c>
@@ -7318,9 +7612,8 @@
       <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B10)</f>
-        <v>0</v>
+      <c r="I10" s="29">
+        <v>48</v>
       </c>
       <c r="J10" s="2">
         <v>1282.3420000000001</v>
@@ -7831,7 +8124,9 @@
       <c r="E15" s="16">
         <v>64.233255000000042</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G15" s="2">
         <v>5</v>
       </c>
@@ -8455,7 +8750,9 @@
       <c r="E21" s="16">
         <v>59.47797846900005</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
@@ -9079,7 +9376,9 @@
       <c r="E27" s="16">
         <v>60.502035307044537</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G27" s="2">
         <v>5</v>
       </c>
@@ -9183,7 +9482,9 @@
       <c r="E28" s="16">
         <v>61.020797730000027</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G28" s="2">
         <v>5</v>
       </c>
@@ -9287,7 +9588,9 @@
       <c r="E29" s="16">
         <v>61.330193776287437</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G29" s="2">
         <v>5</v>
       </c>
@@ -9703,7 +10006,9 @@
       <c r="E33" s="16">
         <v>65.321499578632455</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G33" s="2">
         <v>5</v>
       </c>
@@ -10015,7 +10320,9 @@
       <c r="E36" s="16">
         <v>59.326808000000028</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G36" s="2">
         <v>5</v>
       </c>
@@ -10119,7 +10426,9 @@
       <c r="E37" s="16">
         <v>58.841931072335058</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G37" s="2">
         <v>5</v>
       </c>
@@ -10535,7 +10844,9 @@
       <c r="E41" s="16">
         <v>59.894961973000079</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G41" s="2">
         <v>5</v>
       </c>
@@ -10639,7 +10950,9 @@
       <c r="E42" s="16">
         <v>70.685443717529964</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G42" s="2">
         <v>5</v>
       </c>
@@ -10847,7 +11160,9 @@
       <c r="E44" s="16">
         <v>66.029330899408933</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G44" s="2">
         <v>5</v>
       </c>
@@ -10951,7 +11266,9 @@
       <c r="E45" s="16">
         <v>65.084516000000065</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G45" s="2">
         <v>5</v>
       </c>
@@ -11153,10 +11470,10 @@
         <v>84</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="40">
+      <c r="D47" s="49">
         <v>6.9457712170000718</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="49">
         <v>62.851558685000043</v>
       </c>
       <c r="F47" s="1"/>
@@ -11367,7 +11684,9 @@
       <c r="E49" s="16">
         <v>63.528076290000058</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G49" s="2">
         <v>5</v>
       </c>
@@ -11679,7 +11998,9 @@
       <c r="E52" s="16">
         <v>58.839405675350093</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G52" s="2">
         <v>5</v>
       </c>
@@ -11783,7 +12104,9 @@
       <c r="E53" s="16">
         <v>65.693743899121472</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G53" s="2">
         <v>5</v>
       </c>
@@ -12095,7 +12418,9 @@
       <c r="E56" s="16">
         <v>71.571334839000031</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G56" s="2">
         <v>5</v>
       </c>
@@ -12615,7 +12940,9 @@
       <c r="E61" s="16">
         <v>63.398890962560763</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G61" s="2">
         <v>5</v>
       </c>
@@ -13017,7 +13344,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>373</v>
+      </c>
+      <c r="I67">
+        <f>SUM(I3:I64)-SUMIF(F3:F64,"Los",I3:I64)</f>
+        <v>272.52532054794517</v>
+      </c>
       <c r="J67" t="s">
         <v>264</v>
       </c>
@@ -13051,70 +13385,70 @@
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="45">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="B1" s="55">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="45">
-        <v>1</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
+      <c r="B2" s="55">
+        <v>1</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -13893,244 +14227,244 @@
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="45">
-        <v>5</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45">
+      <c r="B1" s="55">
+        <v>5</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55">
         <f>B1+Parameters!$B$7</f>
         <v>9</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55">
         <f>R1+Parameters!$B$7</f>
         <v>13</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45">
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55">
         <f>AH1+Parameters!$B$7</f>
         <v>17</v>
       </c>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="55"/>
+      <c r="BM1" s="55"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="55">
         <v>0.25</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45">
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55">
         <f>B2</f>
         <v>0.25</v>
       </c>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="45"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="46" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="47" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="46" t="s">
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="47" t="s">
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="46" t="s">
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="47" t="s">
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -17343,1234 +17677,1234 @@
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="45">
+      <c r="B1" s="55">
         <v>21</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55">
         <f>B1+Parameters!$B$7</f>
         <v>25</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55">
         <f>R1+Parameters!$B$7</f>
         <v>29</v>
       </c>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45">
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55">
         <f>AH1+Parameters!$B$7</f>
         <v>33</v>
       </c>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="55"/>
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="55">
         <f>AX1+Parameters!$B$7</f>
         <v>37</v>
       </c>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="45"/>
-      <c r="BY1" s="45"/>
-      <c r="BZ1" s="45"/>
-      <c r="CA1" s="45"/>
-      <c r="CB1" s="45"/>
-      <c r="CC1" s="45"/>
-      <c r="CD1" s="45">
+      <c r="BO1" s="55"/>
+      <c r="BP1" s="55"/>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="55"/>
+      <c r="BS1" s="55"/>
+      <c r="BT1" s="55"/>
+      <c r="BU1" s="55"/>
+      <c r="BV1" s="55"/>
+      <c r="BW1" s="55"/>
+      <c r="BX1" s="55"/>
+      <c r="BY1" s="55"/>
+      <c r="BZ1" s="55"/>
+      <c r="CA1" s="55"/>
+      <c r="CB1" s="55"/>
+      <c r="CC1" s="55"/>
+      <c r="CD1" s="55">
         <f>BN1+Parameters!$B$7</f>
         <v>41</v>
       </c>
-      <c r="CE1" s="45"/>
-      <c r="CF1" s="45"/>
-      <c r="CG1" s="45"/>
-      <c r="CH1" s="45"/>
-      <c r="CI1" s="45"/>
-      <c r="CJ1" s="45"/>
-      <c r="CK1" s="45"/>
-      <c r="CL1" s="45"/>
-      <c r="CM1" s="45"/>
-      <c r="CN1" s="45"/>
-      <c r="CO1" s="45"/>
-      <c r="CP1" s="45"/>
-      <c r="CQ1" s="45"/>
-      <c r="CR1" s="45"/>
-      <c r="CS1" s="45"/>
-      <c r="CT1" s="45">
+      <c r="CE1" s="55"/>
+      <c r="CF1" s="55"/>
+      <c r="CG1" s="55"/>
+      <c r="CH1" s="55"/>
+      <c r="CI1" s="55"/>
+      <c r="CJ1" s="55"/>
+      <c r="CK1" s="55"/>
+      <c r="CL1" s="55"/>
+      <c r="CM1" s="55"/>
+      <c r="CN1" s="55"/>
+      <c r="CO1" s="55"/>
+      <c r="CP1" s="55"/>
+      <c r="CQ1" s="55"/>
+      <c r="CR1" s="55"/>
+      <c r="CS1" s="55"/>
+      <c r="CT1" s="55">
         <f>CD1+Parameters!$B$7</f>
         <v>45</v>
       </c>
-      <c r="CU1" s="45"/>
-      <c r="CV1" s="45"/>
-      <c r="CW1" s="45"/>
-      <c r="CX1" s="45"/>
-      <c r="CY1" s="45"/>
-      <c r="CZ1" s="45"/>
-      <c r="DA1" s="45"/>
-      <c r="DB1" s="45"/>
-      <c r="DC1" s="45"/>
-      <c r="DD1" s="45"/>
-      <c r="DE1" s="45"/>
-      <c r="DF1" s="45"/>
-      <c r="DG1" s="45"/>
-      <c r="DH1" s="45"/>
-      <c r="DI1" s="45"/>
-      <c r="DJ1" s="45">
+      <c r="CU1" s="55"/>
+      <c r="CV1" s="55"/>
+      <c r="CW1" s="55"/>
+      <c r="CX1" s="55"/>
+      <c r="CY1" s="55"/>
+      <c r="CZ1" s="55"/>
+      <c r="DA1" s="55"/>
+      <c r="DB1" s="55"/>
+      <c r="DC1" s="55"/>
+      <c r="DD1" s="55"/>
+      <c r="DE1" s="55"/>
+      <c r="DF1" s="55"/>
+      <c r="DG1" s="55"/>
+      <c r="DH1" s="55"/>
+      <c r="DI1" s="55"/>
+      <c r="DJ1" s="55">
         <f>CT1+Parameters!$B$7</f>
         <v>49</v>
       </c>
-      <c r="DK1" s="45"/>
-      <c r="DL1" s="45"/>
-      <c r="DM1" s="45"/>
-      <c r="DN1" s="45"/>
-      <c r="DO1" s="45"/>
-      <c r="DP1" s="45"/>
-      <c r="DQ1" s="45"/>
-      <c r="DR1" s="45"/>
-      <c r="DS1" s="45"/>
-      <c r="DT1" s="45"/>
-      <c r="DU1" s="45"/>
-      <c r="DV1" s="45"/>
-      <c r="DW1" s="45"/>
-      <c r="DX1" s="45"/>
-      <c r="DY1" s="45"/>
-      <c r="DZ1" s="45">
+      <c r="DK1" s="55"/>
+      <c r="DL1" s="55"/>
+      <c r="DM1" s="55"/>
+      <c r="DN1" s="55"/>
+      <c r="DO1" s="55"/>
+      <c r="DP1" s="55"/>
+      <c r="DQ1" s="55"/>
+      <c r="DR1" s="55"/>
+      <c r="DS1" s="55"/>
+      <c r="DT1" s="55"/>
+      <c r="DU1" s="55"/>
+      <c r="DV1" s="55"/>
+      <c r="DW1" s="55"/>
+      <c r="DX1" s="55"/>
+      <c r="DY1" s="55"/>
+      <c r="DZ1" s="55">
         <f>DJ1+Parameters!$B$7</f>
         <v>53</v>
       </c>
-      <c r="EA1" s="45"/>
-      <c r="EB1" s="45"/>
-      <c r="EC1" s="45"/>
-      <c r="ED1" s="45"/>
-      <c r="EE1" s="45"/>
-      <c r="EF1" s="45"/>
-      <c r="EG1" s="45"/>
-      <c r="EH1" s="45"/>
-      <c r="EI1" s="45"/>
-      <c r="EJ1" s="45"/>
-      <c r="EK1" s="45"/>
-      <c r="EL1" s="45"/>
-      <c r="EM1" s="45"/>
-      <c r="EN1" s="45"/>
-      <c r="EO1" s="45"/>
-      <c r="EP1" s="45">
+      <c r="EA1" s="55"/>
+      <c r="EB1" s="55"/>
+      <c r="EC1" s="55"/>
+      <c r="ED1" s="55"/>
+      <c r="EE1" s="55"/>
+      <c r="EF1" s="55"/>
+      <c r="EG1" s="55"/>
+      <c r="EH1" s="55"/>
+      <c r="EI1" s="55"/>
+      <c r="EJ1" s="55"/>
+      <c r="EK1" s="55"/>
+      <c r="EL1" s="55"/>
+      <c r="EM1" s="55"/>
+      <c r="EN1" s="55"/>
+      <c r="EO1" s="55"/>
+      <c r="EP1" s="55">
         <f>DZ1+Parameters!$B$7</f>
         <v>57</v>
       </c>
-      <c r="EQ1" s="45"/>
-      <c r="ER1" s="45"/>
-      <c r="ES1" s="45"/>
-      <c r="ET1" s="45"/>
-      <c r="EU1" s="45"/>
-      <c r="EV1" s="45"/>
-      <c r="EW1" s="45"/>
-      <c r="EX1" s="45"/>
-      <c r="EY1" s="45"/>
-      <c r="EZ1" s="45"/>
-      <c r="FA1" s="45"/>
-      <c r="FB1" s="45"/>
-      <c r="FC1" s="45"/>
-      <c r="FD1" s="45"/>
-      <c r="FE1" s="45"/>
-      <c r="FF1" s="45">
+      <c r="EQ1" s="55"/>
+      <c r="ER1" s="55"/>
+      <c r="ES1" s="55"/>
+      <c r="ET1" s="55"/>
+      <c r="EU1" s="55"/>
+      <c r="EV1" s="55"/>
+      <c r="EW1" s="55"/>
+      <c r="EX1" s="55"/>
+      <c r="EY1" s="55"/>
+      <c r="EZ1" s="55"/>
+      <c r="FA1" s="55"/>
+      <c r="FB1" s="55"/>
+      <c r="FC1" s="55"/>
+      <c r="FD1" s="55"/>
+      <c r="FE1" s="55"/>
+      <c r="FF1" s="55">
         <f>EP1+Parameters!$B$7</f>
         <v>61</v>
       </c>
-      <c r="FG1" s="45"/>
-      <c r="FH1" s="45"/>
-      <c r="FI1" s="45"/>
-      <c r="FJ1" s="45"/>
-      <c r="FK1" s="45"/>
-      <c r="FL1" s="45"/>
-      <c r="FM1" s="45"/>
-      <c r="FN1" s="45"/>
-      <c r="FO1" s="45"/>
-      <c r="FP1" s="45"/>
-      <c r="FQ1" s="45"/>
-      <c r="FR1" s="45"/>
-      <c r="FS1" s="45"/>
-      <c r="FT1" s="45"/>
-      <c r="FU1" s="45"/>
-      <c r="FV1" s="45">
+      <c r="FG1" s="55"/>
+      <c r="FH1" s="55"/>
+      <c r="FI1" s="55"/>
+      <c r="FJ1" s="55"/>
+      <c r="FK1" s="55"/>
+      <c r="FL1" s="55"/>
+      <c r="FM1" s="55"/>
+      <c r="FN1" s="55"/>
+      <c r="FO1" s="55"/>
+      <c r="FP1" s="55"/>
+      <c r="FQ1" s="55"/>
+      <c r="FR1" s="55"/>
+      <c r="FS1" s="55"/>
+      <c r="FT1" s="55"/>
+      <c r="FU1" s="55"/>
+      <c r="FV1" s="55">
         <f>FF1+Parameters!$B$7</f>
         <v>65</v>
       </c>
-      <c r="FW1" s="45"/>
-      <c r="FX1" s="45"/>
-      <c r="FY1" s="45"/>
-      <c r="FZ1" s="45"/>
-      <c r="GA1" s="45"/>
-      <c r="GB1" s="45"/>
-      <c r="GC1" s="45"/>
-      <c r="GD1" s="45"/>
-      <c r="GE1" s="45"/>
-      <c r="GF1" s="45"/>
-      <c r="GG1" s="45"/>
-      <c r="GH1" s="45"/>
-      <c r="GI1" s="45"/>
-      <c r="GJ1" s="45"/>
-      <c r="GK1" s="45"/>
-      <c r="GL1" s="45">
+      <c r="FW1" s="55"/>
+      <c r="FX1" s="55"/>
+      <c r="FY1" s="55"/>
+      <c r="FZ1" s="55"/>
+      <c r="GA1" s="55"/>
+      <c r="GB1" s="55"/>
+      <c r="GC1" s="55"/>
+      <c r="GD1" s="55"/>
+      <c r="GE1" s="55"/>
+      <c r="GF1" s="55"/>
+      <c r="GG1" s="55"/>
+      <c r="GH1" s="55"/>
+      <c r="GI1" s="55"/>
+      <c r="GJ1" s="55"/>
+      <c r="GK1" s="55"/>
+      <c r="GL1" s="55">
         <f>FV1+Parameters!$B$7</f>
         <v>69</v>
       </c>
-      <c r="GM1" s="45"/>
-      <c r="GN1" s="45"/>
-      <c r="GO1" s="45"/>
-      <c r="GP1" s="45"/>
-      <c r="GQ1" s="45"/>
-      <c r="GR1" s="45"/>
-      <c r="GS1" s="45"/>
-      <c r="GT1" s="45"/>
-      <c r="GU1" s="45"/>
-      <c r="GV1" s="45"/>
-      <c r="GW1" s="45"/>
-      <c r="GX1" s="45"/>
-      <c r="GY1" s="45"/>
-      <c r="GZ1" s="45"/>
-      <c r="HA1" s="45"/>
-      <c r="HB1" s="45">
+      <c r="GM1" s="55"/>
+      <c r="GN1" s="55"/>
+      <c r="GO1" s="55"/>
+      <c r="GP1" s="55"/>
+      <c r="GQ1" s="55"/>
+      <c r="GR1" s="55"/>
+      <c r="GS1" s="55"/>
+      <c r="GT1" s="55"/>
+      <c r="GU1" s="55"/>
+      <c r="GV1" s="55"/>
+      <c r="GW1" s="55"/>
+      <c r="GX1" s="55"/>
+      <c r="GY1" s="55"/>
+      <c r="GZ1" s="55"/>
+      <c r="HA1" s="55"/>
+      <c r="HB1" s="55">
         <f>GL1+Parameters!$B$7</f>
         <v>73</v>
       </c>
-      <c r="HC1" s="45"/>
-      <c r="HD1" s="45"/>
-      <c r="HE1" s="45"/>
-      <c r="HF1" s="45"/>
-      <c r="HG1" s="45"/>
-      <c r="HH1" s="45"/>
-      <c r="HI1" s="45"/>
-      <c r="HJ1" s="45"/>
-      <c r="HK1" s="45"/>
-      <c r="HL1" s="45"/>
-      <c r="HM1" s="45"/>
-      <c r="HN1" s="45"/>
-      <c r="HO1" s="45"/>
-      <c r="HP1" s="45"/>
-      <c r="HQ1" s="45"/>
-      <c r="HR1" s="45">
+      <c r="HC1" s="55"/>
+      <c r="HD1" s="55"/>
+      <c r="HE1" s="55"/>
+      <c r="HF1" s="55"/>
+      <c r="HG1" s="55"/>
+      <c r="HH1" s="55"/>
+      <c r="HI1" s="55"/>
+      <c r="HJ1" s="55"/>
+      <c r="HK1" s="55"/>
+      <c r="HL1" s="55"/>
+      <c r="HM1" s="55"/>
+      <c r="HN1" s="55"/>
+      <c r="HO1" s="55"/>
+      <c r="HP1" s="55"/>
+      <c r="HQ1" s="55"/>
+      <c r="HR1" s="55">
         <f>HB1+Parameters!$B$7</f>
         <v>77</v>
       </c>
-      <c r="HS1" s="45"/>
-      <c r="HT1" s="45"/>
-      <c r="HU1" s="45"/>
-      <c r="HV1" s="45"/>
-      <c r="HW1" s="45"/>
-      <c r="HX1" s="45"/>
-      <c r="HY1" s="45"/>
-      <c r="HZ1" s="45"/>
-      <c r="IA1" s="45"/>
-      <c r="IB1" s="45"/>
-      <c r="IC1" s="45"/>
-      <c r="ID1" s="45"/>
-      <c r="IE1" s="45"/>
-      <c r="IF1" s="45"/>
-      <c r="IG1" s="45"/>
-      <c r="IH1" s="45">
+      <c r="HS1" s="55"/>
+      <c r="HT1" s="55"/>
+      <c r="HU1" s="55"/>
+      <c r="HV1" s="55"/>
+      <c r="HW1" s="55"/>
+      <c r="HX1" s="55"/>
+      <c r="HY1" s="55"/>
+      <c r="HZ1" s="55"/>
+      <c r="IA1" s="55"/>
+      <c r="IB1" s="55"/>
+      <c r="IC1" s="55"/>
+      <c r="ID1" s="55"/>
+      <c r="IE1" s="55"/>
+      <c r="IF1" s="55"/>
+      <c r="IG1" s="55"/>
+      <c r="IH1" s="55">
         <f>HR1+Parameters!$B$7</f>
         <v>81</v>
       </c>
-      <c r="II1" s="45"/>
-      <c r="IJ1" s="45"/>
-      <c r="IK1" s="45"/>
-      <c r="IL1" s="45"/>
-      <c r="IM1" s="45"/>
-      <c r="IN1" s="45"/>
-      <c r="IO1" s="45"/>
-      <c r="IP1" s="45"/>
-      <c r="IQ1" s="45"/>
-      <c r="IR1" s="45"/>
-      <c r="IS1" s="45"/>
-      <c r="IT1" s="45"/>
-      <c r="IU1" s="45"/>
-      <c r="IV1" s="45"/>
-      <c r="IW1" s="45"/>
+      <c r="II1" s="55"/>
+      <c r="IJ1" s="55"/>
+      <c r="IK1" s="55"/>
+      <c r="IL1" s="55"/>
+      <c r="IM1" s="55"/>
+      <c r="IN1" s="55"/>
+      <c r="IO1" s="55"/>
+      <c r="IP1" s="55"/>
+      <c r="IQ1" s="55"/>
+      <c r="IR1" s="55"/>
+      <c r="IS1" s="55"/>
+      <c r="IT1" s="55"/>
+      <c r="IU1" s="55"/>
+      <c r="IV1" s="55"/>
+      <c r="IW1" s="55"/>
     </row>
     <row r="2" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="55">
         <f>1/16</f>
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55">
         <f>B2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55">
         <f t="shared" ref="AH2" si="0">R2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45">
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55">
         <f t="shared" ref="AX2" si="1">AH2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="45"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="45"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="45">
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="55"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55">
         <f t="shared" ref="BN2" si="2">AX2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="45"/>
-      <c r="BR2" s="45"/>
-      <c r="BS2" s="45"/>
-      <c r="BT2" s="45"/>
-      <c r="BU2" s="45"/>
-      <c r="BV2" s="45"/>
-      <c r="BW2" s="45"/>
-      <c r="BX2" s="45"/>
-      <c r="BY2" s="45"/>
-      <c r="BZ2" s="45"/>
-      <c r="CA2" s="45"/>
-      <c r="CB2" s="45"/>
-      <c r="CC2" s="45"/>
-      <c r="CD2" s="45">
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
+      <c r="BR2" s="55"/>
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="55"/>
+      <c r="BX2" s="55"/>
+      <c r="BY2" s="55"/>
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="55">
         <f t="shared" ref="CD2" si="3">BN2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CE2" s="45"/>
-      <c r="CF2" s="45"/>
-      <c r="CG2" s="45"/>
-      <c r="CH2" s="45"/>
-      <c r="CI2" s="45"/>
-      <c r="CJ2" s="45"/>
-      <c r="CK2" s="45"/>
-      <c r="CL2" s="45"/>
-      <c r="CM2" s="45"/>
-      <c r="CN2" s="45"/>
-      <c r="CO2" s="45"/>
-      <c r="CP2" s="45"/>
-      <c r="CQ2" s="45"/>
-      <c r="CR2" s="45"/>
-      <c r="CS2" s="45"/>
-      <c r="CT2" s="45">
+      <c r="CE2" s="55"/>
+      <c r="CF2" s="55"/>
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="55"/>
+      <c r="CJ2" s="55"/>
+      <c r="CK2" s="55"/>
+      <c r="CL2" s="55"/>
+      <c r="CM2" s="55"/>
+      <c r="CN2" s="55"/>
+      <c r="CO2" s="55"/>
+      <c r="CP2" s="55"/>
+      <c r="CQ2" s="55"/>
+      <c r="CR2" s="55"/>
+      <c r="CS2" s="55"/>
+      <c r="CT2" s="55">
         <f t="shared" ref="CT2" si="4">CD2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="CU2" s="45"/>
-      <c r="CV2" s="45"/>
-      <c r="CW2" s="45"/>
-      <c r="CX2" s="45"/>
-      <c r="CY2" s="45"/>
-      <c r="CZ2" s="45"/>
-      <c r="DA2" s="45"/>
-      <c r="DB2" s="45"/>
-      <c r="DC2" s="45"/>
-      <c r="DD2" s="45"/>
-      <c r="DE2" s="45"/>
-      <c r="DF2" s="45"/>
-      <c r="DG2" s="45"/>
-      <c r="DH2" s="45"/>
-      <c r="DI2" s="45"/>
-      <c r="DJ2" s="45">
+      <c r="CU2" s="55"/>
+      <c r="CV2" s="55"/>
+      <c r="CW2" s="55"/>
+      <c r="CX2" s="55"/>
+      <c r="CY2" s="55"/>
+      <c r="CZ2" s="55"/>
+      <c r="DA2" s="55"/>
+      <c r="DB2" s="55"/>
+      <c r="DC2" s="55"/>
+      <c r="DD2" s="55"/>
+      <c r="DE2" s="55"/>
+      <c r="DF2" s="55"/>
+      <c r="DG2" s="55"/>
+      <c r="DH2" s="55"/>
+      <c r="DI2" s="55"/>
+      <c r="DJ2" s="55">
         <f t="shared" ref="DJ2" si="5">CT2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="DK2" s="45"/>
-      <c r="DL2" s="45"/>
-      <c r="DM2" s="45"/>
-      <c r="DN2" s="45"/>
-      <c r="DO2" s="45"/>
-      <c r="DP2" s="45"/>
-      <c r="DQ2" s="45"/>
-      <c r="DR2" s="45"/>
-      <c r="DS2" s="45"/>
-      <c r="DT2" s="45"/>
-      <c r="DU2" s="45"/>
-      <c r="DV2" s="45"/>
-      <c r="DW2" s="45"/>
-      <c r="DX2" s="45"/>
-      <c r="DY2" s="45"/>
-      <c r="DZ2" s="45">
+      <c r="DK2" s="55"/>
+      <c r="DL2" s="55"/>
+      <c r="DM2" s="55"/>
+      <c r="DN2" s="55"/>
+      <c r="DO2" s="55"/>
+      <c r="DP2" s="55"/>
+      <c r="DQ2" s="55"/>
+      <c r="DR2" s="55"/>
+      <c r="DS2" s="55"/>
+      <c r="DT2" s="55"/>
+      <c r="DU2" s="55"/>
+      <c r="DV2" s="55"/>
+      <c r="DW2" s="55"/>
+      <c r="DX2" s="55"/>
+      <c r="DY2" s="55"/>
+      <c r="DZ2" s="55">
         <f t="shared" ref="DZ2" si="6">DJ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EA2" s="45"/>
-      <c r="EB2" s="45"/>
-      <c r="EC2" s="45"/>
-      <c r="ED2" s="45"/>
-      <c r="EE2" s="45"/>
-      <c r="EF2" s="45"/>
-      <c r="EG2" s="45"/>
-      <c r="EH2" s="45"/>
-      <c r="EI2" s="45"/>
-      <c r="EJ2" s="45"/>
-      <c r="EK2" s="45"/>
-      <c r="EL2" s="45"/>
-      <c r="EM2" s="45"/>
-      <c r="EN2" s="45"/>
-      <c r="EO2" s="45"/>
-      <c r="EP2" s="45">
+      <c r="EA2" s="55"/>
+      <c r="EB2" s="55"/>
+      <c r="EC2" s="55"/>
+      <c r="ED2" s="55"/>
+      <c r="EE2" s="55"/>
+      <c r="EF2" s="55"/>
+      <c r="EG2" s="55"/>
+      <c r="EH2" s="55"/>
+      <c r="EI2" s="55"/>
+      <c r="EJ2" s="55"/>
+      <c r="EK2" s="55"/>
+      <c r="EL2" s="55"/>
+      <c r="EM2" s="55"/>
+      <c r="EN2" s="55"/>
+      <c r="EO2" s="55"/>
+      <c r="EP2" s="55">
         <f t="shared" ref="EP2" si="7">DZ2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="EQ2" s="45"/>
-      <c r="ER2" s="45"/>
-      <c r="ES2" s="45"/>
-      <c r="ET2" s="45"/>
-      <c r="EU2" s="45"/>
-      <c r="EV2" s="45"/>
-      <c r="EW2" s="45"/>
-      <c r="EX2" s="45"/>
-      <c r="EY2" s="45"/>
-      <c r="EZ2" s="45"/>
-      <c r="FA2" s="45"/>
-      <c r="FB2" s="45"/>
-      <c r="FC2" s="45"/>
-      <c r="FD2" s="45"/>
-      <c r="FE2" s="45"/>
-      <c r="FF2" s="45">
+      <c r="EQ2" s="55"/>
+      <c r="ER2" s="55"/>
+      <c r="ES2" s="55"/>
+      <c r="ET2" s="55"/>
+      <c r="EU2" s="55"/>
+      <c r="EV2" s="55"/>
+      <c r="EW2" s="55"/>
+      <c r="EX2" s="55"/>
+      <c r="EY2" s="55"/>
+      <c r="EZ2" s="55"/>
+      <c r="FA2" s="55"/>
+      <c r="FB2" s="55"/>
+      <c r="FC2" s="55"/>
+      <c r="FD2" s="55"/>
+      <c r="FE2" s="55"/>
+      <c r="FF2" s="55">
         <f t="shared" ref="FF2" si="8">EP2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FG2" s="45"/>
-      <c r="FH2" s="45"/>
-      <c r="FI2" s="45"/>
-      <c r="FJ2" s="45"/>
-      <c r="FK2" s="45"/>
-      <c r="FL2" s="45"/>
-      <c r="FM2" s="45"/>
-      <c r="FN2" s="45"/>
-      <c r="FO2" s="45"/>
-      <c r="FP2" s="45"/>
-      <c r="FQ2" s="45"/>
-      <c r="FR2" s="45"/>
-      <c r="FS2" s="45"/>
-      <c r="FT2" s="45"/>
-      <c r="FU2" s="45"/>
-      <c r="FV2" s="45">
+      <c r="FG2" s="55"/>
+      <c r="FH2" s="55"/>
+      <c r="FI2" s="55"/>
+      <c r="FJ2" s="55"/>
+      <c r="FK2" s="55"/>
+      <c r="FL2" s="55"/>
+      <c r="FM2" s="55"/>
+      <c r="FN2" s="55"/>
+      <c r="FO2" s="55"/>
+      <c r="FP2" s="55"/>
+      <c r="FQ2" s="55"/>
+      <c r="FR2" s="55"/>
+      <c r="FS2" s="55"/>
+      <c r="FT2" s="55"/>
+      <c r="FU2" s="55"/>
+      <c r="FV2" s="55">
         <f t="shared" ref="FV2" si="9">FF2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="FW2" s="45"/>
-      <c r="FX2" s="45"/>
-      <c r="FY2" s="45"/>
-      <c r="FZ2" s="45"/>
-      <c r="GA2" s="45"/>
-      <c r="GB2" s="45"/>
-      <c r="GC2" s="45"/>
-      <c r="GD2" s="45"/>
-      <c r="GE2" s="45"/>
-      <c r="GF2" s="45"/>
-      <c r="GG2" s="45"/>
-      <c r="GH2" s="45"/>
-      <c r="GI2" s="45"/>
-      <c r="GJ2" s="45"/>
-      <c r="GK2" s="45"/>
-      <c r="GL2" s="45">
+      <c r="FW2" s="55"/>
+      <c r="FX2" s="55"/>
+      <c r="FY2" s="55"/>
+      <c r="FZ2" s="55"/>
+      <c r="GA2" s="55"/>
+      <c r="GB2" s="55"/>
+      <c r="GC2" s="55"/>
+      <c r="GD2" s="55"/>
+      <c r="GE2" s="55"/>
+      <c r="GF2" s="55"/>
+      <c r="GG2" s="55"/>
+      <c r="GH2" s="55"/>
+      <c r="GI2" s="55"/>
+      <c r="GJ2" s="55"/>
+      <c r="GK2" s="55"/>
+      <c r="GL2" s="55">
         <f t="shared" ref="GL2" si="10">FV2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="GM2" s="45"/>
-      <c r="GN2" s="45"/>
-      <c r="GO2" s="45"/>
-      <c r="GP2" s="45"/>
-      <c r="GQ2" s="45"/>
-      <c r="GR2" s="45"/>
-      <c r="GS2" s="45"/>
-      <c r="GT2" s="45"/>
-      <c r="GU2" s="45"/>
-      <c r="GV2" s="45"/>
-      <c r="GW2" s="45"/>
-      <c r="GX2" s="45"/>
-      <c r="GY2" s="45"/>
-      <c r="GZ2" s="45"/>
-      <c r="HA2" s="45"/>
-      <c r="HB2" s="45">
+      <c r="GM2" s="55"/>
+      <c r="GN2" s="55"/>
+      <c r="GO2" s="55"/>
+      <c r="GP2" s="55"/>
+      <c r="GQ2" s="55"/>
+      <c r="GR2" s="55"/>
+      <c r="GS2" s="55"/>
+      <c r="GT2" s="55"/>
+      <c r="GU2" s="55"/>
+      <c r="GV2" s="55"/>
+      <c r="GW2" s="55"/>
+      <c r="GX2" s="55"/>
+      <c r="GY2" s="55"/>
+      <c r="GZ2" s="55"/>
+      <c r="HA2" s="55"/>
+      <c r="HB2" s="55">
         <f t="shared" ref="HB2" si="11">GL2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HC2" s="45"/>
-      <c r="HD2" s="45"/>
-      <c r="HE2" s="45"/>
-      <c r="HF2" s="45"/>
-      <c r="HG2" s="45"/>
-      <c r="HH2" s="45"/>
-      <c r="HI2" s="45"/>
-      <c r="HJ2" s="45"/>
-      <c r="HK2" s="45"/>
-      <c r="HL2" s="45"/>
-      <c r="HM2" s="45"/>
-      <c r="HN2" s="45"/>
-      <c r="HO2" s="45"/>
-      <c r="HP2" s="45"/>
-      <c r="HQ2" s="45"/>
-      <c r="HR2" s="45">
+      <c r="HC2" s="55"/>
+      <c r="HD2" s="55"/>
+      <c r="HE2" s="55"/>
+      <c r="HF2" s="55"/>
+      <c r="HG2" s="55"/>
+      <c r="HH2" s="55"/>
+      <c r="HI2" s="55"/>
+      <c r="HJ2" s="55"/>
+      <c r="HK2" s="55"/>
+      <c r="HL2" s="55"/>
+      <c r="HM2" s="55"/>
+      <c r="HN2" s="55"/>
+      <c r="HO2" s="55"/>
+      <c r="HP2" s="55"/>
+      <c r="HQ2" s="55"/>
+      <c r="HR2" s="55">
         <f t="shared" ref="HR2" si="12">HB2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="HS2" s="45"/>
-      <c r="HT2" s="45"/>
-      <c r="HU2" s="45"/>
-      <c r="HV2" s="45"/>
-      <c r="HW2" s="45"/>
-      <c r="HX2" s="45"/>
-      <c r="HY2" s="45"/>
-      <c r="HZ2" s="45"/>
-      <c r="IA2" s="45"/>
-      <c r="IB2" s="45"/>
-      <c r="IC2" s="45"/>
-      <c r="ID2" s="45"/>
-      <c r="IE2" s="45"/>
-      <c r="IF2" s="45"/>
-      <c r="IG2" s="45"/>
-      <c r="IH2" s="45">
+      <c r="HS2" s="55"/>
+      <c r="HT2" s="55"/>
+      <c r="HU2" s="55"/>
+      <c r="HV2" s="55"/>
+      <c r="HW2" s="55"/>
+      <c r="HX2" s="55"/>
+      <c r="HY2" s="55"/>
+      <c r="HZ2" s="55"/>
+      <c r="IA2" s="55"/>
+      <c r="IB2" s="55"/>
+      <c r="IC2" s="55"/>
+      <c r="ID2" s="55"/>
+      <c r="IE2" s="55"/>
+      <c r="IF2" s="55"/>
+      <c r="IG2" s="55"/>
+      <c r="IH2" s="55">
         <f t="shared" ref="IH2" si="13">HR2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="II2" s="45"/>
-      <c r="IJ2" s="45"/>
-      <c r="IK2" s="45"/>
-      <c r="IL2" s="45"/>
-      <c r="IM2" s="45"/>
-      <c r="IN2" s="45"/>
-      <c r="IO2" s="45"/>
-      <c r="IP2" s="45"/>
-      <c r="IQ2" s="45"/>
-      <c r="IR2" s="45"/>
-      <c r="IS2" s="45"/>
-      <c r="IT2" s="45"/>
-      <c r="IU2" s="45"/>
-      <c r="IV2" s="45"/>
-      <c r="IW2" s="45"/>
+      <c r="II2" s="55"/>
+      <c r="IJ2" s="55"/>
+      <c r="IK2" s="55"/>
+      <c r="IL2" s="55"/>
+      <c r="IM2" s="55"/>
+      <c r="IN2" s="55"/>
+      <c r="IO2" s="55"/>
+      <c r="IP2" s="55"/>
+      <c r="IQ2" s="55"/>
+      <c r="IR2" s="55"/>
+      <c r="IS2" s="55"/>
+      <c r="IT2" s="55"/>
+      <c r="IU2" s="55"/>
+      <c r="IV2" s="55"/>
+      <c r="IW2" s="55"/>
     </row>
     <row r="3" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="48">
-        <v>5</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="48">
-        <v>5</v>
-      </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="48">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="48">
-        <v>5</v>
-      </c>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="48">
+      <c r="B3" s="58">
+        <v>5</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="58">
+        <v>5</v>
+      </c>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="58">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="59"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="58">
+        <v>5</v>
+      </c>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="58">
         <v>9</v>
       </c>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="49"/>
-      <c r="BT3" s="49"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="49"/>
-      <c r="BY3" s="49"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="50"/>
-      <c r="CD3" s="48">
+      <c r="BO3" s="59"/>
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="59"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="59"/>
+      <c r="BU3" s="59"/>
+      <c r="BV3" s="59"/>
+      <c r="BW3" s="59"/>
+      <c r="BX3" s="59"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="59"/>
+      <c r="CA3" s="59"/>
+      <c r="CB3" s="59"/>
+      <c r="CC3" s="60"/>
+      <c r="CD3" s="58">
         <v>9</v>
       </c>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="49"/>
-      <c r="CG3" s="49"/>
-      <c r="CH3" s="49"/>
-      <c r="CI3" s="49"/>
-      <c r="CJ3" s="49"/>
-      <c r="CK3" s="49"/>
-      <c r="CL3" s="49"/>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="49"/>
-      <c r="CO3" s="49"/>
-      <c r="CP3" s="49"/>
-      <c r="CQ3" s="49"/>
-      <c r="CR3" s="49"/>
-      <c r="CS3" s="50"/>
-      <c r="CT3" s="48">
+      <c r="CE3" s="59"/>
+      <c r="CF3" s="59"/>
+      <c r="CG3" s="59"/>
+      <c r="CH3" s="59"/>
+      <c r="CI3" s="59"/>
+      <c r="CJ3" s="59"/>
+      <c r="CK3" s="59"/>
+      <c r="CL3" s="59"/>
+      <c r="CM3" s="59"/>
+      <c r="CN3" s="59"/>
+      <c r="CO3" s="59"/>
+      <c r="CP3" s="59"/>
+      <c r="CQ3" s="59"/>
+      <c r="CR3" s="59"/>
+      <c r="CS3" s="60"/>
+      <c r="CT3" s="58">
         <v>9</v>
       </c>
-      <c r="CU3" s="49"/>
-      <c r="CV3" s="49"/>
-      <c r="CW3" s="49"/>
-      <c r="CX3" s="49"/>
-      <c r="CY3" s="49"/>
-      <c r="CZ3" s="49"/>
-      <c r="DA3" s="49"/>
-      <c r="DB3" s="49"/>
-      <c r="DC3" s="49"/>
-      <c r="DD3" s="49"/>
-      <c r="DE3" s="49"/>
-      <c r="DF3" s="49"/>
-      <c r="DG3" s="49"/>
-      <c r="DH3" s="49"/>
-      <c r="DI3" s="50"/>
-      <c r="DJ3" s="48">
+      <c r="CU3" s="59"/>
+      <c r="CV3" s="59"/>
+      <c r="CW3" s="59"/>
+      <c r="CX3" s="59"/>
+      <c r="CY3" s="59"/>
+      <c r="CZ3" s="59"/>
+      <c r="DA3" s="59"/>
+      <c r="DB3" s="59"/>
+      <c r="DC3" s="59"/>
+      <c r="DD3" s="59"/>
+      <c r="DE3" s="59"/>
+      <c r="DF3" s="59"/>
+      <c r="DG3" s="59"/>
+      <c r="DH3" s="59"/>
+      <c r="DI3" s="60"/>
+      <c r="DJ3" s="58">
         <v>9</v>
       </c>
-      <c r="DK3" s="49"/>
-      <c r="DL3" s="49"/>
-      <c r="DM3" s="49"/>
-      <c r="DN3" s="49"/>
-      <c r="DO3" s="49"/>
-      <c r="DP3" s="49"/>
-      <c r="DQ3" s="49"/>
-      <c r="DR3" s="49"/>
-      <c r="DS3" s="49"/>
-      <c r="DT3" s="49"/>
-      <c r="DU3" s="49"/>
-      <c r="DV3" s="49"/>
-      <c r="DW3" s="49"/>
-      <c r="DX3" s="49"/>
-      <c r="DY3" s="50"/>
-      <c r="DZ3" s="51">
+      <c r="DK3" s="59"/>
+      <c r="DL3" s="59"/>
+      <c r="DM3" s="59"/>
+      <c r="DN3" s="59"/>
+      <c r="DO3" s="59"/>
+      <c r="DP3" s="59"/>
+      <c r="DQ3" s="59"/>
+      <c r="DR3" s="59"/>
+      <c r="DS3" s="59"/>
+      <c r="DT3" s="59"/>
+      <c r="DU3" s="59"/>
+      <c r="DV3" s="59"/>
+      <c r="DW3" s="59"/>
+      <c r="DX3" s="59"/>
+      <c r="DY3" s="60"/>
+      <c r="DZ3" s="61">
         <v>13</v>
       </c>
-      <c r="EA3" s="52"/>
-      <c r="EB3" s="52"/>
-      <c r="EC3" s="52"/>
-      <c r="ED3" s="52"/>
-      <c r="EE3" s="52"/>
-      <c r="EF3" s="52"/>
-      <c r="EG3" s="52"/>
-      <c r="EH3" s="52"/>
-      <c r="EI3" s="52"/>
-      <c r="EJ3" s="52"/>
-      <c r="EK3" s="52"/>
-      <c r="EL3" s="52"/>
-      <c r="EM3" s="52"/>
-      <c r="EN3" s="52"/>
-      <c r="EO3" s="53"/>
-      <c r="EP3" s="54">
+      <c r="EA3" s="62"/>
+      <c r="EB3" s="62"/>
+      <c r="EC3" s="62"/>
+      <c r="ED3" s="62"/>
+      <c r="EE3" s="62"/>
+      <c r="EF3" s="62"/>
+      <c r="EG3" s="62"/>
+      <c r="EH3" s="62"/>
+      <c r="EI3" s="62"/>
+      <c r="EJ3" s="62"/>
+      <c r="EK3" s="62"/>
+      <c r="EL3" s="62"/>
+      <c r="EM3" s="62"/>
+      <c r="EN3" s="62"/>
+      <c r="EO3" s="63"/>
+      <c r="EP3" s="64">
         <v>13</v>
       </c>
-      <c r="EQ3" s="52"/>
-      <c r="ER3" s="52"/>
-      <c r="ES3" s="52"/>
-      <c r="ET3" s="52"/>
-      <c r="EU3" s="52"/>
-      <c r="EV3" s="52"/>
-      <c r="EW3" s="52"/>
-      <c r="EX3" s="52"/>
-      <c r="EY3" s="52"/>
-      <c r="EZ3" s="52"/>
-      <c r="FA3" s="52"/>
-      <c r="FB3" s="52"/>
-      <c r="FC3" s="52"/>
-      <c r="FD3" s="52"/>
-      <c r="FE3" s="53"/>
-      <c r="FF3" s="54">
+      <c r="EQ3" s="62"/>
+      <c r="ER3" s="62"/>
+      <c r="ES3" s="62"/>
+      <c r="ET3" s="62"/>
+      <c r="EU3" s="62"/>
+      <c r="EV3" s="62"/>
+      <c r="EW3" s="62"/>
+      <c r="EX3" s="62"/>
+      <c r="EY3" s="62"/>
+      <c r="EZ3" s="62"/>
+      <c r="FA3" s="62"/>
+      <c r="FB3" s="62"/>
+      <c r="FC3" s="62"/>
+      <c r="FD3" s="62"/>
+      <c r="FE3" s="63"/>
+      <c r="FF3" s="64">
         <v>13</v>
       </c>
-      <c r="FG3" s="52"/>
-      <c r="FH3" s="52"/>
-      <c r="FI3" s="52"/>
-      <c r="FJ3" s="52"/>
-      <c r="FK3" s="52"/>
-      <c r="FL3" s="52"/>
-      <c r="FM3" s="52"/>
-      <c r="FN3" s="52"/>
-      <c r="FO3" s="52"/>
-      <c r="FP3" s="52"/>
-      <c r="FQ3" s="52"/>
-      <c r="FR3" s="52"/>
-      <c r="FS3" s="52"/>
-      <c r="FT3" s="52"/>
-      <c r="FU3" s="53"/>
-      <c r="FV3" s="54">
+      <c r="FG3" s="62"/>
+      <c r="FH3" s="62"/>
+      <c r="FI3" s="62"/>
+      <c r="FJ3" s="62"/>
+      <c r="FK3" s="62"/>
+      <c r="FL3" s="62"/>
+      <c r="FM3" s="62"/>
+      <c r="FN3" s="62"/>
+      <c r="FO3" s="62"/>
+      <c r="FP3" s="62"/>
+      <c r="FQ3" s="62"/>
+      <c r="FR3" s="62"/>
+      <c r="FS3" s="62"/>
+      <c r="FT3" s="62"/>
+      <c r="FU3" s="63"/>
+      <c r="FV3" s="64">
         <v>13</v>
       </c>
-      <c r="FW3" s="52"/>
-      <c r="FX3" s="52"/>
-      <c r="FY3" s="52"/>
-      <c r="FZ3" s="52"/>
-      <c r="GA3" s="52"/>
-      <c r="GB3" s="52"/>
-      <c r="GC3" s="52"/>
-      <c r="GD3" s="52"/>
-      <c r="GE3" s="52"/>
-      <c r="GF3" s="52"/>
-      <c r="GG3" s="52"/>
-      <c r="GH3" s="52"/>
-      <c r="GI3" s="52"/>
-      <c r="GJ3" s="52"/>
-      <c r="GK3" s="53"/>
-      <c r="GL3" s="54">
+      <c r="FW3" s="62"/>
+      <c r="FX3" s="62"/>
+      <c r="FY3" s="62"/>
+      <c r="FZ3" s="62"/>
+      <c r="GA3" s="62"/>
+      <c r="GB3" s="62"/>
+      <c r="GC3" s="62"/>
+      <c r="GD3" s="62"/>
+      <c r="GE3" s="62"/>
+      <c r="GF3" s="62"/>
+      <c r="GG3" s="62"/>
+      <c r="GH3" s="62"/>
+      <c r="GI3" s="62"/>
+      <c r="GJ3" s="62"/>
+      <c r="GK3" s="63"/>
+      <c r="GL3" s="64">
         <v>17</v>
       </c>
-      <c r="GM3" s="52"/>
-      <c r="GN3" s="52"/>
-      <c r="GO3" s="52"/>
-      <c r="GP3" s="52"/>
-      <c r="GQ3" s="52"/>
-      <c r="GR3" s="52"/>
-      <c r="GS3" s="52"/>
-      <c r="GT3" s="52"/>
-      <c r="GU3" s="52"/>
-      <c r="GV3" s="52"/>
-      <c r="GW3" s="52"/>
-      <c r="GX3" s="52"/>
-      <c r="GY3" s="52"/>
-      <c r="GZ3" s="52"/>
-      <c r="HA3" s="53"/>
-      <c r="HB3" s="54">
+      <c r="GM3" s="62"/>
+      <c r="GN3" s="62"/>
+      <c r="GO3" s="62"/>
+      <c r="GP3" s="62"/>
+      <c r="GQ3" s="62"/>
+      <c r="GR3" s="62"/>
+      <c r="GS3" s="62"/>
+      <c r="GT3" s="62"/>
+      <c r="GU3" s="62"/>
+      <c r="GV3" s="62"/>
+      <c r="GW3" s="62"/>
+      <c r="GX3" s="62"/>
+      <c r="GY3" s="62"/>
+      <c r="GZ3" s="62"/>
+      <c r="HA3" s="63"/>
+      <c r="HB3" s="64">
         <v>17</v>
       </c>
-      <c r="HC3" s="52"/>
-      <c r="HD3" s="52"/>
-      <c r="HE3" s="52"/>
-      <c r="HF3" s="52"/>
-      <c r="HG3" s="52"/>
-      <c r="HH3" s="52"/>
-      <c r="HI3" s="52"/>
-      <c r="HJ3" s="52"/>
-      <c r="HK3" s="52"/>
-      <c r="HL3" s="52"/>
-      <c r="HM3" s="52"/>
-      <c r="HN3" s="52"/>
-      <c r="HO3" s="52"/>
-      <c r="HP3" s="52"/>
-      <c r="HQ3" s="53"/>
-      <c r="HR3" s="54">
+      <c r="HC3" s="62"/>
+      <c r="HD3" s="62"/>
+      <c r="HE3" s="62"/>
+      <c r="HF3" s="62"/>
+      <c r="HG3" s="62"/>
+      <c r="HH3" s="62"/>
+      <c r="HI3" s="62"/>
+      <c r="HJ3" s="62"/>
+      <c r="HK3" s="62"/>
+      <c r="HL3" s="62"/>
+      <c r="HM3" s="62"/>
+      <c r="HN3" s="62"/>
+      <c r="HO3" s="62"/>
+      <c r="HP3" s="62"/>
+      <c r="HQ3" s="63"/>
+      <c r="HR3" s="64">
         <v>17</v>
       </c>
-      <c r="HS3" s="52"/>
-      <c r="HT3" s="52"/>
-      <c r="HU3" s="52"/>
-      <c r="HV3" s="52"/>
-      <c r="HW3" s="52"/>
-      <c r="HX3" s="52"/>
-      <c r="HY3" s="52"/>
-      <c r="HZ3" s="52"/>
-      <c r="IA3" s="52"/>
-      <c r="IB3" s="52"/>
-      <c r="IC3" s="52"/>
-      <c r="ID3" s="52"/>
-      <c r="IE3" s="52"/>
-      <c r="IF3" s="52"/>
-      <c r="IG3" s="53"/>
-      <c r="IH3" s="54">
+      <c r="HS3" s="62"/>
+      <c r="HT3" s="62"/>
+      <c r="HU3" s="62"/>
+      <c r="HV3" s="62"/>
+      <c r="HW3" s="62"/>
+      <c r="HX3" s="62"/>
+      <c r="HY3" s="62"/>
+      <c r="HZ3" s="62"/>
+      <c r="IA3" s="62"/>
+      <c r="IB3" s="62"/>
+      <c r="IC3" s="62"/>
+      <c r="ID3" s="62"/>
+      <c r="IE3" s="62"/>
+      <c r="IF3" s="62"/>
+      <c r="IG3" s="63"/>
+      <c r="IH3" s="64">
         <v>17</v>
       </c>
-      <c r="II3" s="52"/>
-      <c r="IJ3" s="52"/>
-      <c r="IK3" s="52"/>
-      <c r="IL3" s="52"/>
-      <c r="IM3" s="52"/>
-      <c r="IN3" s="52"/>
-      <c r="IO3" s="52"/>
-      <c r="IP3" s="52"/>
-      <c r="IQ3" s="52"/>
-      <c r="IR3" s="52"/>
-      <c r="IS3" s="52"/>
-      <c r="IT3" s="52"/>
-      <c r="IU3" s="52"/>
-      <c r="IV3" s="52"/>
-      <c r="IW3" s="53"/>
+      <c r="II3" s="62"/>
+      <c r="IJ3" s="62"/>
+      <c r="IK3" s="62"/>
+      <c r="IL3" s="62"/>
+      <c r="IM3" s="62"/>
+      <c r="IN3" s="62"/>
+      <c r="IO3" s="62"/>
+      <c r="IP3" s="62"/>
+      <c r="IQ3" s="62"/>
+      <c r="IR3" s="62"/>
+      <c r="IS3" s="62"/>
+      <c r="IT3" s="62"/>
+      <c r="IU3" s="62"/>
+      <c r="IV3" s="62"/>
+      <c r="IW3" s="63"/>
     </row>
     <row r="4" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="46" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="47" t="s">
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="46" t="s">
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="47" t="s">
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47"/>
-      <c r="AX4" s="46" t="s">
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="47" t="s">
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="47"/>
-      <c r="BL4" s="47"/>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="46" t="s">
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="47" t="s">
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="56"/>
+      <c r="BS4" s="56"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="BW4" s="47"/>
-      <c r="BX4" s="47"/>
-      <c r="BY4" s="47"/>
-      <c r="BZ4" s="47"/>
-      <c r="CA4" s="47"/>
-      <c r="CB4" s="47"/>
-      <c r="CC4" s="47"/>
-      <c r="CD4" s="46" t="s">
+      <c r="BW4" s="57"/>
+      <c r="BX4" s="57"/>
+      <c r="BY4" s="57"/>
+      <c r="BZ4" s="57"/>
+      <c r="CA4" s="57"/>
+      <c r="CB4" s="57"/>
+      <c r="CC4" s="57"/>
+      <c r="CD4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CE4" s="46"/>
-      <c r="CF4" s="46"/>
-      <c r="CG4" s="46"/>
-      <c r="CH4" s="46"/>
-      <c r="CI4" s="46"/>
-      <c r="CJ4" s="46"/>
-      <c r="CK4" s="46"/>
-      <c r="CL4" s="47" t="s">
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="56"/>
+      <c r="CG4" s="56"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="CM4" s="47"/>
-      <c r="CN4" s="47"/>
-      <c r="CO4" s="47"/>
-      <c r="CP4" s="47"/>
-      <c r="CQ4" s="47"/>
-      <c r="CR4" s="47"/>
-      <c r="CS4" s="47"/>
-      <c r="CT4" s="46" t="s">
+      <c r="CM4" s="57"/>
+      <c r="CN4" s="57"/>
+      <c r="CO4" s="57"/>
+      <c r="CP4" s="57"/>
+      <c r="CQ4" s="57"/>
+      <c r="CR4" s="57"/>
+      <c r="CS4" s="57"/>
+      <c r="CT4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CU4" s="46"/>
-      <c r="CV4" s="46"/>
-      <c r="CW4" s="46"/>
-      <c r="CX4" s="46"/>
-      <c r="CY4" s="46"/>
-      <c r="CZ4" s="46"/>
-      <c r="DA4" s="46"/>
-      <c r="DB4" s="47" t="s">
+      <c r="CU4" s="56"/>
+      <c r="CV4" s="56"/>
+      <c r="CW4" s="56"/>
+      <c r="CX4" s="56"/>
+      <c r="CY4" s="56"/>
+      <c r="CZ4" s="56"/>
+      <c r="DA4" s="56"/>
+      <c r="DB4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="DC4" s="47"/>
-      <c r="DD4" s="47"/>
-      <c r="DE4" s="47"/>
-      <c r="DF4" s="47"/>
-      <c r="DG4" s="47"/>
-      <c r="DH4" s="47"/>
-      <c r="DI4" s="47"/>
-      <c r="DJ4" s="46" t="s">
+      <c r="DC4" s="57"/>
+      <c r="DD4" s="57"/>
+      <c r="DE4" s="57"/>
+      <c r="DF4" s="57"/>
+      <c r="DG4" s="57"/>
+      <c r="DH4" s="57"/>
+      <c r="DI4" s="57"/>
+      <c r="DJ4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="DK4" s="46"/>
-      <c r="DL4" s="46"/>
-      <c r="DM4" s="46"/>
-      <c r="DN4" s="46"/>
-      <c r="DO4" s="46"/>
-      <c r="DP4" s="46"/>
-      <c r="DQ4" s="46"/>
-      <c r="DR4" s="47" t="s">
+      <c r="DK4" s="56"/>
+      <c r="DL4" s="56"/>
+      <c r="DM4" s="56"/>
+      <c r="DN4" s="56"/>
+      <c r="DO4" s="56"/>
+      <c r="DP4" s="56"/>
+      <c r="DQ4" s="56"/>
+      <c r="DR4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="DS4" s="47"/>
-      <c r="DT4" s="47"/>
-      <c r="DU4" s="47"/>
-      <c r="DV4" s="47"/>
-      <c r="DW4" s="47"/>
-      <c r="DX4" s="47"/>
-      <c r="DY4" s="47"/>
-      <c r="DZ4" s="46" t="s">
+      <c r="DS4" s="57"/>
+      <c r="DT4" s="57"/>
+      <c r="DU4" s="57"/>
+      <c r="DV4" s="57"/>
+      <c r="DW4" s="57"/>
+      <c r="DX4" s="57"/>
+      <c r="DY4" s="57"/>
+      <c r="DZ4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="EA4" s="46"/>
-      <c r="EB4" s="46"/>
-      <c r="EC4" s="46"/>
-      <c r="ED4" s="46"/>
-      <c r="EE4" s="46"/>
-      <c r="EF4" s="46"/>
-      <c r="EG4" s="46"/>
-      <c r="EH4" s="47" t="s">
+      <c r="EA4" s="56"/>
+      <c r="EB4" s="56"/>
+      <c r="EC4" s="56"/>
+      <c r="ED4" s="56"/>
+      <c r="EE4" s="56"/>
+      <c r="EF4" s="56"/>
+      <c r="EG4" s="56"/>
+      <c r="EH4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="EI4" s="47"/>
-      <c r="EJ4" s="47"/>
-      <c r="EK4" s="47"/>
-      <c r="EL4" s="47"/>
-      <c r="EM4" s="47"/>
-      <c r="EN4" s="47"/>
-      <c r="EO4" s="47"/>
-      <c r="EP4" s="46" t="s">
+      <c r="EI4" s="57"/>
+      <c r="EJ4" s="57"/>
+      <c r="EK4" s="57"/>
+      <c r="EL4" s="57"/>
+      <c r="EM4" s="57"/>
+      <c r="EN4" s="57"/>
+      <c r="EO4" s="57"/>
+      <c r="EP4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="EQ4" s="46"/>
-      <c r="ER4" s="46"/>
-      <c r="ES4" s="46"/>
-      <c r="ET4" s="46"/>
-      <c r="EU4" s="46"/>
-      <c r="EV4" s="46"/>
-      <c r="EW4" s="46"/>
-      <c r="EX4" s="47" t="s">
+      <c r="EQ4" s="56"/>
+      <c r="ER4" s="56"/>
+      <c r="ES4" s="56"/>
+      <c r="ET4" s="56"/>
+      <c r="EU4" s="56"/>
+      <c r="EV4" s="56"/>
+      <c r="EW4" s="56"/>
+      <c r="EX4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="EY4" s="47"/>
-      <c r="EZ4" s="47"/>
-      <c r="FA4" s="47"/>
-      <c r="FB4" s="47"/>
-      <c r="FC4" s="47"/>
-      <c r="FD4" s="47"/>
-      <c r="FE4" s="47"/>
-      <c r="FF4" s="46" t="s">
+      <c r="EY4" s="57"/>
+      <c r="EZ4" s="57"/>
+      <c r="FA4" s="57"/>
+      <c r="FB4" s="57"/>
+      <c r="FC4" s="57"/>
+      <c r="FD4" s="57"/>
+      <c r="FE4" s="57"/>
+      <c r="FF4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="FG4" s="46"/>
-      <c r="FH4" s="46"/>
-      <c r="FI4" s="46"/>
-      <c r="FJ4" s="46"/>
-      <c r="FK4" s="46"/>
-      <c r="FL4" s="46"/>
-      <c r="FM4" s="46"/>
-      <c r="FN4" s="47" t="s">
+      <c r="FG4" s="56"/>
+      <c r="FH4" s="56"/>
+      <c r="FI4" s="56"/>
+      <c r="FJ4" s="56"/>
+      <c r="FK4" s="56"/>
+      <c r="FL4" s="56"/>
+      <c r="FM4" s="56"/>
+      <c r="FN4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="FO4" s="47"/>
-      <c r="FP4" s="47"/>
-      <c r="FQ4" s="47"/>
-      <c r="FR4" s="47"/>
-      <c r="FS4" s="47"/>
-      <c r="FT4" s="47"/>
-      <c r="FU4" s="47"/>
-      <c r="FV4" s="46" t="s">
+      <c r="FO4" s="57"/>
+      <c r="FP4" s="57"/>
+      <c r="FQ4" s="57"/>
+      <c r="FR4" s="57"/>
+      <c r="FS4" s="57"/>
+      <c r="FT4" s="57"/>
+      <c r="FU4" s="57"/>
+      <c r="FV4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="FW4" s="46"/>
-      <c r="FX4" s="46"/>
-      <c r="FY4" s="46"/>
-      <c r="FZ4" s="46"/>
-      <c r="GA4" s="46"/>
-      <c r="GB4" s="46"/>
-      <c r="GC4" s="46"/>
-      <c r="GD4" s="47" t="s">
+      <c r="FW4" s="56"/>
+      <c r="FX4" s="56"/>
+      <c r="FY4" s="56"/>
+      <c r="FZ4" s="56"/>
+      <c r="GA4" s="56"/>
+      <c r="GB4" s="56"/>
+      <c r="GC4" s="56"/>
+      <c r="GD4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="GE4" s="47"/>
-      <c r="GF4" s="47"/>
-      <c r="GG4" s="47"/>
-      <c r="GH4" s="47"/>
-      <c r="GI4" s="47"/>
-      <c r="GJ4" s="47"/>
-      <c r="GK4" s="47"/>
-      <c r="GL4" s="46" t="s">
+      <c r="GE4" s="57"/>
+      <c r="GF4" s="57"/>
+      <c r="GG4" s="57"/>
+      <c r="GH4" s="57"/>
+      <c r="GI4" s="57"/>
+      <c r="GJ4" s="57"/>
+      <c r="GK4" s="57"/>
+      <c r="GL4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="GM4" s="46"/>
-      <c r="GN4" s="46"/>
-      <c r="GO4" s="46"/>
-      <c r="GP4" s="46"/>
-      <c r="GQ4" s="46"/>
-      <c r="GR4" s="46"/>
-      <c r="GS4" s="46"/>
-      <c r="GT4" s="47" t="s">
+      <c r="GM4" s="56"/>
+      <c r="GN4" s="56"/>
+      <c r="GO4" s="56"/>
+      <c r="GP4" s="56"/>
+      <c r="GQ4" s="56"/>
+      <c r="GR4" s="56"/>
+      <c r="GS4" s="56"/>
+      <c r="GT4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="GU4" s="47"/>
-      <c r="GV4" s="47"/>
-      <c r="GW4" s="47"/>
-      <c r="GX4" s="47"/>
-      <c r="GY4" s="47"/>
-      <c r="GZ4" s="47"/>
-      <c r="HA4" s="47"/>
-      <c r="HB4" s="46" t="s">
+      <c r="GU4" s="57"/>
+      <c r="GV4" s="57"/>
+      <c r="GW4" s="57"/>
+      <c r="GX4" s="57"/>
+      <c r="GY4" s="57"/>
+      <c r="GZ4" s="57"/>
+      <c r="HA4" s="57"/>
+      <c r="HB4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="HC4" s="46"/>
-      <c r="HD4" s="46"/>
-      <c r="HE4" s="46"/>
-      <c r="HF4" s="46"/>
-      <c r="HG4" s="46"/>
-      <c r="HH4" s="46"/>
-      <c r="HI4" s="46"/>
-      <c r="HJ4" s="47" t="s">
+      <c r="HC4" s="56"/>
+      <c r="HD4" s="56"/>
+      <c r="HE4" s="56"/>
+      <c r="HF4" s="56"/>
+      <c r="HG4" s="56"/>
+      <c r="HH4" s="56"/>
+      <c r="HI4" s="56"/>
+      <c r="HJ4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="HK4" s="47"/>
-      <c r="HL4" s="47"/>
-      <c r="HM4" s="47"/>
-      <c r="HN4" s="47"/>
-      <c r="HO4" s="47"/>
-      <c r="HP4" s="47"/>
-      <c r="HQ4" s="47"/>
-      <c r="HR4" s="46" t="s">
+      <c r="HK4" s="57"/>
+      <c r="HL4" s="57"/>
+      <c r="HM4" s="57"/>
+      <c r="HN4" s="57"/>
+      <c r="HO4" s="57"/>
+      <c r="HP4" s="57"/>
+      <c r="HQ4" s="57"/>
+      <c r="HR4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="HS4" s="46"/>
-      <c r="HT4" s="46"/>
-      <c r="HU4" s="46"/>
-      <c r="HV4" s="46"/>
-      <c r="HW4" s="46"/>
-      <c r="HX4" s="46"/>
-      <c r="HY4" s="46"/>
-      <c r="HZ4" s="47" t="s">
+      <c r="HS4" s="56"/>
+      <c r="HT4" s="56"/>
+      <c r="HU4" s="56"/>
+      <c r="HV4" s="56"/>
+      <c r="HW4" s="56"/>
+      <c r="HX4" s="56"/>
+      <c r="HY4" s="56"/>
+      <c r="HZ4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="IA4" s="47"/>
-      <c r="IB4" s="47"/>
-      <c r="IC4" s="47"/>
-      <c r="ID4" s="47"/>
-      <c r="IE4" s="47"/>
-      <c r="IF4" s="47"/>
-      <c r="IG4" s="47"/>
-      <c r="IH4" s="46" t="s">
+      <c r="IA4" s="57"/>
+      <c r="IB4" s="57"/>
+      <c r="IC4" s="57"/>
+      <c r="ID4" s="57"/>
+      <c r="IE4" s="57"/>
+      <c r="IF4" s="57"/>
+      <c r="IG4" s="57"/>
+      <c r="IH4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="II4" s="46"/>
-      <c r="IJ4" s="46"/>
-      <c r="IK4" s="46"/>
-      <c r="IL4" s="46"/>
-      <c r="IM4" s="46"/>
-      <c r="IN4" s="46"/>
-      <c r="IO4" s="46"/>
-      <c r="IP4" s="47" t="s">
+      <c r="II4" s="56"/>
+      <c r="IJ4" s="56"/>
+      <c r="IK4" s="56"/>
+      <c r="IL4" s="56"/>
+      <c r="IM4" s="56"/>
+      <c r="IN4" s="56"/>
+      <c r="IO4" s="56"/>
+      <c r="IP4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="IQ4" s="47"/>
-      <c r="IR4" s="47"/>
-      <c r="IS4" s="47"/>
-      <c r="IT4" s="47"/>
-      <c r="IU4" s="47"/>
-      <c r="IV4" s="47"/>
-      <c r="IW4" s="47"/>
+      <c r="IQ4" s="57"/>
+      <c r="IR4" s="57"/>
+      <c r="IS4" s="57"/>
+      <c r="IT4" s="57"/>
+      <c r="IU4" s="57"/>
+      <c r="IV4" s="57"/>
+      <c r="IW4" s="57"/>
     </row>
     <row r="5" spans="1:257" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -29038,7 +29372,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
